--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFB6E27-1E88-4601-8752-4F02B61302BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B32D178-72AF-4325-BCB2-8D3475B1CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1905" windowWidth="27615" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29430" yWindow="3810" windowWidth="20250" windowHeight="16635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Bench</t>
   </si>
@@ -120,6 +121,51 @@
   </si>
   <si>
     <t>HC6(17)</t>
+  </si>
+  <si>
+    <t>BV15(50)</t>
+  </si>
+  <si>
+    <t>BV15(40)</t>
+  </si>
+  <si>
+    <t>BV15(29)</t>
+  </si>
+  <si>
+    <t>qft15(29)</t>
+  </si>
+  <si>
+    <t>IQP15(29)</t>
+  </si>
+  <si>
+    <t>hlf15(37)</t>
+  </si>
+  <si>
+    <t>hlf15(29)</t>
+  </si>
+  <si>
+    <t>vqe14(27)</t>
+  </si>
+  <si>
+    <t>qft15(45)</t>
+  </si>
+  <si>
+    <t>qft15(37)</t>
+  </si>
+  <si>
+    <t>IQP15(45)</t>
+  </si>
+  <si>
+    <t>IQP15(37)</t>
+  </si>
+  <si>
+    <t>hlf15(45)</t>
+  </si>
+  <si>
+    <t>vqe14(41)</t>
+  </si>
+  <si>
+    <t>vqe14(34)</t>
   </si>
 </sst>
 </file>
@@ -439,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,4 +956,337 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>B2*1000+999</f>
+        <v>74999</v>
+      </c>
+      <c r="G2">
+        <f>D2*1000+999-E2*999</f>
+        <v>38004</v>
+      </c>
+      <c r="H2">
+        <f>(B2-D2)/B2</f>
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="I2">
+        <f>(F2-G2)/F2</f>
+        <v>0.49327324364324859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">B3*1000+999</f>
+        <v>999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="1">D3*1000+999-E3*999</f>
+        <v>999</v>
+      </c>
+      <c r="H3" t="e">
+        <f t="shared" ref="H3:H11" si="2">(B3-D3)/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="3">(F3-G3)/F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>12.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>60999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>32511.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.46701585271889701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>7.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>80999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>54506.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.3270719391597427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>14.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>52999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>22513.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0.57520896620690953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B32D178-72AF-4325-BCB2-8D3475B1CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7956B-975B-4D1B-92FC-2E57D38DF796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="3810" windowWidth="20250" windowHeight="16635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Bench</t>
   </si>
@@ -166,6 +166,39 @@
   </si>
   <si>
     <t>vqe14(34)</t>
+  </si>
+  <si>
+    <t>Second improvement</t>
+  </si>
+  <si>
+    <t>BV5</t>
+  </si>
+  <si>
+    <t>IQP5</t>
+  </si>
+  <si>
+    <t>QFT5</t>
+  </si>
+  <si>
+    <t>HLF7</t>
+  </si>
+  <si>
+    <t>VQE6</t>
+  </si>
+  <si>
+    <t>BV15</t>
+  </si>
+  <si>
+    <t>IQP15</t>
+  </si>
+  <si>
+    <t>QFT15</t>
+  </si>
+  <si>
+    <t>VQE14</t>
+  </si>
+  <si>
+    <t>HLF15</t>
   </si>
 </sst>
 </file>
@@ -218,6 +251,2127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Depth reduction for small-number benchmarks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Single circuit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>BV5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IQP5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QFT5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HLF7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VQE6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$2,Sheet1!$H$6,Sheet1!$H$10,Sheet1!$H$14,Sheet1!$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29166666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77D3-4EA0-A685-EF0F9D03E765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster state</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$22:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>BV5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IQP5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QFT5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HLF7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VQE6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$J$2,Sheet1!$J$6,Sheet1!$J$10,Sheet1!$J$14,Sheet1!$J$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1562529249777086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5026977457517963E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12844897376065528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3052583313899022E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8267730709228369E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77D3-4EA0-A685-EF0F9D03E765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1981806031"/>
+        <c:axId val="1898034287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1981806031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1898034287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1898034287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth Reduction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981806031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Depth reduction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for mideum-number benchmarks</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Single Circuit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>BV15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IQP15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QFT15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HLF15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VQE14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$H$2,Sheet2!$H$5,Sheet2!$H$8,Sheet2!$H$11,Sheet2!$H$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.43243243243243246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63E1-40B8-9D35-EE3841836DA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster State</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$20:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>BV15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IQP15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>QFT15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HLF15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VQE14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$J$2,Sheet2!$J$5,Sheet2!$J$8,Sheet2!$J$11,Sheet2!$J$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0840811210816137E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9571939159742708E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20034918605223034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26751665851460182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3350710667387982E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63E1-40B8-9D35-EE3841836DA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2020913791"/>
+        <c:axId val="1673114543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2020913791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673114543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1673114543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth Reduction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2020913791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A56C93-6C6E-3577-E63E-1C1510A23382}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F74FE66-9FFF-26C5-3BBE-0B66B106FD6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A22" sqref="A22:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +2651,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +2679,11 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -558,8 +2715,12 @@
         <f>(F2-G2)/F2</f>
         <v>0.6205386392634229</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>I2-H2</f>
+        <v>0.1562529249777086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -579,8 +2740,12 @@
         <f t="shared" ref="I3:I18" si="3">(F3-G3)/F3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J18" si="4">I3-H3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -600,8 +2765,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -621,8 +2790,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -654,8 +2827,12 @@
         <f t="shared" si="3"/>
         <v>0.34775425018479067</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>7.5026977457517963E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -675,8 +2852,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -696,8 +2877,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -717,8 +2902,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -750,8 +2939,12 @@
         <f t="shared" si="3"/>
         <v>0.42844897376065527</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.12844897376065528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -771,8 +2964,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -792,8 +2989,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -813,8 +3014,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -846,8 +3051,12 @@
         <f t="shared" si="3"/>
         <v>0.3912344014957172</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>7.3052583313899022E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -867,8 +3076,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -888,8 +3101,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -909,8 +3126,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -942,33 +3163,63 @@
         <f t="shared" si="3"/>
         <v>0.35993439737589505</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>6.8267730709228369E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,8 +3247,11 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1029,29 +3283,37 @@
         <f>(F2-G2)/F2</f>
         <v>0.49327324364324859</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>I2-H2</f>
+        <v>6.0840811210816137E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">B3*1000+999</f>
+        <f t="shared" ref="F3:F14" si="0">B3*1000+999</f>
         <v>999</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">D3*1000+999-E3*999</f>
+        <f t="shared" ref="G3:G14" si="1">D3*1000+999-E3*999</f>
         <v>999</v>
       </c>
       <c r="H3" t="e">
-        <f t="shared" ref="H3:H11" si="2">(B3-D3)/B3</f>
+        <f t="shared" ref="H3:H14" si="2">(B3-D3)/B3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="3">(F3-G3)/F3</f>
+        <f t="shared" ref="I3:I14" si="3">(F3-G3)/F3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J18" si="4">I3-H3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1071,158 +3333,186 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>60999</v>
+        <f>B5*1000+999</f>
+        <v>80999</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>32511.5</v>
+        <f>D5*1000+999-E5*999</f>
+        <v>54506.5</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>0.26666666666666666</v>
+        <f>(B5-D5)/B5</f>
+        <v>0.23749999999999999</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0.46701585271889701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f>(F5-G5)/F5</f>
+        <v>0.3270719391597427</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>8.9571939159742708E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>B6*1000+999</f>
         <v>999</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>D6*1000+999-E6*999</f>
         <v>999</v>
       </c>
       <c r="H6" t="e">
-        <f t="shared" si="2"/>
+        <f>(B6-D6)/B6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f>(F6-G6)/F6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>B7*1000+999</f>
         <v>999</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>D7*1000+999-E7*999</f>
         <v>999</v>
       </c>
       <c r="H7" t="e">
-        <f t="shared" si="2"/>
+        <f>(B7-D7)/B7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f>(F7-G7)/F7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>80999</v>
+        <f>B8*1000+999</f>
+        <v>60999</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>54506.5</v>
+        <f>D8*1000+999-E8*999</f>
+        <v>32511.5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>0.23749999999999999</v>
+        <f>(B8-D8)/B8</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0.3270719391597427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <f>(F8-G8)/F8</f>
+        <v>0.46701585271889701</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.20034918605223034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>B9*1000+999</f>
         <v>999</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>D9*1000+999-E9*999</f>
         <v>999</v>
       </c>
       <c r="H9" t="e">
-        <f t="shared" si="2"/>
+        <f>(B9-D9)/B9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f>(F9-G9)/F9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>B10*1000+999</f>
         <v>999</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>D10*1000+999-E10*999</f>
         <v>999</v>
       </c>
       <c r="H10" t="e">
-        <f t="shared" si="2"/>
+        <f>(B10-D10)/B10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f>(F10-G10)/F10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1254,18 +3544,62 @@
         <f t="shared" si="3"/>
         <v>0.57520896620690953</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.26751665851460182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1275,18 +3609,70 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>60999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>37005</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0.39335071066738797</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>9.3350710667387982E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7956B-975B-4D1B-92FC-2E57D38DF796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62DD9B5-3E11-4859-B258-D43056E7AAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19245" yWindow="2340" windowWidth="28440" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>Bench</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>HLF15</t>
+  </si>
+  <si>
+    <t>Round</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.4642857142857143</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.27272727272727271</c:v>
@@ -444,16 +447,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1562529249777086</c:v>
+                  <c:v>-1.1415772964387116E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.5026977457517963E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12844897376065528</c:v>
+                  <c:v>0.14034239725701225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3052583313899022E-2</c:v>
+                  <c:v>1.5135642891464074E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.8267730709228369E-2</c:v>
@@ -2296,16 +2299,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2637,10 +2640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,7 +2654,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2682,8 +2685,11 @@
       <c r="J1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2691,111 +2697,123 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f>B2*1000+999</f>
-        <v>28999</v>
+        <f>B2*L2 - (L2-1) * C2</f>
+        <v>25003</v>
       </c>
       <c r="G2">
-        <f>D2*1000+999-E2*999</f>
-        <v>11004</v>
+        <f>D2*L2-E2*(L2-1)</f>
+        <v>11001</v>
       </c>
       <c r="H2">
         <f>(B2-D2)/B2</f>
-        <v>0.4642857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I2">
         <f>(F2-G2)/F2</f>
-        <v>0.6205386392634229</v>
+        <v>0.56001279846418428</v>
       </c>
       <c r="J2">
         <f>I2-H2</f>
-        <v>0.1562529249777086</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-1.1415772964387116E-2</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">B3*1000+999</f>
-        <v>999</v>
+        <f t="shared" ref="F3:F18" si="0">B3*L3 - (L3-1) * C3</f>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="1">D3*1000+999-E3*999</f>
-        <v>999</v>
+        <f t="shared" ref="G3:G18" si="1">D3*L3-E3*(L3-1)</f>
+        <v>0</v>
       </c>
       <c r="H3" t="e">
         <f t="shared" ref="H3:H18" si="2">(B3-D3)/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="e">
         <f t="shared" ref="I3:I18" si="3">(F3-G3)/F3</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J3" t="e">
         <f t="shared" ref="J3:J18" si="4">I3-H3</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J4" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J5" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2803,13 +2821,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <v>16</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -2831,83 +2849,95 @@
         <f t="shared" si="4"/>
         <v>7.5026977457517963E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H7" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J8" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H9" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2915,13 +2945,13 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10">
         <v>14</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -2929,7 +2959,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>12002</v>
+        <v>11752.25</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
@@ -2937,89 +2967,101 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.42844897376065527</v>
+        <v>0.44034239725701224</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>0.12844897376065528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.14034239725701225</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H12" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3027,17 +3069,17 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>22999</v>
+        <v>21001</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
@@ -3049,89 +3091,101 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.3912344014957172</v>
+        <v>0.33331746107328225</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>7.3052583313899022E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.5135642891464074E-2</v>
+      </c>
+      <c r="L14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H15" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H16" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J16" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H17" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -3139,13 +3193,13 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -3167,38 +3221,41 @@
         <f t="shared" si="4"/>
         <v>6.8267730709228369E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -3213,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="e">
-        <f t="shared" ref="J3:J18" si="4">I3-H3</f>
+        <f t="shared" ref="J3:J14" si="4">I3-H3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3355,19 +3412,19 @@
         <v>7.5</v>
       </c>
       <c r="F5">
-        <f>B5*1000+999</f>
+        <f t="shared" ref="F5:F10" si="5">B5*1000+999</f>
         <v>80999</v>
       </c>
       <c r="G5">
-        <f>D5*1000+999-E5*999</f>
+        <f t="shared" ref="G5:G10" si="6">D5*1000+999-E5*999</f>
         <v>54506.5</v>
       </c>
       <c r="H5">
-        <f>(B5-D5)/B5</f>
+        <f t="shared" ref="H5:H10" si="7">(B5-D5)/B5</f>
         <v>0.23749999999999999</v>
       </c>
       <c r="I5">
-        <f>(F5-G5)/F5</f>
+        <f t="shared" ref="I5:I10" si="8">(F5-G5)/F5</f>
         <v>0.3270719391597427</v>
       </c>
       <c r="J5">
@@ -3380,19 +3437,19 @@
         <v>39</v>
       </c>
       <c r="F6">
-        <f>B6*1000+999</f>
+        <f t="shared" si="5"/>
         <v>999</v>
       </c>
       <c r="G6">
-        <f>D6*1000+999-E6*999</f>
+        <f t="shared" si="6"/>
         <v>999</v>
       </c>
       <c r="H6" t="e">
-        <f>(B6-D6)/B6</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I6">
-        <f>(F6-G6)/F6</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J6" t="e">
@@ -3405,19 +3462,19 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <f>B7*1000+999</f>
+        <f t="shared" si="5"/>
         <v>999</v>
       </c>
       <c r="G7">
-        <f>D7*1000+999-E7*999</f>
+        <f t="shared" si="6"/>
         <v>999</v>
       </c>
       <c r="H7" t="e">
-        <f>(B7-D7)/B7</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I7">
-        <f>(F7-G7)/F7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J7" t="e">
@@ -3442,19 +3499,19 @@
         <v>12.5</v>
       </c>
       <c r="F8">
-        <f>B8*1000+999</f>
+        <f t="shared" si="5"/>
         <v>60999</v>
       </c>
       <c r="G8">
-        <f>D8*1000+999-E8*999</f>
+        <f t="shared" si="6"/>
         <v>32511.5</v>
       </c>
       <c r="H8">
-        <f>(B8-D8)/B8</f>
+        <f t="shared" si="7"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="I8">
-        <f>(F8-G8)/F8</f>
+        <f t="shared" si="8"/>
         <v>0.46701585271889701</v>
       </c>
       <c r="J8">
@@ -3467,19 +3524,19 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <f>B9*1000+999</f>
+        <f t="shared" si="5"/>
         <v>999</v>
       </c>
       <c r="G9">
-        <f>D9*1000+999-E9*999</f>
+        <f t="shared" si="6"/>
         <v>999</v>
       </c>
       <c r="H9" t="e">
-        <f>(B9-D9)/B9</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I9">
-        <f>(F9-G9)/F9</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J9" t="e">
@@ -3492,19 +3549,19 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <f>B10*1000+999</f>
+        <f t="shared" si="5"/>
         <v>999</v>
       </c>
       <c r="G10">
-        <f>D10*1000+999-E10*999</f>
+        <f t="shared" si="6"/>
         <v>999</v>
       </c>
       <c r="H10" t="e">
-        <f>(B10-D10)/B10</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10">
-        <f>(F10-G10)/F10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J10" t="e">

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62DD9B5-3E11-4859-B258-D43056E7AAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB07577-D0A0-44D1-A0F1-F8269EBC41B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19245" yWindow="2340" windowWidth="28440" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Depth reduction for small-number benchmarks</a:t>
+              <a:t>Depth Reduction</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -330,7 +330,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -397,7 +397,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77D3-4EA0-A685-EF0F9D03E765}"/>
+              <c16:uniqueId val="{00000000-E986-4C02-83C3-85CB60B3731A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -405,7 +405,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Cluster state</c:v>
+            <c:v>1000 circuit</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -442,31 +442,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$J$2,Sheet1!$J$6,Sheet1!$J$10,Sheet1!$J$14,Sheet1!$J$18)</c:f>
+              <c:f>(Sheet1!$I$2,Sheet1!$I$6,Sheet1!$I$10,Sheet1!$I$14,Sheet1!$I$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1.1415772964387116E-2</c:v>
+                  <c:v>0.56001279846418428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5026977457517963E-2</c:v>
+                  <c:v>0.34775425018479067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14034239725701225</c:v>
+                  <c:v>0.44034239725701224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5135642891464074E-2</c:v>
+                  <c:v>0.33331746107328225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8267730709228369E-2</c:v>
+                  <c:v>0.35993439737589505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-77D3-4EA0-A685-EF0F9D03E765}"/>
+              <c16:uniqueId val="{00000001-E986-4C02-83C3-85CB60B3731A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -478,13 +478,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1981806031"/>
-        <c:axId val="1898034287"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="356666383"/>
+        <c:axId val="1862349871"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1981806031"/>
+        <c:axId val="356666383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898034287"/>
+        <c:crossAx val="1862349871"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898034287"/>
+        <c:axId val="1862349871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,8 +576,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Depth Reduction</a:t>
+                  <a:t>Depth reduction w.r.t.</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>baseline</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -641,7 +650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981806031"/>
+        <c:crossAx val="356666383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1286,7 +1295,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1490,6 +1499,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -1790,532 +2302,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A56C93-6C6E-3577-E63E-1C1510A23382}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5416B7FE-8905-E3FF-24D8-C261D7007B05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2650,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="I18" activeCellId="9" sqref="H2 I2 H6 I6 H10 I10 H14 I14 H18 I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB07577-D0A0-44D1-A0F1-F8269EBC41B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1B63C-4C5F-4EFC-AF9A-762598D1BC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="30" windowWidth="15330" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Bench</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>flip</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.56001279846418428</c:v>
+                  <c:v>0.62064209110658985</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.34775425018479067</c:v>
@@ -456,7 +459,7 @@
                   <c:v>0.44034239725701224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33331746107328225</c:v>
+                  <c:v>0.3912344014957172</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.35993439737589505</c:v>
@@ -936,16 +939,16 @@
                   <c:v>6.0840811210816137E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9571939159742708E-2</c:v>
+                  <c:v>0.10807216755762417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20034918605223034</c:v>
+                  <c:v>0.20116805193527765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26751665851460182</c:v>
+                  <c:v>0.25809195238807114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3350710667387982E-2</c:v>
+                  <c:v>0.12610534598927853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2649,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" activeCellId="9" sqref="H2 I2 H6 I6 H10 I10 H14 I14 H18 I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,8 +2716,8 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>B2*L2 - (L2-1) * C2</f>
-        <v>25003</v>
+        <f>B2*L2 + (L2-1)</f>
+        <v>28999</v>
       </c>
       <c r="G2">
         <f>D2*L2-E2*(L2-1)</f>
@@ -2726,11 +2729,11 @@
       </c>
       <c r="I2">
         <f>(F2-G2)/F2</f>
-        <v>0.56001279846418428</v>
+        <v>0.62064209110658985</v>
       </c>
       <c r="J2">
         <f>I2-H2</f>
-        <v>-1.1415772964387116E-2</v>
+        <v>4.9213519678018458E-2</v>
       </c>
       <c r="L2">
         <v>1000</v>
@@ -2741,8 +2744,8 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">B3*L3 - (L3-1) * C3</f>
-        <v>0</v>
+        <f t="shared" ref="F3:F18" si="0">B3*L3 + (L3-1)</f>
+        <v>999</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G18" si="1">D3*L3-E3*(L3-1)</f>
@@ -2752,9 +2755,9 @@
         <f t="shared" ref="H3:H18" si="2">(B3-D3)/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" t="e">
+      <c r="I3">
         <f t="shared" ref="I3:I18" si="3">(F3-G3)/F3</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J3" t="e">
         <f t="shared" ref="J3:J18" si="4">I3-H3</f>
@@ -2770,7 +2773,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -2780,9 +2783,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" t="e">
+      <c r="I4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J4" t="e">
         <f t="shared" si="4"/>
@@ -2798,7 +2801,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -2808,9 +2811,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" t="e">
+      <c r="I5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J5" t="e">
         <f t="shared" si="4"/>
@@ -2866,7 +2869,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -2876,9 +2879,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" t="e">
+      <c r="I7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J7" t="e">
         <f t="shared" si="4"/>
@@ -2894,7 +2897,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -2904,9 +2907,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" t="e">
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J8" t="e">
         <f t="shared" si="4"/>
@@ -2922,7 +2925,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -2932,9 +2935,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" t="e">
+      <c r="I9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J9" t="e">
         <f t="shared" si="4"/>
@@ -2990,7 +2993,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -3000,9 +3003,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" t="e">
+      <c r="I11">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J11" t="e">
         <f t="shared" si="4"/>
@@ -3018,7 +3021,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
@@ -3028,9 +3031,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" t="e">
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J12" t="e">
         <f t="shared" si="4"/>
@@ -3046,7 +3049,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
@@ -3056,9 +3059,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" t="e">
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J13" t="e">
         <f t="shared" si="4"/>
@@ -3086,7 +3089,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>21001</v>
+        <v>22999</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
@@ -3098,11 +3101,11 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.33331746107328225</v>
+        <v>0.3912344014957172</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>1.5135642891464074E-2</v>
+        <v>7.3052583313899022E-2</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -3114,7 +3117,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
@@ -3124,9 +3127,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" t="e">
+      <c r="I15">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J15" t="e">
         <f t="shared" si="4"/>
@@ -3142,7 +3145,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
@@ -3152,9 +3155,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" t="e">
+      <c r="I16">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J16" t="e">
         <f t="shared" si="4"/>
@@ -3170,7 +3173,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
@@ -3180,9 +3183,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" t="e">
+      <c r="I17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="J17" t="e">
         <f t="shared" si="4"/>
@@ -3251,11 +3254,17 @@
       <c r="A23" t="s">
         <v>45</v>
       </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3265,6 +3274,9 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3275,15 +3287,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3314,8 +3326,11 @@
       <c r="J1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3323,20 +3338,20 @@
         <v>74</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>42</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <f>B2*1000+999</f>
+        <f>B2*L2 + (L2-1)</f>
         <v>74999</v>
       </c>
       <c r="G2">
-        <f>D2*1000+999-E2*999</f>
+        <f>D2*L2-E2*(L2-1)</f>
         <v>38004</v>
       </c>
       <c r="H2">
@@ -3351,33 +3366,39 @@
         <f>I2-H2</f>
         <v>6.0840811210816137E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" si="0">B3*1000+999</f>
+        <f t="shared" ref="F3:F18" si="0">B3*L3 + (L3-1)</f>
         <v>999</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G14" si="1">D3*1000+999-E3*999</f>
-        <v>999</v>
+        <f t="shared" ref="G3:G18" si="1">D3*L3-E3*(L3-1)</f>
+        <v>0</v>
       </c>
       <c r="H3" t="e">
-        <f t="shared" ref="H3:H14" si="2">(B3-D3)/B3</f>
+        <f t="shared" ref="H3:H18" si="2">(B3-D3)/B3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I14" si="3">(F3-G3)/F3</f>
-        <v>0</v>
+        <f t="shared" ref="I3:I18" si="3">(F3-G3)/F3</f>
+        <v>1</v>
       </c>
       <c r="J3" t="e">
-        <f t="shared" ref="J3:J14" si="4">I3-H3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J3:J18" si="4">I3-H3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3387,7 +3408,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H4" t="e">
         <f t="shared" si="2"/>
@@ -3395,14 +3416,17 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3410,86 +3434,95 @@
         <v>80</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <v>61</v>
       </c>
       <c r="E5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F10" si="5">B5*1000+999</f>
+        <f t="shared" si="0"/>
         <v>80999</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G10" si="6">D5*1000+999-E5*999</f>
-        <v>54506.5</v>
+        <f t="shared" si="1"/>
+        <v>53008</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H10" si="7">(B5-D5)/B5</f>
+        <f t="shared" si="2"/>
         <v>0.23749999999999999</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I10" si="8">(F5-G5)/F5</f>
-        <v>0.3270719391597427</v>
+        <f t="shared" si="3"/>
+        <v>0.34557216755762415</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>8.9571939159742708E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.10807216755762417</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="F6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>999</v>
       </c>
       <c r="G6">
-        <f t="shared" si="6"/>
-        <v>999</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I6">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J6" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>999</v>
       </c>
       <c r="G7">
-        <f t="shared" si="6"/>
-        <v>999</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3503,94 +3536,100 @@
         <v>44</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>11.55</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>60999</v>
       </c>
       <c r="G8">
-        <f t="shared" si="6"/>
-        <v>32511.5</v>
+        <f t="shared" si="1"/>
+        <v>32461.55</v>
       </c>
       <c r="H8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="I8">
-        <f t="shared" si="8"/>
-        <v>0.46701585271889701</v>
+        <f t="shared" si="3"/>
+        <v>0.46783471860194431</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>0.20034918605223034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.20116805193527765</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>999</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
-        <v>999</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H9" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>999</v>
       </c>
       <c r="G10">
-        <f t="shared" si="6"/>
-        <v>999</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J10" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11">
         <v>52</v>
       </c>
-      <c r="C11">
-        <v>22</v>
-      </c>
       <c r="D11">
         <v>36</v>
       </c>
       <c r="E11">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -3598,7 +3637,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>22513.5</v>
+        <v>23013</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
@@ -3606,14 +3645,17 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>0.57520896620690953</v>
+        <v>0.56578426008037885</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>0.26751665851460182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.25809195238807114</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3623,7 +3665,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H12" t="e">
         <f t="shared" si="2"/>
@@ -3631,14 +3673,17 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3648,7 +3693,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="H13" t="e">
         <f t="shared" si="2"/>
@@ -3656,14 +3701,17 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3677,7 +3725,7 @@
         <v>42</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -3685,7 +3733,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>37005</v>
+        <v>35007</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
@@ -3693,44 +3741,143 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.39335071066738797</v>
+        <v>0.42610534598927852</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>9.3350710667387982E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.12610534598927853</v>
+      </c>
+      <c r="L14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E1B63C-4C5F-4EFC-AF9A-762598D1BC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31AE2CD-DD09-4504-86D0-FC6D40298C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="30" windowWidth="15330" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>Bench</t>
   </si>
@@ -205,6 +206,51 @@
   </si>
   <si>
     <t>flip</t>
+  </si>
+  <si>
+    <t>qft27(53)</t>
+  </si>
+  <si>
+    <t>qft27(67)</t>
+  </si>
+  <si>
+    <t>qft27(80)</t>
+  </si>
+  <si>
+    <t>vqe26(51)</t>
+  </si>
+  <si>
+    <t>vqe26(64)</t>
+  </si>
+  <si>
+    <t>vqe26(77)</t>
+  </si>
+  <si>
+    <t>iqp27(80)</t>
+  </si>
+  <si>
+    <t>iqp27(67)</t>
+  </si>
+  <si>
+    <t>iqp27(53)</t>
+  </si>
+  <si>
+    <t>BV27(53)</t>
+  </si>
+  <si>
+    <t>BV27(67)</t>
+  </si>
+  <si>
+    <t>BV27(80)</t>
+  </si>
+  <si>
+    <t>hlf27(45)</t>
+  </si>
+  <si>
+    <t>hlf27(57)</t>
+  </si>
+  <si>
+    <t>hlf27(68)</t>
   </si>
 </sst>
 </file>
@@ -3289,8 +3335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="A1:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3886,4 +3932,542 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <f>B2*L2 + (L2-1)</f>
+        <v>999</v>
+      </c>
+      <c r="G2">
+        <f>D2*L2-E2*(L2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="e">
+        <f>(B2-D2)/B2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2">
+        <f>(F2-G2)/F2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="e">
+        <f>I2-H2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F18" si="0">B3*L3 + (L3-1)</f>
+        <v>999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G18" si="1">D3*L3-E3*(L3-1)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="e">
+        <f t="shared" ref="H3:H18" si="2">(B3-D3)/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I18" si="3">(F3-G3)/F3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J18" si="4">I3-H3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>178</v>
+      </c>
+      <c r="D5">
+        <v>153</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>178999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>153000</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.1404494382022472</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.14524662148950554</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>4.7971832872583386E-3</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <f>B8*L8 + (L8-1)</f>
+        <v>108999</v>
+      </c>
+      <c r="G8">
+        <f>D8*L8-E8*(L8-1)</f>
+        <v>63017</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.42185708125762622</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.16259782199836698</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31AE2CD-DD09-4504-86D0-FC6D40298C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CB2666-8E1A-4200-A379-22F85F3A01FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="4140" windowWidth="37680" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t>Bench</t>
   </si>
@@ -46,36 +46,18 @@
     <t>BV5(15)</t>
   </si>
   <si>
-    <t>BV5(13)</t>
-  </si>
-  <si>
-    <t>BV5(11)</t>
-  </si>
-  <si>
     <t>BV5(9)</t>
   </si>
   <si>
     <t>IQP5(15)</t>
   </si>
   <si>
-    <t>IQP5(13)</t>
-  </si>
-  <si>
-    <t>IQP5(11)</t>
-  </si>
-  <si>
     <t>IQP5(9)</t>
   </si>
   <si>
     <t>qft5(15)</t>
   </si>
   <si>
-    <t>qft5(13)</t>
-  </si>
-  <si>
-    <t>qft5(11)</t>
-  </si>
-  <si>
     <t>qft5(9)</t>
   </si>
   <si>
@@ -106,12 +88,6 @@
     <t>hlf7(20)</t>
   </si>
   <si>
-    <t>hlf7(18)</t>
-  </si>
-  <si>
-    <t>hlf7(15)</t>
-  </si>
-  <si>
     <t>hlf7(13)</t>
   </si>
   <si>
@@ -251,16 +227,107 @@
   </si>
   <si>
     <t>hlf27(68)</t>
+  </si>
+  <si>
+    <t>BV5(12)</t>
+  </si>
+  <si>
+    <t>IQP5(12)</t>
+  </si>
+  <si>
+    <t>qft5(12)</t>
+  </si>
+  <si>
+    <t>hlf7(16)</t>
+  </si>
+  <si>
+    <t>BV5 (S)</t>
+  </si>
+  <si>
+    <t>BV5 (M)</t>
+  </si>
+  <si>
+    <t>BV5 (L)</t>
+  </si>
+  <si>
+    <t>IQP5(S)</t>
+  </si>
+  <si>
+    <t>IQP5(M)</t>
+  </si>
+  <si>
+    <t>IQP5(L)</t>
+  </si>
+  <si>
+    <t>QFT5(S)</t>
+  </si>
+  <si>
+    <t>QFT5(M)</t>
+  </si>
+  <si>
+    <t>QFT5(L)</t>
+  </si>
+  <si>
+    <t>HLF7(S)</t>
+  </si>
+  <si>
+    <t>HLF7(M)</t>
+  </si>
+  <si>
+    <t>HLF7(L)</t>
+  </si>
+  <si>
+    <t>VQE6(S)</t>
+  </si>
+  <si>
+    <t>VQE6(M)</t>
+  </si>
+  <si>
+    <t>VQE6(L)</t>
+  </si>
+  <si>
+    <t>BV15(L)</t>
+  </si>
+  <si>
+    <t>BV15(M)</t>
+  </si>
+  <si>
+    <t>BV15(S)</t>
+  </si>
+  <si>
+    <t>IQP15(L)</t>
+  </si>
+  <si>
+    <t>QFT15(L)</t>
+  </si>
+  <si>
+    <t>HLF15(L)</t>
+  </si>
+  <si>
+    <t>VQE14(L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,8 +353,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +453,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Single circuit</c:v>
+            <c:v>Single-circuit</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -399,47 +467,107 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$26</c:f>
+              <c:f>Sheet1!$C$22:$C$36</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>BV5</c:v>
+                  <c:v>BV5 (L)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IQP5</c:v>
+                  <c:v>BV5 (M)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>QFT5</c:v>
+                  <c:v>BV5 (S)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HLF7</c:v>
+                  <c:v>IQP5(L)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VQE6</c:v>
+                  <c:v>IQP5(M)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IQP5(S)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QFT5(L)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>QFT5(M)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>QFT5(S)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HLF7(L)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HLF7(M)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HLF7(S)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>VQE6(L)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>VQE6(M)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>VQE6(S)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$2,Sheet1!$H$6,Sheet1!$H$10,Sheet1!$H$14,Sheet1!$H$18)</c:f>
+              <c:f>(Sheet1!$H$2:$H$4,Sheet1!$H$6:$H$8,Sheet1!$H$10:$H$12,Sheet1!$H$14:$H$16,Sheet1!$H$18:$H$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32142857142857145</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.27272727272727271</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.22727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.31818181818181818</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.29166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,7 +582,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>1000 circuit</c:v>
+            <c:v>1000-circuit</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -468,47 +596,107 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$26</c:f>
+              <c:f>Sheet1!$C$22:$C$36</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>BV5</c:v>
+                  <c:v>BV5 (L)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IQP5</c:v>
+                  <c:v>BV5 (M)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>QFT5</c:v>
+                  <c:v>BV5 (S)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HLF7</c:v>
+                  <c:v>IQP5(L)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VQE6</c:v>
+                  <c:v>IQP5(M)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IQP5(S)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QFT5(L)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>QFT5(M)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>QFT5(S)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HLF7(L)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HLF7(M)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HLF7(S)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>VQE6(L)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>VQE6(M)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>VQE6(S)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$2,Sheet1!$I$6,Sheet1!$I$10,Sheet1!$I$14,Sheet1!$I$18)</c:f>
+              <c:f>(Sheet1!$I$2:$I$4,Sheet1!$I$6:$I$8,Sheet1!$I$10:$I$12,Sheet1!$I$14:$I$16,Sheet1!$I$18:$I$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.62064209110658985</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.51722473188730644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34480499327563019</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.34775425018479067</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>0.30427409887386409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21727031610070002</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.44034239725701224</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>0.38078003714462594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38068479451402448</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.3912344014957172</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>0.34775425018479067</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17383364494108439</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.35993439737589505</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31989279571182849</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23984959398375935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,13 +1009,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Depth reduction</a:t>
+              <a:t>Depth Reduction for medium benchmarks</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> for mideum-number benchmarks</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -865,13 +1048,13 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Single Circuit</c:v>
+            <c:v>Single-circuit</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -885,46 +1068,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$20:$A$24</c:f>
+              <c:f>Sheet2!$C$20:$C$26</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>BV15</c:v>
+                  <c:v>BV15(L)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IQP15</c:v>
+                  <c:v>BV15(M)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>QFT15</c:v>
+                  <c:v>BV15(S)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HLF15</c:v>
+                  <c:v>IQP15(L)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VQE14</c:v>
+                  <c:v>QFT15(L)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HLF15(L)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VQE14(L)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet2!$H$2,Sheet2!$H$5,Sheet2!$H$8,Sheet2!$H$11,Sheet2!$H$14)</c:f>
+              <c:f>(Sheet2!$H$2:$H$5,Sheet2!$H$8,Sheet2!$H$11,Sheet2!$H$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.43243243243243246</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.3783783783783784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14864864864864866</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.23749999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.26666666666666666</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.30769230769230771</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -932,7 +1127,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63E1-40B8-9D35-EE3841836DA1}"/>
+              <c16:uniqueId val="{00000000-4CB2-46E8-8ADD-4CAADD73CFF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -940,7 +1135,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Cluster State</c:v>
+            <c:v>1000-circuit</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -954,54 +1149,66 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$20:$A$24</c:f>
+              <c:f>Sheet2!$C$20:$C$26</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>BV15</c:v>
+                  <c:v>BV15(L)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IQP15</c:v>
+                  <c:v>BV15(M)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>QFT15</c:v>
+                  <c:v>BV15(S)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HLF15</c:v>
+                  <c:v>IQP15(L)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>VQE14</c:v>
+                  <c:v>QFT15(L)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HLF15(L)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VQE14(L)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet2!$J$2,Sheet2!$J$5,Sheet2!$J$8,Sheet2!$J$11,Sheet2!$J$14)</c:f>
+              <c:f>(Sheet2!$I$2:$I$5,Sheet2!$I$8,Sheet2!$I$11,Sheet2!$I$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.0840811210816137E-2</c:v>
+                  <c:v>0.49327324364324859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10807216755762417</c:v>
+                  <c:v>0.45325937679169054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20116805193527765</c:v>
+                  <c:v>0.2532300430672409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25809195238807114</c:v>
+                  <c:v>0.34557216755762415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12610534598927853</c:v>
+                  <c:v>0.46783471860194431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56578426008037885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42610534598927852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-63E1-40B8-9D35-EE3841836DA1}"/>
+              <c16:uniqueId val="{00000002-4CB2-46E8-8ADD-4CAADD73CFF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1013,13 +1220,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="2020913791"/>
-        <c:axId val="1673114543"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="356666383"/>
+        <c:axId val="1862349871"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2020913791"/>
+        <c:axId val="356666383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1673114543"/>
+        <c:crossAx val="1862349871"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1070,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1673114543"/>
+        <c:axId val="1862349871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,8 +1318,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Depth Reduction</a:t>
+                  <a:t>Depth reduction w.r.t.</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>baseline</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1176,7 +1392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2020913791"/>
+        <c:crossAx val="356666383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1847,7 +2063,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2051,23 +2267,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2172,8 +2387,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2305,20 +2520,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2356,13 +2570,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
@@ -2396,27 +2610,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F74FE66-9FFF-26C5-3BBE-0B66B106FD6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6F1CB1-B158-4A8E-AA23-CC7B1E4C177A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2696,10 +2912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,34 +2931,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2787,27 +3003,39 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">B3*L3 + (L3-1)</f>
-        <v>999</v>
+        <f t="shared" ref="F3:F20" si="0">B3*L3 + (L3-1)</f>
+        <v>28999</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="1">D3*L3-E3*(L3-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" t="e">
-        <f t="shared" ref="H3:H18" si="2">(B3-D3)/B3</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="G3:G20" si="1">D3*L3-E3*(L3-1)</f>
+        <v>14000</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H20" si="2">(B3-D3)/B3</f>
+        <v>0.5</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I18" si="3">(F3-G3)/F3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" t="e">
-        <f t="shared" ref="J3:J18" si="4">I3-H3</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="I3:I20" si="3">(F3-G3)/F3</f>
+        <v>0.51722473188730644</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="4">I3-H3</f>
+        <v>1.7224731887306444E-2</v>
       </c>
       <c r="L3">
         <v>1000</v>
@@ -2815,36 +3043,45 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
         <v>3</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>28999</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f>D4*L4-E4*(L4-1)</f>
+        <v>19000</v>
+      </c>
+      <c r="H4">
+        <f>(B4-D4)/B4</f>
+        <v>0.32142857142857145</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J4" t="e">
+        <f>(F4-G4)/F4</f>
+        <v>0.34480499327563019</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.3376421847058737E-2</v>
       </c>
       <c r="L4">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>999</v>
@@ -2871,7 +3108,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>22</v>
@@ -2910,28 +3147,40 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>22999</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" t="e">
+        <v>16001</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J7" t="e">
+        <v>0.30427409887386409</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.700137160113682E-2</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -2939,36 +3188,45 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>22999</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" t="e">
+        <v>18002</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J8" t="e">
+        <v>0.21727031610070002</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.12636122519160911</v>
       </c>
       <c r="L8">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>999</v>
@@ -2995,7 +3253,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -3035,27 +3293,39 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>20999</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" t="e">
+        <v>13003</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J11" t="e">
+        <v>0.38078003714462594</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.18078003714462593</v>
       </c>
       <c r="L11">
         <v>1000</v>
@@ -3063,36 +3333,45 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>20999</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" t="e">
+        <v>13005</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.1</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J12" t="e">
+        <v>0.38068479451402448</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.2806847945140245</v>
       </c>
       <c r="L12">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>999</v>
@@ -3119,7 +3398,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -3159,27 +3438,39 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
         <v>22</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>22999</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" t="e">
+        <v>15001</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J15" t="e">
+        <v>0.34775425018479067</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>7.5026977457517963E-2</v>
       </c>
       <c r="L15">
         <v>1000</v>
@@ -3187,36 +3478,45 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>22999</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" t="e">
+        <v>19001</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J16" t="e">
+        <v>0.17383364494108439</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>8.2924554031993475E-2</v>
       </c>
       <c r="L16">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>999</v>
@@ -3243,7 +3543,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -3283,49 +3583,185 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>24999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>17002</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0.31989279571182849</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.11155946237849515</v>
+      </c>
+      <c r="L19">
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>24999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>19003</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0.23984959398375935</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.15651626065042601</v>
+      </c>
+      <c r="L20">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3333,10 +3769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="A1:L18"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,39 +3782,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>74</v>
@@ -3418,27 +3854,39 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F18" si="0">B3*L3 + (L3-1)</f>
-        <v>999</v>
+        <v>74999</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G18" si="1">D3*L3-E3*(L3-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" t="e">
+        <v>41005</v>
+      </c>
+      <c r="H3">
         <f t="shared" ref="H3:H18" si="2">(B3-D3)/B3</f>
-        <v>#DIV/0!</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I18" si="3">(F3-G3)/F3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" t="e">
+        <v>0.45325937679169054</v>
+      </c>
+      <c r="J3">
         <f t="shared" ref="J3:J18" si="4">I3-H3</f>
-        <v>#DIV/0!</v>
+        <v>7.4880998413312139E-2</v>
       </c>
       <c r="L3">
         <v>1000</v>
@@ -3446,27 +3894,39 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>74999</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="e">
+        <v>56007</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.14864864864864866</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J4" t="e">
+        <v>0.2532300430672409</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.10458139441859224</v>
       </c>
       <c r="L4">
         <v>1000</v>
@@ -3474,7 +3934,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -3514,7 +3974,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -3542,7 +4002,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -3570,7 +4030,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -3610,7 +4070,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -3638,7 +4098,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -3666,7 +4126,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>52</v>
@@ -3703,7 +4163,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -3731,7 +4191,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -3759,7 +4219,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>60</v>
@@ -3799,7 +4259,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -3827,7 +4287,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -3905,27 +4365,52 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +4424,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,39 +4434,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <f>B2*L2 + (L2-1)</f>
@@ -4009,7 +4494,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F18" si="0">B3*L3 + (L3-1)</f>
@@ -4037,7 +4522,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -4065,7 +4550,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>178</v>
@@ -4099,7 +4584,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -4127,7 +4612,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -4155,7 +4640,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -4195,7 +4680,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -4223,7 +4708,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -4251,7 +4736,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -4279,7 +4764,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -4307,7 +4792,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -4335,27 +4820,39 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>108</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>108999</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" t="e">
+        <v>62015</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.28703703703703703</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J14" t="e">
+        <v>0.43104982614519399</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.14401278910815696</v>
       </c>
       <c r="L14">
         <v>1000</v>
@@ -4363,7 +4860,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -4391,7 +4888,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CB2666-8E1A-4200-A379-22F85F3A01FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2440FD6E-64E5-40D2-A7F0-0FBFBD9C3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="4140" windowWidth="37680" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>Bench</t>
   </si>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>VQE14(L)</t>
+  </si>
+  <si>
+    <t>IQP27(L)</t>
+  </si>
+  <si>
+    <t>QFT27(L)</t>
+  </si>
+  <si>
+    <t>VQE26(L)</t>
   </si>
 </sst>
 </file>
@@ -1479,6 +1488,478 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Depth Reduction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for large benchmarks</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Single-circuit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>IQP27(L)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>QFT27(L)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VQE26(L)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet3!$H$5,Sheet3!$H$8,Sheet3!$H$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.11235955056179775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25925925925925924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28703703703703703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-568A-45B9-AE63-2CDA423A3067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1000-circuit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>IQP27(L)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>QFT27(L)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VQE26(L)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet3!$I$5,Sheet3!$I$8,Sheet3!$I$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26242046044949974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42185708125762622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43104982614519399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-568A-45B9-AE63-2CDA423A3067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1409217616"/>
+        <c:axId val="1477619856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1409217616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477619856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1477619856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Depth reduction w.r.t. </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>baseline</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1409217616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1559,6 +2040,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2063,6 +2584,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2633,6 +3657,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1561A3-5818-6FB2-2D4D-06D11D81E126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2914,7 +3979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -3771,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4004,25 +5069,34 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>60999</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" t="e">
+        <v>58000</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J7" t="e">
+        <v>4.9164740405580422E-2</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.5831407072247089E-2</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -4421,10 +5495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" activeCellId="2" sqref="H5:I5 H8:I8 H14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4555,8 +5629,14 @@
       <c r="B5">
         <v>178</v>
       </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
       <c r="D5">
-        <v>153</v>
+        <v>158</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -4564,19 +5644,19 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>153000</v>
+        <v>132026</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.1404494382022472</v>
+        <v>0.11235955056179775</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>0.14524662148950554</v>
+        <v>0.26242046044949974</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>4.7971832872583386E-3</v>
+        <v>0.15006090988770199</v>
       </c>
       <c r="L5">
         <v>1000</v>
@@ -4914,7 +5994,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F17">
         <f t="shared" si="0"/>
         <v>999</v>
@@ -4939,7 +6019,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F18">
         <f t="shared" si="0"/>
         <v>999</v>
@@ -4964,7 +6044,23 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2440FD6E-64E5-40D2-A7F0-0FBFBD9C3810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76C58AA-89BE-47E3-B919-7B562D44ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="4140" windowWidth="37680" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4836,7 +4836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5497,8 +5497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" activeCellId="2" sqref="H5:I5 H8:I8 H14:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q27:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5542,25 +5542,37 @@
       <c r="A2" t="s">
         <v>59</v>
       </c>
+      <c r="B2">
+        <v>134</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>84</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
       <c r="F2">
         <f>B2*L2 + (L2-1)</f>
-        <v>999</v>
+        <v>134999</v>
       </c>
       <c r="G2">
         <f>D2*L2-E2*(L2-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" t="e">
+        <v>74010</v>
+      </c>
+      <c r="H2">
         <f>(B2-D2)/B2</f>
-        <v>#DIV/0!</v>
+        <v>0.37313432835820898</v>
       </c>
       <c r="I2">
         <f>(F2-G2)/F2</f>
-        <v>1</v>
-      </c>
-      <c r="J2" t="e">
+        <v>0.45177371684234696</v>
+      </c>
+      <c r="J2">
         <f>I2-H2</f>
-        <v>#DIV/0!</v>
+        <v>7.8639388484137984E-2</v>
       </c>
       <c r="L2">
         <v>1000</v>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76C58AA-89BE-47E3-B919-7B562D44ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA83D212-7618-47B0-96A9-2C49C8A888B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="4140" windowWidth="37680" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19890" yWindow="3645" windowWidth="37680" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>Bench</t>
   </si>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>VQE26(L)</t>
+  </si>
+  <si>
+    <t>DP best depth</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Averaged depth</t>
   </si>
 </sst>
 </file>
@@ -476,7 +488,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$22:$C$36</c:f>
+              <c:f>Sheet1!$D$22:$D$36</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -529,7 +541,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$2:$H$4,Sheet1!$H$6:$H$8,Sheet1!$H$10:$H$12,Sheet1!$H$14:$H$16,Sheet1!$H$18:$H$20)</c:f>
+              <c:f>(Sheet1!$I$2:$I$4,Sheet1!$I$6:$I$8,Sheet1!$I$10:$I$12,Sheet1!$I$14:$I$16,Sheet1!$I$18:$I$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -605,7 +617,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$22:$C$36</c:f>
+              <c:f>Sheet1!$D$22:$D$36</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -658,7 +670,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$2:$I$4,Sheet1!$I$6:$I$8,Sheet1!$I$10:$I$12,Sheet1!$I$14:$I$16,Sheet1!$I$18:$I$20)</c:f>
+              <c:f>(Sheet1!$J$2:$J$4,Sheet1!$J$6:$J$8,Sheet1!$J$10:$J$12,Sheet1!$J$14:$J$16,Sheet1!$J$18:$J$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3593,16 +3605,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3977,10 +3989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,7 +4003,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4002,31 +4014,34 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4039,34 +4054,34 @@
       <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <f>B2*L2 + (L2-1)</f>
+      <c r="G2">
+        <f>B2*M2 + (M2-1)</f>
         <v>28999</v>
       </c>
-      <c r="G2">
-        <f>D2*L2-E2*(L2-1)</f>
+      <c r="H2">
+        <f>D2*M2-F2*(M2-1)</f>
         <v>11001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>(B2-D2)/B2</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="I2">
-        <f>(F2-G2)/F2</f>
+      <c r="J2">
+        <f>(G2-H2)/G2</f>
         <v>0.62064209110658985</v>
       </c>
-      <c r="J2">
-        <f>I2-H2</f>
+      <c r="K2">
+        <f>J2-I2</f>
         <v>4.9213519678018458E-2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4079,34 +4094,34 @@
       <c r="D3">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F20" si="0">B3*L3 + (L3-1)</f>
+      <c r="G3">
+        <f>B3*M3 + (M3-1)</f>
         <v>28999</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G20" si="1">D3*L3-E3*(L3-1)</f>
+      <c r="H3">
+        <f>D3*M3-F3*(M3-1)</f>
         <v>14000</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H20" si="2">(B3-D3)/B3</f>
+      <c r="I3">
+        <f>(B3-D3)/B3</f>
         <v>0.5</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I20" si="3">(F3-G3)/F3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="0">(G3-H3)/G3</f>
         <v>0.51722473188730644</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J20" si="4">I3-H3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K20" si="1">J3-I3</f>
         <v>1.7224731887306444E-2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4119,59 +4134,59 @@
       <c r="D4">
         <v>19</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
+      <c r="G4">
+        <f>B4*M4 + (M4-1)</f>
         <v>28999</v>
       </c>
-      <c r="G4">
-        <f>D4*L4-E4*(L4-1)</f>
+      <c r="H4">
+        <f>D4*M4-F4*(M4-1)</f>
         <v>19000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>(B4-D4)/B4</f>
         <v>0.32142857142857145</v>
       </c>
-      <c r="I4">
-        <f>(F4-G4)/F4</f>
+      <c r="J4">
+        <f>(G4-H4)/G4</f>
         <v>0.34480499327563019</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
+      <c r="K4">
+        <f t="shared" si="1"/>
         <v>2.3376421847058737E-2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f>B5*M5 + (M5-1)</f>
+        <v>999</v>
+      </c>
+      <c r="H5">
+        <f>D5*M5-F5*(M5-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="e">
+        <f>(B5-D5)/B5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4184,34 +4199,34 @@
       <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <f>B6*M6 + (M6-1)</f>
+        <v>22999</v>
+      </c>
+      <c r="H6">
+        <f>D6*M6-F6*(M6-1)</f>
+        <v>15001</v>
+      </c>
+      <c r="I6">
+        <f>(B6-D6)/B6</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
-        <v>22999</v>
-      </c>
-      <c r="G6">
+        <v>0.34775425018479067</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v>15001</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0.34775425018479067</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
         <v>7.5026977457517963E-2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -4224,34 +4239,34 @@
       <c r="D7">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <f>B7*M7 + (M7-1)</f>
+        <v>22999</v>
+      </c>
+      <c r="H7">
+        <f>D7*M7-F7*(M7-1)</f>
+        <v>16001</v>
+      </c>
+      <c r="I7">
+        <f>(B7-D7)/B7</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>22999</v>
-      </c>
-      <c r="G7">
+        <v>0.30427409887386409</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
-        <v>16001</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0.30427409887386409</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
         <v>7.700137160113682E-2</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4264,59 +4279,59 @@
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
+        <f>B8*M8 + (M8-1)</f>
+        <v>22999</v>
+      </c>
+      <c r="H8">
+        <f>D8*M8-F8*(M8-1)</f>
+        <v>18002</v>
+      </c>
+      <c r="I8">
+        <f>(B8-D8)/B8</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>22999</v>
-      </c>
-      <c r="G8">
+        <v>0.21727031610070002</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="1"/>
-        <v>18002</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0.21727031610070002</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
         <v>0.12636122519160911</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f>B9*M9 + (M9-1)</f>
+        <v>999</v>
+      </c>
+      <c r="H9">
+        <f>D9*M9-F9*(M9-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" t="e">
+        <f>(B9-D9)/B9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -4329,34 +4344,34 @@
       <c r="D10">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.25</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <f>B10*M10 + (M10-1)</f>
+        <v>20999</v>
+      </c>
+      <c r="H10">
+        <f>D10*M10-F10*(M10-1)</f>
+        <v>11752.25</v>
+      </c>
+      <c r="I10">
+        <f>(B10-D10)/B10</f>
+        <v>0.3</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>20999</v>
-      </c>
-      <c r="G10">
+        <v>0.44034239725701224</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v>11752.25</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0.44034239725701224</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
         <v>0.14034239725701225</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -4369,34 +4384,34 @@
       <c r="D11">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <f>B11*M11 + (M11-1)</f>
+        <v>20999</v>
+      </c>
+      <c r="H11">
+        <f>D11*M11-F11*(M11-1)</f>
+        <v>13003</v>
+      </c>
+      <c r="I11">
+        <f>(B11-D11)/B11</f>
+        <v>0.2</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>20999</v>
-      </c>
-      <c r="G11">
+        <v>0.38078003714462594</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
-        <v>13003</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0.38078003714462594</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
         <v>0.18078003714462593</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4409,59 +4424,59 @@
       <c r="D12">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
+        <f>B12*M12 + (M12-1)</f>
+        <v>20999</v>
+      </c>
+      <c r="H12">
+        <f>D12*M12-F12*(M12-1)</f>
+        <v>13005</v>
+      </c>
+      <c r="I12">
+        <f>(B12-D12)/B12</f>
+        <v>0.1</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
-        <v>20999</v>
-      </c>
-      <c r="G12">
+        <v>0.38068479451402448</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="1"/>
-        <v>13005</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0.38068479451402448</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
         <v>0.2806847945140245</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f>B13*M13 + (M13-1)</f>
+        <v>999</v>
+      </c>
+      <c r="H13">
+        <f>D13*M13-F13*(M13-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" t="e">
+        <f>(B13-D13)/B13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4474,34 +4489,34 @@
       <c r="D14">
         <v>15</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <f>B14*M14 + (M14-1)</f>
+        <v>22999</v>
+      </c>
+      <c r="H14">
+        <f>D14*M14-F14*(M14-1)</f>
+        <v>14001</v>
+      </c>
+      <c r="I14">
+        <f>(B14-D14)/B14</f>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
-        <v>22999</v>
-      </c>
-      <c r="G14">
+        <v>0.3912344014957172</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="1"/>
-        <v>14001</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0.31818181818181818</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0.3912344014957172</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
         <v>7.3052583313899022E-2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -4514,34 +4529,34 @@
       <c r="D15">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <f>B15*M15 + (M15-1)</f>
+        <v>22999</v>
+      </c>
+      <c r="H15">
+        <f>D15*M15-F15*(M15-1)</f>
+        <v>15001</v>
+      </c>
+      <c r="I15">
+        <f>(B15-D15)/B15</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
-        <v>22999</v>
-      </c>
-      <c r="G15">
+        <v>0.34775425018479067</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="1"/>
-        <v>15001</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0.34775425018479067</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
         <v>7.5026977457517963E-2</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -4554,59 +4569,59 @@
       <c r="D16">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="G16">
+        <f>B16*M16 + (M16-1)</f>
+        <v>22999</v>
+      </c>
+      <c r="H16">
+        <f>D16*M16-F16*(M16-1)</f>
+        <v>19001</v>
+      </c>
+      <c r="I16">
+        <f>(B16-D16)/B16</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
-        <v>22999</v>
-      </c>
-      <c r="G16">
+        <v>0.17383364494108439</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="1"/>
-        <v>19001</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>0.17383364494108439</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
         <v>8.2924554031993475E-2</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F17">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>B17*M17 + (M17-1)</f>
+        <v>999</v>
+      </c>
+      <c r="H17">
+        <f>D17*M17-F17*(M17-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" t="e">
+        <f>(B17-D17)/B17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4619,34 +4634,34 @@
       <c r="D18">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="G18">
+        <f>B18*M18 + (M18-1)</f>
+        <v>24999</v>
+      </c>
+      <c r="H18">
+        <f>D18*M18-F18*(M18-1)</f>
+        <v>16001</v>
+      </c>
+      <c r="I18">
+        <f>(B18-D18)/B18</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="0"/>
-        <v>24999</v>
-      </c>
-      <c r="G18">
+        <v>0.35993439737589505</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="1"/>
-        <v>16001</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0.35993439737589505</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
         <v>6.8267730709228369E-2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4659,34 +4674,34 @@
       <c r="D19">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
+        <f>B19*M19 + (M19-1)</f>
+        <v>24999</v>
+      </c>
+      <c r="H19">
+        <f>D19*M19-F19*(M19-1)</f>
+        <v>17002</v>
+      </c>
+      <c r="I19">
+        <f>(B19-D19)/B19</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="0"/>
-        <v>24999</v>
-      </c>
-      <c r="G19">
+        <v>0.31989279571182849</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="1"/>
-        <v>17002</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>0.31989279571182849</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
         <v>0.11155946237849515</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4699,42 +4714,42 @@
       <c r="D20">
         <v>22</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="F20">
+      <c r="G20">
+        <f>B20*M20 + (M20-1)</f>
+        <v>24999</v>
+      </c>
+      <c r="H20">
+        <f>D20*M20-F20*(M20-1)</f>
+        <v>19003</v>
+      </c>
+      <c r="I20">
+        <f>(B20-D20)/B20</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="0"/>
-        <v>24999</v>
-      </c>
-      <c r="G20">
+        <v>0.23984959398375935</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="1"/>
-        <v>19003</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
-        <v>0.23984959398375935</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
         <v>0.15651626065042601</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -4742,10 +4757,13 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -4753,18 +4771,21 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -4772,56 +4793,59 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5498,7 +5522,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q27:Q28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA83D212-7618-47B0-96A9-2C49C8A888B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC0859F-ED69-4D56-A35B-FCBB13D1BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19890" yWindow="3645" windowWidth="37680" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33690" yWindow="2640" windowWidth="22800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>Bench</t>
   </si>
@@ -64,9 +64,6 @@
     <t>DP reduction</t>
   </si>
   <si>
-    <t>DP depth</t>
-  </si>
-  <si>
     <t>Original Depth</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>hlf7(13)</t>
   </si>
   <si>
-    <t>HC6(13)</t>
-  </si>
-  <si>
     <t>HC6(11)</t>
   </si>
   <si>
@@ -326,6 +320,9 @@
   </si>
   <si>
     <t>Averaged depth</t>
+  </si>
+  <si>
+    <t>HC6(14)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +552,7 @@
                   <c:v>0.32142857142857145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27272727272727271</c:v>
+                  <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.22727272727272727</c:v>
@@ -567,7 +564,7 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.1</c:v>
@@ -576,7 +573,7 @@
                   <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27272727272727271</c:v>
+                  <c:v>0.22727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9.0909090909090912E-2</c:v>
@@ -678,46 +675,46 @@
                   <c:v>0.62064209110658985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51722473188730644</c:v>
+                  <c:v>0.50343115279837236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34480499327563019</c:v>
+                  <c:v>0.3103555295010173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34775425018479067</c:v>
+                  <c:v>0.3496075916344189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30427409887386409</c:v>
+                  <c:v>0.33443845384581938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21727031610070002</c:v>
+                  <c:v>0.20701443541023523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44034239725701224</c:v>
+                  <c:v>0.55205009762369639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38078003714462594</c:v>
+                  <c:v>0.43765179294252105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38068479451402448</c:v>
+                  <c:v>0.38351826277441781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3912344014957172</c:v>
+                  <c:v>0.35318383407974258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34775425018479067</c:v>
+                  <c:v>0.29944780207835126</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.17383364494108439</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35993439737589505</c:v>
+                  <c:v>0.45809332373294931</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31989279571182849</c:v>
+                  <c:v>0.34042861714468581</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.23984959398375935</c:v>
+                  <c:v>0.24103964158566343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,12 +1115,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet2!$H$2:$H$5,Sheet2!$H$8,Sheet2!$H$11,Sheet2!$H$14)</c:f>
+              <c:f>(Sheet2!$I$2:$I$5,Sheet2!$I$8,Sheet2!$I$11,Sheet2!$I$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.43243243243243246</c:v>
+                  <c:v>0.41891891891891891</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3783783783783784</c:v>
@@ -1138,7 +1135,7 @@
                   <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30769230769230771</c:v>
+                  <c:v>0.34615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3</c:v>
@@ -1199,30 +1196,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet2!$I$2:$I$5,Sheet2!$I$8,Sheet2!$I$11,Sheet2!$I$14)</c:f>
+              <c:f>(Sheet2!$J$2:$J$5,Sheet2!$J$8,Sheet2!$J$11,Sheet2!$J$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.49327324364324859</c:v>
+                  <c:v>0.94666595554607391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45325937679169054</c:v>
+                  <c:v>0.93333244443259245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2532300430672409</c:v>
+                  <c:v>0.9066654222056294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34557216755762415</c:v>
+                  <c:v>0.90123334855985882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46783471860194431</c:v>
+                  <c:v>0.59221052804144325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56578426008037885</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42610534598927852</c:v>
+                  <c:v>0.88524402039377692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,7 +1613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet3!$H$5,Sheet3!$H$8,Sheet3!$H$14)</c:f>
+              <c:f>(Sheet3!$I$5,Sheet3!$I$8,Sheet3!$I$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1673,18 +1670,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet3!$I$5,Sheet3!$I$8,Sheet3!$I$14)</c:f>
+              <c:f>(Sheet3!$J$5,Sheet3!$J$8,Sheet3!$J$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.26242046044949974</c:v>
+                  <c:v>0.85474779188710548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42185708125762622</c:v>
+                  <c:v>0.84403526637859061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43104982614519399</c:v>
+                  <c:v>0.86238405856934464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3992,7 +3989,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,37 +4005,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4054,6 +4051,9 @@
       <c r="D2">
         <v>12</v>
       </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -4062,11 +4062,11 @@
         <v>28999</v>
       </c>
       <c r="H2">
-        <f>D2*M2-F2*(M2-1)</f>
+        <f>E2*M2-F2*(M2-1)</f>
         <v>11001</v>
       </c>
       <c r="I2">
-        <f>(B2-D2)/B2</f>
+        <f t="shared" ref="I2:I20" si="0">(B2-D2)/B2</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="J2">
@@ -4083,7 +4083,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -4094,28 +4094,31 @@
       <c r="D3">
         <v>14</v>
       </c>
+      <c r="E3">
+        <v>14.4</v>
+      </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f>B3*M3 + (M3-1)</f>
+        <f t="shared" ref="G3:G20" si="1">B3*M3 + (M3-1)</f>
         <v>28999</v>
       </c>
       <c r="H3">
-        <f>D3*M3-F3*(M3-1)</f>
-        <v>14000</v>
+        <f t="shared" ref="H3:H20" si="2">E3*M3-F3*(M3-1)</f>
+        <v>14400</v>
       </c>
       <c r="I3">
-        <f>(B3-D3)/B3</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J20" si="0">(G3-H3)/G3</f>
-        <v>0.51722473188730644</v>
+        <f t="shared" ref="J3:J20" si="3">(G3-H3)/G3</f>
+        <v>0.50343115279837236</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K20" si="1">J3-I3</f>
-        <v>1.7224731887306444E-2</v>
+        <f t="shared" ref="K3:K20" si="4">J3-I3</f>
+        <v>3.4311527983723611E-3</v>
       </c>
       <c r="M3">
         <v>1000</v>
@@ -4134,16 +4137,19 @@
       <c r="D4">
         <v>19</v>
       </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
       <c r="F4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4">
         <f>B4*M4 + (M4-1)</f>
         <v>28999</v>
       </c>
       <c r="H4">
-        <f>D4*M4-F4*(M4-1)</f>
-        <v>19000</v>
+        <f>E4*M4-F4*(M4-1)</f>
+        <v>19999</v>
       </c>
       <c r="I4">
         <f>(B4-D4)/B4</f>
@@ -4151,11 +4157,11 @@
       </c>
       <c r="J4">
         <f>(G4-H4)/G4</f>
-        <v>0.34480499327563019</v>
+        <v>0.3103555295010173</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
-        <v>2.3376421847058737E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.107304192755415E-2</v>
       </c>
       <c r="M4">
         <v>1000</v>
@@ -4163,23 +4169,23 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G5">
-        <f>B5*M5 + (M5-1)</f>
+        <f t="shared" si="1"/>
         <v>999</v>
       </c>
       <c r="H5">
-        <f>D5*M5-F5*(M5-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" t="e">
-        <f>(B5-D5)/B5</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M5">
@@ -4197,30 +4203,33 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>15.333</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="G6">
-        <f>B6*M6 + (M6-1)</f>
+        <f t="shared" si="1"/>
         <v>22999</v>
       </c>
       <c r="H6">
-        <f>D6*M6-F6*(M6-1)</f>
-        <v>15001</v>
+        <f t="shared" si="2"/>
+        <v>14958.375</v>
       </c>
       <c r="I6">
-        <f>(B6-D6)/B6</f>
-        <v>0.27272727272727271</v>
+        <f t="shared" si="0"/>
+        <v>0.31818181818181818</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.34775425018479067</v>
+        <f t="shared" si="3"/>
+        <v>0.3496075916344189</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
-        <v>7.5026977457517963E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1425773452600725E-2</v>
       </c>
       <c r="M6">
         <v>1000</v>
@@ -4228,7 +4237,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -4239,28 +4248,31 @@
       <c r="D7">
         <v>17</v>
       </c>
+      <c r="E7">
+        <v>17.555</v>
+      </c>
       <c r="F7">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="G7">
-        <f>B7*M7 + (M7-1)</f>
+        <f t="shared" si="1"/>
         <v>22999</v>
       </c>
       <c r="H7">
-        <f>D7*M7-F7*(M7-1)</f>
-        <v>16001</v>
+        <f t="shared" si="2"/>
+        <v>15307.25</v>
       </c>
       <c r="I7">
-        <f>(B7-D7)/B7</f>
+        <f t="shared" si="0"/>
         <v>0.22727272727272727</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0.30427409887386409</v>
+        <f t="shared" si="3"/>
+        <v>0.33443845384581938</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
-        <v>7.700137160113682E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.10716572657309212</v>
       </c>
       <c r="M7">
         <v>1000</v>
@@ -4279,28 +4291,31 @@
       <c r="D8">
         <v>20</v>
       </c>
+      <c r="E8">
+        <v>20.111000000000001</v>
+      </c>
       <c r="F8">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="G8">
-        <f>B8*M8 + (M8-1)</f>
+        <f t="shared" si="1"/>
         <v>22999</v>
       </c>
       <c r="H8">
-        <f>D8*M8-F8*(M8-1)</f>
-        <v>18002</v>
+        <f t="shared" si="2"/>
+        <v>18237.875</v>
       </c>
       <c r="I8">
-        <f>(B8-D8)/B8</f>
+        <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0.21727031610070002</v>
+        <f t="shared" si="3"/>
+        <v>0.20701443541023523</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0.12636122519160911</v>
+        <f t="shared" si="4"/>
+        <v>0.11610534450114432</v>
       </c>
       <c r="M8">
         <v>1000</v>
@@ -4308,23 +4323,23 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G9">
-        <f>B9*M9 + (M9-1)</f>
+        <f t="shared" si="1"/>
         <v>999</v>
       </c>
       <c r="H9">
-        <f>D9*M9-F9*(M9-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" t="e">
-        <f>(B9-D9)/B9</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K9" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M9">
@@ -4344,28 +4359,31 @@
       <c r="D10">
         <v>14</v>
       </c>
+      <c r="E10">
+        <v>15.9</v>
+      </c>
       <c r="F10">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="G10">
-        <f>B10*M10 + (M10-1)</f>
+        <f t="shared" si="1"/>
         <v>20999</v>
       </c>
       <c r="H10">
-        <f>D10*M10-F10*(M10-1)</f>
-        <v>11752.25</v>
+        <f t="shared" si="2"/>
+        <v>9406.5</v>
       </c>
       <c r="I10">
-        <f>(B10-D10)/B10</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0.44034239725701224</v>
+        <f t="shared" si="3"/>
+        <v>0.55205009762369639</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0.14034239725701225</v>
+        <f t="shared" si="4"/>
+        <v>0.2520500976236964</v>
       </c>
       <c r="M10">
         <v>1000</v>
@@ -4373,7 +4391,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -4382,30 +4400,33 @@
         <v>-1</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>15.555</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="G11">
-        <f>B11*M11 + (M11-1)</f>
+        <f t="shared" si="1"/>
         <v>20999</v>
       </c>
       <c r="H11">
-        <f>D11*M11-F11*(M11-1)</f>
-        <v>13003</v>
+        <f t="shared" si="2"/>
+        <v>11808.75</v>
       </c>
       <c r="I11">
-        <f>(B11-D11)/B11</f>
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0.38078003714462594</v>
+        <f t="shared" si="3"/>
+        <v>0.43765179294252105</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0.18078003714462593</v>
+        <f t="shared" si="4"/>
+        <v>0.18765179294252105</v>
       </c>
       <c r="M11">
         <v>1000</v>
@@ -4424,28 +4445,31 @@
       <c r="D12">
         <v>18</v>
       </c>
+      <c r="E12">
+        <v>18.440000000000001</v>
+      </c>
       <c r="F12">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G12">
-        <f>B12*M12 + (M12-1)</f>
+        <f t="shared" si="1"/>
         <v>20999</v>
       </c>
       <c r="H12">
-        <f>D12*M12-F12*(M12-1)</f>
-        <v>13005</v>
+        <f t="shared" si="2"/>
+        <v>12945.5</v>
       </c>
       <c r="I12">
-        <f>(B12-D12)/B12</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0.38068479451402448</v>
+        <f t="shared" si="3"/>
+        <v>0.38351826277441781</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
-        <v>0.2806847945140245</v>
+        <f t="shared" si="4"/>
+        <v>0.28351826277441783</v>
       </c>
       <c r="M12">
         <v>1000</v>
@@ -4453,23 +4477,23 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G13">
-        <f>B13*M13 + (M13-1)</f>
+        <f t="shared" si="1"/>
         <v>999</v>
       </c>
       <c r="H13">
-        <f>D13*M13-F13*(M13-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I13" t="e">
-        <f>(B13-D13)/B13</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K13" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M13">
@@ -4478,7 +4502,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>22</v>
@@ -4489,28 +4513,31 @@
       <c r="D14">
         <v>15</v>
       </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
       <c r="F14">
-        <v>1</v>
+        <v>1.125</v>
       </c>
       <c r="G14">
-        <f>B14*M14 + (M14-1)</f>
+        <f t="shared" si="1"/>
         <v>22999</v>
       </c>
       <c r="H14">
-        <f>D14*M14-F14*(M14-1)</f>
-        <v>14001</v>
+        <f t="shared" si="2"/>
+        <v>14876.125</v>
       </c>
       <c r="I14">
-        <f>(B14-D14)/B14</f>
+        <f t="shared" si="0"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0.3912344014957172</v>
+        <f t="shared" si="3"/>
+        <v>0.35318383407974258</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
-        <v>7.3052583313899022E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.5002015897924399E-2</v>
       </c>
       <c r="M14">
         <v>1000</v>
@@ -4518,7 +4545,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>22</v>
@@ -4527,30 +4554,33 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>17.111000000000001</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <f>B15*M15 + (M15-1)</f>
+        <f t="shared" si="1"/>
         <v>22999</v>
       </c>
       <c r="H15">
-        <f>D15*M15-F15*(M15-1)</f>
-        <v>15001</v>
+        <f t="shared" si="2"/>
+        <v>16112</v>
       </c>
       <c r="I15">
-        <f>(B15-D15)/B15</f>
-        <v>0.27272727272727271</v>
+        <f t="shared" si="0"/>
+        <v>0.22727272727272727</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0.34775425018479067</v>
+        <f t="shared" si="3"/>
+        <v>0.29944780207835126</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>7.5026977457517963E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.217507480562399E-2</v>
       </c>
       <c r="M15">
         <v>1000</v>
@@ -4558,7 +4588,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>22</v>
@@ -4569,27 +4599,30 @@
       <c r="D16">
         <v>20</v>
       </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <f>B16*M16 + (M16-1)</f>
+        <f t="shared" si="1"/>
         <v>22999</v>
       </c>
       <c r="H16">
-        <f>D16*M16-F16*(M16-1)</f>
+        <f t="shared" si="2"/>
         <v>19001</v>
       </c>
       <c r="I16">
-        <f>(B16-D16)/B16</f>
+        <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.17383364494108439</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.2924554031993475E-2</v>
       </c>
       <c r="M16">
@@ -4598,23 +4631,23 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G17">
-        <f>B17*M17 + (M17-1)</f>
+        <f t="shared" si="1"/>
         <v>999</v>
       </c>
       <c r="H17">
-        <f>D17*M17-F17*(M17-1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" t="e">
-        <f>(B17-D17)/B17</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K17" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M17">
@@ -4623,7 +4656,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -4634,28 +4667,31 @@
       <c r="D18">
         <v>17</v>
       </c>
+      <c r="E18">
+        <v>19.666</v>
+      </c>
       <c r="F18">
-        <v>1</v>
+        <v>6.125</v>
       </c>
       <c r="G18">
-        <f>B18*M18 + (M18-1)</f>
+        <f t="shared" si="1"/>
         <v>24999</v>
       </c>
       <c r="H18">
-        <f>D18*M18-F18*(M18-1)</f>
-        <v>16001</v>
+        <f t="shared" si="2"/>
+        <v>13547.125</v>
       </c>
       <c r="I18">
-        <f>(B18-D18)/B18</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0.35993439737589505</v>
+        <f t="shared" si="3"/>
+        <v>0.45809332373294931</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
-        <v>6.8267730709228369E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.16642665706628262</v>
       </c>
       <c r="M18">
         <v>1000</v>
@@ -4663,7 +4699,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -4674,28 +4710,31 @@
       <c r="D19">
         <v>19</v>
       </c>
+      <c r="E19">
+        <v>19.111000000000001</v>
+      </c>
       <c r="F19">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="G19">
-        <f>B19*M19 + (M19-1)</f>
+        <f t="shared" si="1"/>
         <v>24999</v>
       </c>
       <c r="H19">
-        <f>D19*M19-F19*(M19-1)</f>
-        <v>17002</v>
+        <f t="shared" si="2"/>
+        <v>16488.625</v>
       </c>
       <c r="I19">
-        <f>(B19-D19)/B19</f>
+        <f t="shared" si="0"/>
         <v>0.20833333333333334</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
-        <v>0.31989279571182849</v>
+        <f t="shared" si="3"/>
+        <v>0.34042861714468581</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
-        <v>0.11155946237849515</v>
+        <f t="shared" si="4"/>
+        <v>0.13209528381135247</v>
       </c>
       <c r="M19">
         <v>1000</v>
@@ -4703,7 +4742,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -4714,28 +4753,31 @@
       <c r="D20">
         <v>22</v>
       </c>
+      <c r="E20">
+        <v>22.22</v>
+      </c>
       <c r="F20">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="G20">
-        <f>B20*M20 + (M20-1)</f>
+        <f t="shared" si="1"/>
         <v>24999</v>
       </c>
       <c r="H20">
-        <f>D20*M20-F20*(M20-1)</f>
-        <v>19003</v>
+        <f t="shared" si="2"/>
+        <v>18973.25</v>
       </c>
       <c r="I20">
-        <f>(B20-D20)/B20</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
-        <v>0.23984959398375935</v>
+        <f t="shared" si="3"/>
+        <v>0.24103964158566343</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
-        <v>0.15651626065042601</v>
+        <f t="shared" si="4"/>
+        <v>0.15770630825233012</v>
       </c>
       <c r="M20">
         <v>1000</v>
@@ -4743,110 +4785,110 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4858,52 +4900,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>74</v>
@@ -4912,38 +4957,38 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <f>B2*L2 + (L2-1)</f>
+      <c r="G2">
+        <f>B2*M2 + (M2-1)</f>
         <v>74999</v>
       </c>
-      <c r="G2">
-        <f>D2*L2-E2*(L2-1)</f>
-        <v>38004</v>
-      </c>
       <c r="H2">
-        <f>(B2-D2)/B2</f>
-        <v>0.43243243243243246</v>
+        <f>E2*M2-F2*(M2-1)</f>
+        <v>4000</v>
       </c>
       <c r="I2">
-        <f>(F2-G2)/F2</f>
-        <v>0.49327324364324859</v>
+        <f t="shared" ref="I2:I16" si="0">(B2-D2)/B2</f>
+        <v>0.41891891891891891</v>
       </c>
       <c r="J2">
-        <f>I2-H2</f>
-        <v>6.0840811210816137E-2</v>
-      </c>
-      <c r="L2">
+        <f>(G2-H2)/G2</f>
+        <v>0.94666595554607391</v>
+      </c>
+      <c r="K2">
+        <f>J2-I2</f>
+        <v>0.52774703662715505</v>
+      </c>
+      <c r="M2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>74</v>
@@ -4957,33 +5002,33 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">B3*L3 + (L3-1)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="1">B3*M3 + (M3-1)</f>
         <v>74999</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G18" si="1">D3*L3-E3*(L3-1)</f>
-        <v>41005</v>
-      </c>
       <c r="H3">
-        <f t="shared" ref="H3:H18" si="2">(B3-D3)/B3</f>
+        <f t="shared" ref="H3:H16" si="2">E3*M3-F3*(M3-1)</f>
+        <v>5000</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
         <v>0.3783783783783784</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I18" si="3">(F3-G3)/F3</f>
-        <v>0.45325937679169054</v>
-      </c>
       <c r="J3">
-        <f t="shared" ref="J3:J18" si="4">I3-H3</f>
-        <v>7.4880998413312139E-2</v>
-      </c>
-      <c r="L3">
+        <f t="shared" ref="J3:J18" si="3">(G3-H3)/G3</f>
+        <v>0.93333244443259245</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K18" si="4">J3-I3</f>
+        <v>0.55495406605421405</v>
+      </c>
+      <c r="M3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>74</v>
@@ -4997,33 +5042,33 @@
       <c r="E4">
         <v>7</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>74999</v>
-      </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>56007</v>
+        <v>74999</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
         <v>0.14864864864864866</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="3"/>
-        <v>0.2532300430672409</v>
-      </c>
-      <c r="J4">
+        <v>0.9066654222056294</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="4"/>
-        <v>0.10458139441859224</v>
-      </c>
-      <c r="L4">
+        <v>0.75801677355698072</v>
+      </c>
+      <c r="M4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -5037,61 +5082,61 @@
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>80999</v>
-      </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>53008</v>
+        <v>80999</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
         <v>0.23749999999999999</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.34557216755762415</v>
-      </c>
-      <c r="J5">
+        <v>0.90123334855985882</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.10807216755762417</v>
-      </c>
-      <c r="L5">
+        <v>0.66373334855985888</v>
+      </c>
+      <c r="M5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>999</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" t="e">
-        <f t="shared" si="2"/>
+      <c r="I6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J6" t="e">
+      <c r="K6" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>60</v>
@@ -5102,413 +5147,449 @@
       <c r="D7">
         <v>58</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>60999</v>
-      </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>58000</v>
+        <v>60999</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>4.9164740405580422E-2</v>
-      </c>
-      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>1.5831407072247089E-2</v>
-      </c>
-      <c r="L7">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="M7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>60</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8">
         <v>44</v>
       </c>
       <c r="E8">
-        <v>11.55</v>
+        <v>49.6</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>60999</v>
+        <v>24.75</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>32461.55</v>
+        <v>60999</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
+        <v>24874.75</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.46783471860194431</v>
-      </c>
-      <c r="J8">
+        <v>0.59221052804144325</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>0.20116805193527765</v>
-      </c>
-      <c r="L8">
+        <v>0.32554386137477659</v>
+      </c>
+      <c r="M8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>45.2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>999</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
+        <v>60999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>34211</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.4391547402416433</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.17248807357497664</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>58.4</v>
+      </c>
+      <c r="F10">
+        <v>25.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>60999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>32925.5</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.46022885621075754</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.42689552287742422</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>13.75</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>52999</v>
+      </c>
+      <c r="H11" t="e">
+        <f>F11*M11-#REF!*(M11-1)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" t="e">
-        <f t="shared" si="2"/>
+      <c r="I12" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9">
+      <c r="J12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J9" t="e">
+      <c r="K12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9">
+      <c r="M12">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="e">
         <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10">
+      <c r="J13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J10" t="e">
+      <c r="K13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10">
+      <c r="M13">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>60999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.88524402039377692</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.58524402039377699</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="e">
         <f t="shared" si="0"/>
-        <v>52999</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>23013</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0.56578426008037885</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>0.25809195238807114</v>
-      </c>
-      <c r="L11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12">
+      <c r="J15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J12" t="e">
+      <c r="K15" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12">
+      <c r="M15">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="e">
         <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13">
+      <c r="J16">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J13" t="e">
+      <c r="K16" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13">
+      <c r="M16">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>60</v>
-      </c>
-      <c r="C14">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" ref="G17:G18" si="5">B17*M17 + (M17-1)</f>
+        <v>999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H18" si="6">D17*M17-E17*(M17-1)</f>
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>60999</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>35007</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0.42610534598927852</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0.12610534598927853</v>
-      </c>
-      <c r="L14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" t="e">
-        <f t="shared" si="2"/>
+      <c r="I17" t="e">
+        <f t="shared" ref="I17:I18" si="7">(B17-D17)/B17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15">
+      <c r="J17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J15" t="e">
+      <c r="K17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15">
+      <c r="M17">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="5"/>
         <v>999</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
+      <c r="H18">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H16" t="e">
-        <f t="shared" si="2"/>
+      <c r="I18" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16">
+      <c r="J18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J16" t="e">
+      <c r="K18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16">
+      <c r="M18">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5519,52 +5600,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>134</v>
@@ -5578,521 +5662,545 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <f>B2*L2 + (L2-1)</f>
+      <c r="G2">
+        <f t="shared" ref="G2:G18" si="0">B2*M2 + (M2-1)</f>
         <v>134999</v>
       </c>
-      <c r="G2">
-        <f>D2*L2-E2*(L2-1)</f>
-        <v>74010</v>
-      </c>
       <c r="H2">
-        <f>(B2-D2)/B2</f>
+        <f>E2*M2-F2*(M2-1)</f>
+        <v>10000</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I18" si="1">(B2-D2)/B2</f>
         <v>0.37313432835820898</v>
       </c>
-      <c r="I2">
-        <f>(F2-G2)/F2</f>
-        <v>0.45177371684234696</v>
-      </c>
       <c r="J2">
-        <f>I2-H2</f>
-        <v>7.8639388484137984E-2</v>
-      </c>
-      <c r="L2">
+        <f>(G2-H2)/G2</f>
+        <v>0.92592537722501644</v>
+      </c>
+      <c r="K2">
+        <f>J2-I2</f>
+        <v>0.55279104886680752</v>
+      </c>
+      <c r="M2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">B3*L3 + (L3-1)</f>
-        <v>999</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="1">D3*L3-E3*(L3-1)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" t="e">
-        <f t="shared" ref="H3:H18" si="2">(B3-D3)/B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I18" si="3">(F3-G3)/F3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" t="e">
-        <f t="shared" ref="J3:J18" si="4">I3-H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H18" si="2">E3*M3-F3*(M3-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J18" si="3">(G3-H3)/G3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K18" si="4">J3-I3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4">
+        <v>126.33</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
       <c r="G4">
+        <f t="shared" si="0"/>
+        <v>134999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>102354</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="1"/>
+        <v>8.2089552238805971E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0.24181660604893371</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0.15972705381012775</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>178</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>158</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>178999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>26000</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.11235955056179775</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.85474779188710548</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.74238824132530778</v>
+      </c>
+      <c r="M5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H4" t="e">
-        <f t="shared" si="2"/>
+      <c r="I6" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4">
+      <c r="J6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J4" t="e">
+      <c r="K6" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4">
+      <c r="M6">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B5">
-        <v>178</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>158</v>
-      </c>
-      <c r="E5">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>178999</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>132026</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>0.11235955056179775</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0.26242046044949974</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>0.15006090988770199</v>
-      </c>
-      <c r="L5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="G6">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J6" t="e">
+      <c r="K7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6">
+      <c r="M7">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>108999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.84403526637859061</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.58477600711933131</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="G7">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7">
+      <c r="J9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J7" t="e">
+      <c r="K9" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7">
+      <c r="M9">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>108</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <f>B8*L8 + (L8-1)</f>
-        <v>108999</v>
-      </c>
-      <c r="G8">
-        <f>D8*L8-E8*(L8-1)</f>
-        <v>63017</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>0.25925925925925924</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0.42185708125762622</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>0.16259782199836698</v>
-      </c>
-      <c r="L8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="G9">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9">
+      <c r="J10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J9" t="e">
+      <c r="K10" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9">
+      <c r="M10">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="G10">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10">
+      <c r="J11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J10" t="e">
+      <c r="K11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10">
+      <c r="M11">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="G11">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11">
+      <c r="J12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J11" t="e">
+      <c r="K12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11">
+      <c r="M12">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="G12">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12">
+      <c r="J13">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J12" t="e">
+      <c r="K13" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12">
+      <c r="M13">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>108</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>108999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.28703703703703703</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.86238405856934464</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.57534702153230755</v>
+      </c>
+      <c r="M14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>108</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>108999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="M15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="G13">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13">
+      <c r="J16">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J13" t="e">
+      <c r="K16" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13">
+      <c r="M16">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>108</v>
-      </c>
-      <c r="C14">
-        <v>-1</v>
-      </c>
-      <c r="D14">
-        <v>77</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>108999</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>62015</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>0.28703703703703703</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0.43104982614519399</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>0.14401278910815696</v>
-      </c>
-      <c r="L14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G17">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="G15">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15">
+      <c r="J17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J15" t="e">
+      <c r="K17" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15">
+      <c r="M17">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-      <c r="G16">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" t="e">
-        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16">
+      <c r="J18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J16" t="e">
+      <c r="K18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16">
+      <c r="M18">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC0859F-ED69-4D56-A35B-FCBB13D1BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53025F3-9056-4FA5-B930-D8825CA85877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33690" yWindow="2640" windowWidth="22800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13815" yWindow="5295" windowWidth="16440" windowHeight="14205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>Bench</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>HC6(14)</t>
+  </si>
+  <si>
+    <t>qft15(45)()new</t>
   </si>
 </sst>
 </file>
@@ -371,9 +374,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,7 +1090,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$C$20:$C$26</c:f>
+              <c:f>Sheet2!$C$24:$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1115,15 +1119,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet2!$I$2:$I$5,Sheet2!$I$8,Sheet2!$I$11,Sheet2!$I$14)</c:f>
+              <c:f>(Sheet2!$I$2:$I$5,Sheet2!$I$9,Sheet2!$I$13,Sheet2!$I$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.41891891891891891</c:v>
+                  <c:v>0.43243243243243246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3783783783783784</c:v>
+                  <c:v>0.36486486486486486</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14864864864864866</c:v>
@@ -1138,7 +1142,7 @@
                   <c:v>0.34615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.31666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1171,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$C$20:$C$26</c:f>
+              <c:f>Sheet2!$C$24:$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1196,18 +1200,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet2!$J$2:$J$5,Sheet2!$J$8,Sheet2!$J$11,Sheet2!$J$14)</c:f>
+              <c:f>(Sheet2!$J$2:$J$5,Sheet2!$J$9,Sheet2!$J$13,Sheet2!$J$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.94666595554607391</c:v>
+                  <c:v>0.51987359831464419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93333244443259245</c:v>
+                  <c:v>0.46652622034960467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9066654222056294</c:v>
+                  <c:v>0.2642790837211163</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.90123334855985882</c:v>
@@ -1216,10 +1220,10 @@
                   <c:v>0.59221052804144325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.59878959980376989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88524402039377692</c:v>
+                  <c:v>0.43430220167543732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,7 +1622,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.11235955056179775</c:v>
+                  <c:v>8.4269662921348312E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25925925925925924</c:v>
@@ -1675,10 +1679,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.85474779188710548</c:v>
+                  <c:v>0.37309426309644189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84403526637859061</c:v>
+                  <c:v>0.58210167065752894</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.86238405856934464</c:v>
@@ -3989,7 +3993,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4322,25 +4326,43 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>16.2</v>
+      </c>
+      <c r="F9">
+        <v>7.25</v>
+      </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>999</v>
+        <f t="shared" ref="G9" si="5">B9*M9 + (M9-1)</f>
+        <v>20999</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="H9" si="6">E9*M9-F9*(M9-1)</f>
+        <v>8957.25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="7">(B9-D9)/B9</f>
+        <v>0.3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J9" si="8">(G9-H9)/G9</f>
+        <v>0.57344397352254872</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9" si="9">J9-I9</f>
+        <v>0.27344397352254873</v>
       </c>
       <c r="M9">
         <v>1000</v>
@@ -4900,10 +4922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4957,10 +4979,13 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
       </c>
       <c r="G2">
         <f>B2*M2 + (M2-1)</f>
@@ -4968,19 +4993,19 @@
       </c>
       <c r="H2">
         <f>E2*M2-F2*(M2-1)</f>
-        <v>4000</v>
+        <v>36009</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I16" si="0">(B2-D2)/B2</f>
-        <v>0.41891891891891891</v>
+        <f t="shared" ref="I2:I7" si="0">(B2-D2)/B2</f>
+        <v>0.43243243243243246</v>
       </c>
       <c r="J2">
         <f>(G2-H2)/G2</f>
-        <v>0.94666595554607391</v>
+        <v>0.51987359831464419</v>
       </c>
       <c r="K2">
         <f>J2-I2</f>
-        <v>0.52774703662715505</v>
+        <v>8.7441165882211735E-2</v>
       </c>
       <c r="M2">
         <v>1000</v>
@@ -4997,30 +5022,33 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="1">B3*M3 + (M3-1)</f>
+        <f t="shared" ref="G3:G7" si="1">B3*M3 + (M3-1)</f>
         <v>74999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="2">E3*M3-F3*(M3-1)</f>
-        <v>5000</v>
+        <f t="shared" ref="H3:H7" si="2">E3*M3-F3*(M3-1)</f>
+        <v>40010</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>0.3783783783783784</v>
+        <v>0.36486486486486486</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J18" si="3">(G3-H3)/G3</f>
-        <v>0.93333244443259245</v>
+        <f t="shared" ref="J3:J7" si="3">(G3-H3)/G3</f>
+        <v>0.46652622034960467</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K18" si="4">J3-I3</f>
-        <v>0.55495406605421405</v>
+        <f t="shared" ref="K3:K7" si="4">J3-I3</f>
+        <v>0.10166135548473981</v>
       </c>
       <c r="M3">
         <v>1000</v>
@@ -5040,7 +5068,10 @@
         <v>63</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>66.5</v>
+      </c>
+      <c r="F4">
+        <v>11.333</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -5048,7 +5079,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>55178.332999999999</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -5056,11 +5087,11 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>0.9066654222056294</v>
+        <v>0.2642790837211163</v>
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>0.75801677355698072</v>
+        <v>0.11563043507246765</v>
       </c>
       <c r="M4">
         <v>1000</v>
@@ -5110,25 +5141,37 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>14.333</v>
+      </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>999</v>
+        <v>80999</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="e">
+        <v>50681.332999999999</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K6" t="e">
+        <v>0.37429680613340904</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.13679680613340905</v>
       </c>
       <c r="M6">
         <v>1000</v>
@@ -5139,33 +5182,39 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>76.25</v>
+      </c>
+      <c r="F7">
+        <v>15.666</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>60999</v>
+        <v>80999</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60599.665999999997</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.25184673884862779</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>0.96666666666666667</v>
+        <v>0.18934673884862779</v>
       </c>
       <c r="M7">
         <v>1000</v>
@@ -5173,7 +5222,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -5185,38 +5234,38 @@
         <v>44</v>
       </c>
       <c r="E8">
-        <v>49.6</v>
+        <v>51.6</v>
       </c>
       <c r="F8">
-        <v>24.75</v>
+        <v>26.5</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f>B8*M8 + (M8-1)</f>
         <v>60999</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>24874.75</v>
+        <f>E8*M8-F8*(M8-1)</f>
+        <v>25126.5</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f>(B8-D8)/B8</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0.59221052804144325</v>
+        <f>(G8-H8)/G8</f>
+        <v>0.5880834112034623</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
-        <v>0.32554386137477659</v>
+        <f>J8-I8</f>
+        <v>0.32141674453679564</v>
       </c>
       <c r="M8">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
+      <c r="A9" t="s">
+        <v>26</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -5228,38 +5277,38 @@
         <v>44</v>
       </c>
       <c r="E9">
-        <v>45.2</v>
+        <v>49.6</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>24.75</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f>B9*M9 + (M9-1)</f>
         <v>60999</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>34211</v>
+        <f>E9*M9-F9*(M9-1)</f>
+        <v>24874.75</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f>(B9-D9)/B9</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
-        <v>0.4391547402416433</v>
+        <f>(G9-H9)/G9</f>
+        <v>0.59221052804144325</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0.17248807357497664</v>
+        <f>J9-I9</f>
+        <v>0.32554386137477659</v>
       </c>
       <c r="M9">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -5268,73 +5317,76 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>58.4</v>
+        <v>54</v>
       </c>
       <c r="F10">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>B10*M10 + (M10-1)</f>
         <v>60999</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>32925.5</v>
+        <f>E10*M10-F10*(M10-1)</f>
+        <v>29025</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>(B10-D10)/B10</f>
+        <v>0.23333333333333334</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0.46022885621075754</v>
+        <f>(G10-H10)/G10</f>
+        <v>0.5241725274184823</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0.42689552287742422</v>
+        <f>J10-I10</f>
+        <v>0.29083919408514897</v>
       </c>
       <c r="M10">
         <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
+      <c r="A11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>35</v>
+        <v>46.4</v>
       </c>
       <c r="F11">
-        <v>13.75</v>
+        <v>13.5</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>52999</v>
-      </c>
-      <c r="H11" t="e">
-        <f>F11*M11-#REF!*(M11-1)</f>
-        <v>#REF!</v>
+        <f>B11*M11 + (M11-1)</f>
+        <v>60999</v>
+      </c>
+      <c r="H11">
+        <f>E11*M11-F11*(M11-1)</f>
+        <v>32913.5</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="J11" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <f>(B11-D11)/B11</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="J11">
+        <f>(G11-H11)/G11</f>
+        <v>0.46042558074722534</v>
+      </c>
+      <c r="K11">
+        <f>J11-I11</f>
+        <v>0.227092247413892</v>
       </c>
       <c r="M11">
         <v>1000</v>
@@ -5342,27 +5394,42 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>58</v>
+      </c>
+      <c r="E12">
+        <v>58.4</v>
+      </c>
+      <c r="F12">
+        <v>25.5</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>999</v>
+        <f>B12*M12 + (M12-1)</f>
+        <v>60999</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>E12*M12-F12*(M12-1)</f>
+        <v>32925.5</v>
+      </c>
+      <c r="I12">
+        <f>(B12-D12)/B12</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>(G12-H12)/G12</f>
+        <v>0.46022885621075754</v>
+      </c>
+      <c r="K12">
+        <f>J12-I12</f>
+        <v>0.42689552287742422</v>
       </c>
       <c r="M12">
         <v>1000</v>
@@ -5370,27 +5437,39 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>13.75</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>999</v>
+        <f>B13*M13 + (M13-1)</f>
+        <v>52999</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>E13*M13-F13*(M13-1)</f>
+        <v>21263.75</v>
+      </c>
+      <c r="I13">
+        <f>(B13-D13)/B13</f>
+        <v>0.34615384615384615</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>(G13-H13)/G13</f>
+        <v>0.59878959980376989</v>
+      </c>
+      <c r="K13">
+        <f>J13-I13</f>
+        <v>0.25263575364992374</v>
       </c>
       <c r="M13">
         <v>1000</v>
@@ -5398,39 +5477,39 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>39.6</v>
+      </c>
+      <c r="F14">
+        <v>14.75</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>60999</v>
+        <f>B14*M14 + (M14-1)</f>
+        <v>52999</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>7000</v>
+        <f>E14*M14-F14*(M14-1)</f>
+        <v>24864.75</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f>(B14-D14)/B14</f>
+        <v>0.25</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0.88524402039377692</v>
+        <f>(G14-H14)/G14</f>
+        <v>0.53084492160229435</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
-        <v>0.58524402039377699</v>
+        <f>J14-I14</f>
+        <v>0.28084492160229435</v>
       </c>
       <c r="M14">
         <v>1000</v>
@@ -5438,27 +5517,39 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>49.8</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>999</v>
+        <f>B15*M15 + (M15-1)</f>
+        <v>52999</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>E15*M15-F15*(M15-1)</f>
+        <v>30819</v>
+      </c>
+      <c r="I15">
+        <f>(B15-D15)/B15</f>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K15" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>(G15-H15)/G15</f>
+        <v>0.41849846223513654</v>
+      </c>
+      <c r="K15">
+        <f>J15-I15</f>
+        <v>0.36080615454282883</v>
       </c>
       <c r="M15">
         <v>1000</v>
@@ -5466,129 +5557,224 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>41.5</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>999</v>
+        <f>B16*M16 + (M16-1)</f>
+        <v>60999</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <f>E16*M16-F16*(M16-1)</f>
+        <v>34507</v>
+      </c>
+      <c r="I16">
+        <f>(B16-D16)/B16</f>
+        <v>0.31666666666666665</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K16" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>(G16-H16)/G16</f>
+        <v>0.43430220167543732</v>
+      </c>
+      <c r="K16">
+        <f>J16-I16</f>
+        <v>0.11763553500877066</v>
       </c>
       <c r="M16">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
       <c r="G17">
-        <f t="shared" ref="G17:G18" si="5">B17*M17 + (M17-1)</f>
-        <v>999</v>
+        <f>B17*M17 + (M17-1)</f>
+        <v>60999</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H18" si="6">D17*M17-E17*(M17-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" t="e">
-        <f t="shared" ref="I17:I18" si="7">(B17-D17)/B17</f>
-        <v>#DIV/0!</v>
+        <f>E17*M17-F17*(M17-1)</f>
+        <v>36010</v>
+      </c>
+      <c r="I17">
+        <f>(B17-D17)/B17</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <f>(G17-H17)/G17</f>
+        <v>0.40966245348284397</v>
+      </c>
+      <c r="K17">
+        <f>J17-I17</f>
+        <v>0.14299578681617731</v>
       </c>
       <c r="M17">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>55.25</v>
+      </c>
+      <c r="F18">
+        <v>16.66</v>
+      </c>
       <c r="G18">
+        <f>B18*M18 + (M18-1)</f>
+        <v>60999</v>
+      </c>
+      <c r="H18">
+        <f>E18*M18-F18*(M18-1)</f>
+        <v>38606.660000000003</v>
+      </c>
+      <c r="I18">
+        <f>(B18-D18)/B18</f>
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <f>(G18-H18)/G18</f>
+        <v>0.36709355891080175</v>
+      </c>
+      <c r="K18">
+        <f>J18-I18</f>
+        <v>0.26709355891080178</v>
+      </c>
+      <c r="M18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" ref="G19:G20" si="5">B19*M19 + (M19-1)</f>
+        <v>999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H20" si="6">D19*M19-E19*(M19-1)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" ref="I19:I20" si="7">(B19-D19)/B19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19">
+        <f>(G19-H19)/G19</f>
+        <v>1</v>
+      </c>
+      <c r="K19" t="e">
+        <f>J19-I19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G20">
         <f t="shared" si="5"/>
         <v>999</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I18" t="e">
+      <c r="I20" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
+      <c r="J20">
+        <f>(G20-H20)/G20</f>
         <v>1</v>
       </c>
-      <c r="K18" t="e">
-        <f t="shared" si="4"/>
+      <c r="K20" t="e">
+        <f>J20-I20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5603,7 +5789,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,7 +5846,10 @@
         <v>84</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>87.332999999999998</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G18" si="0">B2*M2 + (M2-1)</f>
@@ -5668,7 +5857,7 @@
       </c>
       <c r="H2">
         <f>E2*M2-F2*(M2-1)</f>
-        <v>10000</v>
+        <v>71349</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I18" si="1">(B2-D2)/B2</f>
@@ -5676,11 +5865,11 @@
       </c>
       <c r="J2">
         <f>(G2-H2)/G2</f>
-        <v>0.92592537722501644</v>
+        <v>0.47148497396277012</v>
       </c>
       <c r="K2">
         <f>J2-I2</f>
-        <v>0.55279104886680752</v>
+        <v>9.8350645604561138E-2</v>
       </c>
       <c r="M2">
         <v>1000</v>
@@ -5690,25 +5879,40 @@
       <c r="A3" t="s">
         <v>56</v>
       </c>
+      <c r="B3">
+        <v>134</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>109</v>
+      </c>
+      <c r="E3" s="2">
+        <v>111.666</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>134999</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H18" si="2">E3*M3-F3*(M3-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="e">
+        <v>91686</v>
+      </c>
+      <c r="I3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.18656716417910449</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J18" si="3">(G3-H3)/G3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" t="e">
+        <v>0.32083941362528612</v>
+      </c>
+      <c r="K3">
         <f t="shared" ref="K3:K18" si="4">J3-I3</f>
-        <v>#DIV/0!</v>
+        <v>0.13427224944618163</v>
       </c>
       <c r="M3">
         <v>1000</v>
@@ -5768,10 +5972,13 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>167.66</v>
+      </c>
+      <c r="F5">
+        <v>55.5</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
@@ -5779,19 +5986,19 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>26000</v>
+        <v>112215.5</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.11235955056179775</v>
+        <v>8.4269662921348312E-2</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.85474779188710548</v>
+        <v>0.37309426309644189</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.74238824132530778</v>
+        <v>0.28882460017509359</v>
       </c>
       <c r="M5">
         <v>1000</v>
@@ -5829,25 +6036,37 @@
       <c r="A7" t="s">
         <v>54</v>
       </c>
+      <c r="B7">
+        <v>178</v>
+      </c>
+      <c r="D7">
+        <v>174</v>
+      </c>
+      <c r="E7">
+        <v>174.333</v>
+      </c>
+      <c r="F7">
+        <v>43.5</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>178999</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="e">
+        <v>130876.5</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.247191011235955E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K7" t="e">
+        <v>0.26884228403510635</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.2463703739227468</v>
       </c>
       <c r="M7">
         <v>1000</v>
@@ -5867,7 +6086,10 @@
         <v>80</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>50.5</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -5875,7 +6097,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>17000</v>
+        <v>45550.5</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -5883,11 +6105,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.84403526637859061</v>
+        <v>0.58210167065752894</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>0.58477600711933131</v>
+        <v>0.32284241139826969</v>
       </c>
       <c r="M8">
         <v>1000</v>
@@ -5897,25 +6119,40 @@
       <c r="A9" t="s">
         <v>47</v>
       </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>108999</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
+        <v>58026</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K9" t="e">
+        <v>0.46764649216965293</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.2269057514289122</v>
       </c>
       <c r="M9">
         <v>1000</v>
@@ -5925,25 +6162,37 @@
       <c r="A10" t="s">
         <v>46</v>
       </c>
+      <c r="B10">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <v>106</v>
+      </c>
+      <c r="F10">
+        <v>49</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>108999</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" t="e">
+        <v>57049</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K10" t="e">
+        <v>0.47660987715483627</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.45809135863631778</v>
       </c>
       <c r="M10">
         <v>1000</v>
@@ -6114,25 +6363,40 @@
       <c r="A16" t="s">
         <v>49</v>
       </c>
+      <c r="B16">
+        <v>108</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <v>103.75</v>
+      </c>
+      <c r="F16">
+        <v>41.332999999999998</v>
+      </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>108999</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" t="e">
+        <v>62458.332999999999</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K16" t="e">
+        <v>0.42698251360104222</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.37142695804548664</v>
       </c>
       <c r="M16">
         <v>1000</v>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53025F3-9056-4FA5-B930-D8825CA85877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235A8D7D-A707-4EFD-853D-2B06CCDAD08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13815" yWindow="5295" windowWidth="16440" windowHeight="14205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8160" yWindow="3810" windowWidth="16440" windowHeight="14205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>hlf15(29)</t>
   </si>
   <si>
-    <t>vqe14(27)</t>
-  </si>
-  <si>
     <t>qft15(45)</t>
   </si>
   <si>
@@ -133,12 +130,6 @@
     <t>hlf15(45)</t>
   </si>
   <si>
-    <t>vqe14(41)</t>
-  </si>
-  <si>
-    <t>vqe14(34)</t>
-  </si>
-  <si>
     <t>Second improvement</t>
   </si>
   <si>
@@ -187,15 +178,6 @@
     <t>qft27(80)</t>
   </si>
   <si>
-    <t>vqe26(51)</t>
-  </si>
-  <si>
-    <t>vqe26(64)</t>
-  </si>
-  <si>
-    <t>vqe26(77)</t>
-  </si>
-  <si>
     <t>iqp27(80)</t>
   </si>
   <si>
@@ -326,6 +308,24 @@
   </si>
   <si>
     <t>qft15(45)()new</t>
+  </si>
+  <si>
+    <t>vqe26(53)</t>
+  </si>
+  <si>
+    <t>vqe26(67)</t>
+  </si>
+  <si>
+    <t>vqe26(80)</t>
+  </si>
+  <si>
+    <t>vqe14(29)</t>
+  </si>
+  <si>
+    <t>vqe14(37)</t>
+  </si>
+  <si>
+    <t>vqe14(45)</t>
   </si>
 </sst>
 </file>
@@ -3993,7 +3993,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,10 +4015,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -4036,10 +4036,10 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>22</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -4807,110 +4807,110 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +4925,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,10 +4941,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -4962,10 +4962,10 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5099,7 +5099,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>80</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -5240,23 +5240,23 @@
         <v>26.5</v>
       </c>
       <c r="G8">
-        <f>B8*M8 + (M8-1)</f>
+        <f t="shared" ref="G8:G18" si="5">B8*M8 + (M8-1)</f>
         <v>60999</v>
       </c>
       <c r="H8">
-        <f>E8*M8-F8*(M8-1)</f>
+        <f t="shared" ref="H8:H18" si="6">E8*M8-F8*(M8-1)</f>
         <v>25126.5</v>
       </c>
       <c r="I8">
-        <f>(B8-D8)/B8</f>
+        <f t="shared" ref="I8:I18" si="7">(B8-D8)/B8</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="J8">
-        <f>(G8-H8)/G8</f>
+        <f t="shared" ref="J8:J20" si="8">(G8-H8)/G8</f>
         <v>0.5880834112034623</v>
       </c>
       <c r="K8">
-        <f>J8-I8</f>
+        <f t="shared" ref="K8:K20" si="9">J8-I8</f>
         <v>0.32141674453679564</v>
       </c>
       <c r="M8">
@@ -5265,7 +5265,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -5283,23 +5283,23 @@
         <v>24.75</v>
       </c>
       <c r="G9">
-        <f>B9*M9 + (M9-1)</f>
+        <f t="shared" si="5"/>
         <v>60999</v>
       </c>
       <c r="H9">
-        <f>E9*M9-F9*(M9-1)</f>
+        <f t="shared" si="6"/>
         <v>24874.75</v>
       </c>
       <c r="I9">
-        <f>(B9-D9)/B9</f>
+        <f t="shared" si="7"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="J9">
-        <f>(G9-H9)/G9</f>
+        <f t="shared" si="8"/>
         <v>0.59221052804144325</v>
       </c>
       <c r="K9">
-        <f>J9-I9</f>
+        <f t="shared" si="9"/>
         <v>0.32554386137477659</v>
       </c>
       <c r="M9">
@@ -5308,7 +5308,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -5326,23 +5326,23 @@
         <v>25</v>
       </c>
       <c r="G10">
-        <f>B10*M10 + (M10-1)</f>
+        <f t="shared" si="5"/>
         <v>60999</v>
       </c>
       <c r="H10">
-        <f>E10*M10-F10*(M10-1)</f>
+        <f t="shared" si="6"/>
         <v>29025</v>
       </c>
       <c r="I10">
-        <f>(B10-D10)/B10</f>
+        <f t="shared" si="7"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="J10">
-        <f>(G10-H10)/G10</f>
+        <f t="shared" si="8"/>
         <v>0.5241725274184823</v>
       </c>
       <c r="K10">
-        <f>J10-I10</f>
+        <f t="shared" si="9"/>
         <v>0.29083919408514897</v>
       </c>
       <c r="M10">
@@ -5351,7 +5351,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>60</v>
@@ -5369,23 +5369,23 @@
         <v>13.5</v>
       </c>
       <c r="G11">
-        <f>B11*M11 + (M11-1)</f>
+        <f t="shared" si="5"/>
         <v>60999</v>
       </c>
       <c r="H11">
-        <f>E11*M11-F11*(M11-1)</f>
+        <f t="shared" si="6"/>
         <v>32913.5</v>
       </c>
       <c r="I11">
-        <f>(B11-D11)/B11</f>
+        <f t="shared" si="7"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="J11">
-        <f>(G11-H11)/G11</f>
+        <f t="shared" si="8"/>
         <v>0.46042558074722534</v>
       </c>
       <c r="K11">
-        <f>J11-I11</f>
+        <f t="shared" si="9"/>
         <v>0.227092247413892</v>
       </c>
       <c r="M11">
@@ -5412,23 +5412,23 @@
         <v>25.5</v>
       </c>
       <c r="G12">
-        <f>B12*M12 + (M12-1)</f>
+        <f t="shared" si="5"/>
         <v>60999</v>
       </c>
       <c r="H12">
-        <f>E12*M12-F12*(M12-1)</f>
+        <f t="shared" si="6"/>
         <v>32925.5</v>
       </c>
       <c r="I12">
-        <f>(B12-D12)/B12</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="J12">
-        <f>(G12-H12)/G12</f>
+        <f t="shared" si="8"/>
         <v>0.46022885621075754</v>
       </c>
       <c r="K12">
-        <f>J12-I12</f>
+        <f t="shared" si="9"/>
         <v>0.42689552287742422</v>
       </c>
       <c r="M12">
@@ -5437,7 +5437,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>52</v>
@@ -5452,23 +5452,23 @@
         <v>13.75</v>
       </c>
       <c r="G13">
-        <f>B13*M13 + (M13-1)</f>
+        <f t="shared" si="5"/>
         <v>52999</v>
       </c>
       <c r="H13">
-        <f>E13*M13-F13*(M13-1)</f>
+        <f t="shared" si="6"/>
         <v>21263.75</v>
       </c>
       <c r="I13">
-        <f>(B13-D13)/B13</f>
+        <f t="shared" si="7"/>
         <v>0.34615384615384615</v>
       </c>
       <c r="J13">
-        <f>(G13-H13)/G13</f>
+        <f t="shared" si="8"/>
         <v>0.59878959980376989</v>
       </c>
       <c r="K13">
-        <f>J13-I13</f>
+        <f t="shared" si="9"/>
         <v>0.25263575364992374</v>
       </c>
       <c r="M13">
@@ -5492,23 +5492,23 @@
         <v>14.75</v>
       </c>
       <c r="G14">
-        <f>B14*M14 + (M14-1)</f>
+        <f t="shared" si="5"/>
         <v>52999</v>
       </c>
       <c r="H14">
-        <f>E14*M14-F14*(M14-1)</f>
+        <f t="shared" si="6"/>
         <v>24864.75</v>
       </c>
       <c r="I14">
-        <f>(B14-D14)/B14</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="J14">
-        <f>(G14-H14)/G14</f>
+        <f t="shared" si="8"/>
         <v>0.53084492160229435</v>
       </c>
       <c r="K14">
-        <f>J14-I14</f>
+        <f t="shared" si="9"/>
         <v>0.28084492160229435</v>
       </c>
       <c r="M14">
@@ -5532,23 +5532,23 @@
         <v>19</v>
       </c>
       <c r="G15">
-        <f>B15*M15 + (M15-1)</f>
+        <f t="shared" si="5"/>
         <v>52999</v>
       </c>
       <c r="H15">
-        <f>E15*M15-F15*(M15-1)</f>
+        <f t="shared" si="6"/>
         <v>30819</v>
       </c>
       <c r="I15">
-        <f>(B15-D15)/B15</f>
+        <f t="shared" si="7"/>
         <v>5.7692307692307696E-2</v>
       </c>
       <c r="J15">
-        <f>(G15-H15)/G15</f>
+        <f t="shared" si="8"/>
         <v>0.41849846223513654</v>
       </c>
       <c r="K15">
-        <f>J15-I15</f>
+        <f t="shared" si="9"/>
         <v>0.36080615454282883</v>
       </c>
       <c r="M15">
@@ -5557,7 +5557,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <v>60</v>
@@ -5575,23 +5575,23 @@
         <v>7</v>
       </c>
       <c r="G16">
-        <f>B16*M16 + (M16-1)</f>
+        <f t="shared" si="5"/>
         <v>60999</v>
       </c>
       <c r="H16">
-        <f>E16*M16-F16*(M16-1)</f>
+        <f t="shared" si="6"/>
         <v>34507</v>
       </c>
       <c r="I16">
-        <f>(B16-D16)/B16</f>
+        <f t="shared" si="7"/>
         <v>0.31666666666666665</v>
       </c>
       <c r="J16">
-        <f>(G16-H16)/G16</f>
+        <f t="shared" si="8"/>
         <v>0.43430220167543732</v>
       </c>
       <c r="K16">
-        <f>J16-I16</f>
+        <f t="shared" si="9"/>
         <v>0.11763553500877066</v>
       </c>
       <c r="M16">
@@ -5600,7 +5600,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>60</v>
@@ -5615,23 +5615,23 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <f>B17*M17 + (M17-1)</f>
+        <f t="shared" si="5"/>
         <v>60999</v>
       </c>
       <c r="H17">
-        <f>E17*M17-F17*(M17-1)</f>
+        <f t="shared" si="6"/>
         <v>36010</v>
       </c>
       <c r="I17">
-        <f>(B17-D17)/B17</f>
+        <f t="shared" si="7"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="J17">
-        <f>(G17-H17)/G17</f>
+        <f t="shared" si="8"/>
         <v>0.40966245348284397</v>
       </c>
       <c r="K17">
-        <f>J17-I17</f>
+        <f t="shared" si="9"/>
         <v>0.14299578681617731</v>
       </c>
       <c r="M17">
@@ -5640,39 +5640,39 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>60</v>
       </c>
       <c r="D18">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18">
-        <v>55.25</v>
+        <v>53.2</v>
       </c>
       <c r="F18">
-        <v>16.66</v>
+        <v>15.75</v>
       </c>
       <c r="G18">
-        <f>B18*M18 + (M18-1)</f>
+        <f t="shared" si="5"/>
         <v>60999</v>
       </c>
       <c r="H18">
-        <f>E18*M18-F18*(M18-1)</f>
-        <v>38606.660000000003</v>
+        <f t="shared" si="6"/>
+        <v>37465.75</v>
       </c>
       <c r="I18">
-        <f>(B18-D18)/B18</f>
-        <v>0.1</v>
+        <f t="shared" si="7"/>
+        <v>0.15</v>
       </c>
       <c r="J18">
-        <f>(G18-H18)/G18</f>
-        <v>0.36709355891080175</v>
+        <f t="shared" si="8"/>
+        <v>0.38579730815259267</v>
       </c>
       <c r="K18">
-        <f>J18-I18</f>
-        <v>0.26709355891080178</v>
+        <f t="shared" si="9"/>
+        <v>0.23579730815259267</v>
       </c>
       <c r="M18">
         <v>1000</v>
@@ -5680,23 +5680,23 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G19">
-        <f t="shared" ref="G19:G20" si="5">B19*M19 + (M19-1)</f>
+        <f t="shared" ref="G19:G20" si="10">B19*M19 + (M19-1)</f>
         <v>999</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H20" si="6">D19*M19-E19*(M19-1)</f>
+        <f t="shared" ref="H19:H20" si="11">D19*M19-E19*(M19-1)</f>
         <v>0</v>
       </c>
       <c r="I19" t="e">
-        <f t="shared" ref="I19:I20" si="7">(B19-D19)/B19</f>
+        <f t="shared" ref="I19:I20" si="12">(B19-D19)/B19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J19">
-        <f>(G19-H19)/G19</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K19" t="e">
-        <f>J19-I19</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M19">
@@ -5705,23 +5705,23 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>999</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I20" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J20">
-        <f>(G20-H20)/G20</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K20" t="e">
-        <f>J20-I20</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M20">
@@ -5730,52 +5730,52 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5789,7 +5789,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5805,10 +5805,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -5826,15 +5826,15 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>134</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>134</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>134</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>178</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>178</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>108</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>108</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>108</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>108</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>108</v>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>108</v>
@@ -6370,13 +6370,13 @@
         <v>-1</v>
       </c>
       <c r="D16">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E16">
-        <v>103.75</v>
+        <v>100.5</v>
       </c>
       <c r="F16">
-        <v>41.332999999999998</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -6384,19 +6384,19 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>62458.332999999999</v>
+        <v>60540</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>5.5555555555555552E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>0.42698251360104222</v>
+        <v>0.44458206038587511</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>0.37142695804548664</v>
+        <v>0.3612487270525418</v>
       </c>
       <c r="M16">
         <v>1000</v>
@@ -6454,17 +6454,17 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235A8D7D-A707-4EFD-853D-2B06CCDAD08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E22E1F-EC88-4E2F-990A-6FCF2E67C633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="3810" windowWidth="16440" windowHeight="14205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
                   <c:v>0.59878959980376989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43430220167543732</c:v>
+                  <c:v>0.5160986245676159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,7 +1685,7 @@
                   <c:v>0.58210167065752894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86238405856934464</c:v>
+                  <c:v>0.57755575739226961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3992,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4924,8 +4924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5569,10 +5569,10 @@
         <v>41</v>
       </c>
       <c r="E16">
-        <v>41.5</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>34507</v>
+        <v>29517.5</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
@@ -5588,11 +5588,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
-        <v>0.43430220167543732</v>
+        <v>0.5160986245676159</v>
       </c>
       <c r="K16">
         <f t="shared" si="9"/>
-        <v>0.11763553500877066</v>
+        <v>0.19943195790094925</v>
       </c>
       <c r="M16">
         <v>1000</v>
@@ -5606,13 +5606,13 @@
         <v>60</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>46</v>
+        <v>45.6</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
@@ -5620,19 +5620,19 @@
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>36010</v>
+        <v>34361.25</v>
       </c>
       <c r="I17">
         <f t="shared" si="7"/>
-        <v>0.26666666666666666</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
-        <v>0.40966245348284397</v>
+        <v>0.43669158510795258</v>
       </c>
       <c r="K17">
         <f t="shared" si="9"/>
-        <v>0.14299578681617731</v>
+        <v>0.15335825177461926</v>
       </c>
       <c r="M17">
         <v>1000</v>
@@ -5788,8 +5788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,25 +6202,34 @@
       <c r="A11" t="s">
         <v>54</v>
       </c>
+      <c r="B11">
+        <v>126</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>88</v>
+      </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>126999</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" t="e">
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.30158730158730157</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.69841269841269837</v>
       </c>
       <c r="M11">
         <v>1000</v>
@@ -6258,25 +6267,37 @@
       <c r="A13" t="s">
         <v>52</v>
       </c>
+      <c r="B13">
+        <v>126</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>122</v>
+      </c>
+      <c r="F13">
+        <v>9.75</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>126999</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="e">
+        <v>112259.75</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K13" t="e">
+        <v>0.11605800045669651</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>6.8438952837648892E-2</v>
       </c>
       <c r="M13">
         <v>1000</v>
@@ -6296,7 +6317,10 @@
         <v>77</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="F14">
+        <v>46</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -6304,7 +6328,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>46046</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
@@ -6312,11 +6336,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>0.86238405856934464</v>
+        <v>0.57755575739226961</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>0.57534702153230755</v>
+        <v>0.29051872035523257</v>
       </c>
       <c r="M14">
         <v>1000</v>
@@ -6333,7 +6357,13 @@
         <v>-1</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>80.5</v>
+      </c>
+      <c r="F15">
+        <v>20.832999999999998</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -6341,19 +6371,19 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>59687.832999999999</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>0.25925925925925924</v>
+        <v>0.26851851851851855</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.45240017798328425</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>0.7407407407407407</v>
+        <v>0.1838816594647657</v>
       </c>
       <c r="M15">
         <v>1000</v>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E22E1F-EC88-4E2F-990A-6FCF2E67C633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E7A401-DAB1-498B-A649-10EAC3EF175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>Bench</t>
   </si>
@@ -199,12 +199,6 @@
     <t>hlf27(45)</t>
   </si>
   <si>
-    <t>hlf27(57)</t>
-  </si>
-  <si>
-    <t>hlf27(68)</t>
-  </si>
-  <si>
     <t>BV5(12)</t>
   </si>
   <si>
@@ -326,6 +320,12 @@
   </si>
   <si>
     <t>vqe14(45)</t>
+  </si>
+  <si>
+    <t>hlf27(72)</t>
+  </si>
+  <si>
+    <t>hlf27(58)</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.62064209110658985</c:v>
+                  <c:v>0.63788406496775751</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.50343115279837236</c:v>
@@ -685,7 +685,7 @@
                   <c:v>0.3103555295010173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3496075916344189</c:v>
+                  <c:v>0.36945084568894299</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.33443845384581938</c:v>
@@ -694,7 +694,7 @@
                   <c:v>0.20701443541023523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55205009762369639</c:v>
+                  <c:v>0.57746559359969529</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.43765179294252105</c:v>
@@ -703,7 +703,7 @@
                   <c:v>0.38351826277441781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35318383407974258</c:v>
+                  <c:v>0.35645028044697596</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.29944780207835126</c:v>
@@ -1139,7 +1139,7 @@
                   <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34615384615384615</c:v>
+                  <c:v>0.28846153846153844</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.31666666666666665</c:v>
@@ -1205,7 +1205,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.51987359831464419</c:v>
+                  <c:v>0.52251363351511348</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.46652622034960467</c:v>
@@ -1214,16 +1214,16 @@
                   <c:v>0.2642790837211163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90123334855985882</c:v>
+                  <c:v>0.49907714910060619</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.59221052804144325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59878959980376989</c:v>
+                  <c:v>0.52610992660238876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5160986245676159</c:v>
+                  <c:v>0.58837030115247679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1682,7 +1682,7 @@
                   <c:v>0.37309426309644189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58210167065752894</c:v>
+                  <c:v>0.58716823090120096</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.57755575739226961</c:v>
@@ -3992,8 +3992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,10 +4015,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -4056,7 +4056,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="H2">
         <f>E2*M2-F2*(M2-1)</f>
-        <v>11001</v>
+        <v>10501</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I20" si="0">(B2-D2)/B2</f>
@@ -4075,11 +4075,11 @@
       </c>
       <c r="J2">
         <f>(G2-H2)/G2</f>
-        <v>0.62064209110658985</v>
+        <v>0.63788406496775751</v>
       </c>
       <c r="K2">
         <f>J2-I2</f>
-        <v>4.9213519678018458E-2</v>
+        <v>6.6455493539186117E-2</v>
       </c>
       <c r="M2">
         <v>1000</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -4210,10 +4210,10 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>15.333</v>
+        <v>16.5</v>
       </c>
       <c r="F6">
-        <v>0.375</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>14958.375</v>
+        <v>14502</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -4229,11 +4229,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.3496075916344189</v>
+        <v>0.36945084568894299</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>3.1425773452600725E-2</v>
+        <v>5.1269027507124809E-2</v>
       </c>
       <c r="M6">
         <v>1000</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -4325,49 +4325,6 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>16.2</v>
-      </c>
-      <c r="F9">
-        <v>7.25</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9" si="5">B9*M9 + (M9-1)</f>
-        <v>20999</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ref="H9" si="6">E9*M9-F9*(M9-1)</f>
-        <v>8957.25</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9" si="7">(B9-D9)/B9</f>
-        <v>0.3</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ref="J9" si="8">(G9-H9)/G9</f>
-        <v>0.57344397352254872</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K9" si="9">J9-I9</f>
-        <v>0.27344397352254873</v>
-      </c>
-      <c r="M9">
-        <v>1000</v>
-      </c>
-    </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
@@ -4382,30 +4339,30 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>15.9</v>
+        <v>15.666</v>
       </c>
       <c r="F10">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G10" si="5">B10*M10 + (M10-1)</f>
         <v>20999</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>9406.5</v>
+        <f t="shared" ref="H10" si="6">E10*M10-F10*(M10-1)</f>
+        <v>8872.7999999999993</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I10" si="7">(B10-D10)/B10</f>
         <v>0.3</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0.55205009762369639</v>
+        <f t="shared" ref="J10" si="8">(G10-H10)/G10</f>
+        <v>0.57746559359969529</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0.2520500976236964</v>
+        <f t="shared" ref="K10" si="9">J10-I10</f>
+        <v>0.2774655935996953</v>
       </c>
       <c r="M10">
         <v>1000</v>
@@ -4413,7 +4370,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -4536,10 +4493,10 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F14">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
@@ -4547,7 +4504,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>14876.125</v>
+        <v>14801</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -4555,11 +4512,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>0.35318383407974258</v>
+        <v>0.35645028044697596</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>3.5002015897924399E-2</v>
+        <v>3.8268462265157788E-2</v>
       </c>
       <c r="M14">
         <v>1000</v>
@@ -4567,7 +4524,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>22</v>
@@ -4721,7 +4678,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -4810,7 +4767,7 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4821,10 +4778,10 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4835,10 +4792,10 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4846,7 +4803,7 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -4857,60 +4814,60 @@
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +4882,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,10 +4898,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -4982,10 +4939,10 @@
         <v>42</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>46.8</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <f>B2*M2 + (M2-1)</f>
@@ -4993,7 +4950,7 @@
       </c>
       <c r="H2">
         <f>E2*M2-F2*(M2-1)</f>
-        <v>36009</v>
+        <v>35811</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I7" si="0">(B2-D2)/B2</f>
@@ -5001,11 +4958,11 @@
       </c>
       <c r="J2">
         <f>(G2-H2)/G2</f>
-        <v>0.51987359831464419</v>
+        <v>0.52251363351511348</v>
       </c>
       <c r="K2">
         <f>J2-I2</f>
-        <v>8.7441165882211735E-2</v>
+        <v>9.0081201082681028E-2</v>
       </c>
       <c r="M2">
         <v>1000</v>
@@ -5111,7 +5068,10 @@
         <v>61</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>64.8</v>
+      </c>
+      <c r="F5">
+        <v>24.25</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -5119,7 +5079,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>40574.25</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -5127,11 +5087,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.90123334855985882</v>
+        <v>0.49907714910060619</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.66373334855985888</v>
+        <v>0.2615771491006062</v>
       </c>
       <c r="M5">
         <v>1000</v>
@@ -5222,7 +5182,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -5443,13 +5403,13 @@
         <v>52</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F13">
-        <v>13.75</v>
+        <v>15.7</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
@@ -5457,19 +5417,19 @@
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>21263.75</v>
+        <v>25115.7</v>
       </c>
       <c r="I13">
         <f t="shared" si="7"/>
-        <v>0.34615384615384615</v>
+        <v>0.28846153846153844</v>
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>0.59878959980376989</v>
+        <v>0.52610992660238876</v>
       </c>
       <c r="K13">
         <f t="shared" si="9"/>
-        <v>0.25263575364992374</v>
+        <v>0.23764838814085032</v>
       </c>
       <c r="M13">
         <v>1000</v>
@@ -5483,13 +5443,13 @@
         <v>52</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>39.6</v>
+        <v>43.8</v>
       </c>
       <c r="F14">
-        <v>14.75</v>
+        <v>17.5</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
@@ -5497,19 +5457,19 @@
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>24864.75</v>
+        <v>26317.5</v>
       </c>
       <c r="I14">
         <f t="shared" si="7"/>
-        <v>0.25</v>
+        <v>0.21153846153846154</v>
       </c>
       <c r="J14">
         <f t="shared" si="8"/>
-        <v>0.53084492160229435</v>
+        <v>0.50343402705711426</v>
       </c>
       <c r="K14">
         <f t="shared" si="9"/>
-        <v>0.28084492160229435</v>
+        <v>0.2918955655186527</v>
       </c>
       <c r="M14">
         <v>1000</v>
@@ -5557,7 +5517,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16">
         <v>60</v>
@@ -5569,10 +5529,10 @@
         <v>41</v>
       </c>
       <c r="E16">
-        <v>47</v>
+        <v>50.75</v>
       </c>
       <c r="F16">
-        <v>17.5</v>
+        <v>25.6666666666666</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
@@ -5580,7 +5540,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>29517.5</v>
+        <v>25109.000000000065</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
@@ -5588,11 +5548,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
-        <v>0.5160986245676159</v>
+        <v>0.58837030115247679</v>
       </c>
       <c r="K16">
         <f t="shared" si="9"/>
-        <v>0.19943195790094925</v>
+        <v>0.27170363448581014</v>
       </c>
       <c r="M16">
         <v>1000</v>
@@ -5600,7 +5560,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17">
         <v>60</v>
@@ -5640,7 +5600,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <v>60</v>
@@ -5733,7 +5693,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -5741,7 +5701,7 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -5749,7 +5709,7 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -5757,7 +5717,7 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -5765,17 +5725,17 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5789,7 +5749,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5805,10 +5765,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -6086,10 +6046,10 @@
         <v>80</v>
       </c>
       <c r="E8">
-        <v>96</v>
+        <v>93.2</v>
       </c>
       <c r="F8">
-        <v>50.5</v>
+        <v>48.25</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -6097,7 +6057,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>45550.5</v>
+        <v>44998.25</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
@@ -6105,11 +6065,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.58210167065752894</v>
+        <v>0.58716823090120096</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>0.32284241139826969</v>
+        <v>0.32790897164194172</v>
       </c>
       <c r="M8">
         <v>1000</v>
@@ -6200,7 +6160,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>126</v>
@@ -6210,6 +6170,12 @@
       </c>
       <c r="D11">
         <v>88</v>
+      </c>
+      <c r="E11">
+        <v>89.4</v>
+      </c>
+      <c r="F11">
+        <v>18.5</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -6217,7 +6183,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70918.5</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -6225,11 +6191,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.44158221718281249</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>0.69841269841269837</v>
+        <v>0.13999491559551092</v>
       </c>
       <c r="M11">
         <v>1000</v>
@@ -6237,27 +6203,39 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>126</v>
+      </c>
+      <c r="D12">
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <v>90.6</v>
+      </c>
+      <c r="F12">
+        <v>18.25</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>126999</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" t="e">
+        <v>72368.25</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.29365079365079366</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K12" t="e">
+        <v>0.43016677296671629</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.13651597931592263</v>
       </c>
       <c r="M12">
         <v>1000</v>
@@ -6305,7 +6283,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>108</v>
@@ -6348,7 +6326,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>108</v>
@@ -6391,7 +6369,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>108</v>
@@ -6484,17 +6462,17 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E7A401-DAB1-498B-A649-10EAC3EF175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20290F46-E640-4781-8EC0-C6C65C4688E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="4935" windowWidth="28440" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
   <si>
     <t>Bench</t>
   </si>
@@ -326,6 +329,12 @@
   </si>
   <si>
     <t>hlf27(58)</t>
+  </si>
+  <si>
+    <t>Original wire</t>
+  </si>
+  <si>
+    <t>New wires</t>
   </si>
 </sst>
 </file>
@@ -685,7 +694,7 @@
                   <c:v>0.3103555295010173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36945084568894299</c:v>
+                  <c:v>0.40633288403843648</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.33443845384581938</c:v>
@@ -712,7 +721,7 @@
                   <c:v>0.17383364494108439</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.45809332373294931</c:v>
+                  <c:v>0.46308852354094165</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.34042861714468581</c:v>
@@ -1223,7 +1232,7 @@
                   <c:v>0.52610992660238876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58837030115247679</c:v>
+                  <c:v>0.59792783488253909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3993,7 +4002,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,10 +4219,10 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>16.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -4221,7 +4230,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>14502</v>
+        <v>13653.75</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -4229,11 +4238,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.36945084568894299</v>
+        <v>0.40633288403843648</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>5.1269027507124809E-2</v>
+        <v>8.8151065856618305E-2</v>
       </c>
       <c r="M6">
         <v>1000</v>
@@ -4650,7 +4659,7 @@
         <v>19.666</v>
       </c>
       <c r="F18">
-        <v>6.125</v>
+        <v>6.25</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
@@ -4658,7 +4667,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>13547.125</v>
+        <v>13422.25</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -4666,11 +4675,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>0.45809332373294931</v>
+        <v>0.46308852354094165</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>0.16642665706628262</v>
+        <v>0.17142185687427497</v>
       </c>
       <c r="M18">
         <v>1000</v>
@@ -4882,7 +4891,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5529,10 +5538,10 @@
         <v>41</v>
       </c>
       <c r="E16">
-        <v>50.75</v>
+        <v>50.5</v>
       </c>
       <c r="F16">
-        <v>25.6666666666666</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
@@ -5540,7 +5549,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>25109.000000000065</v>
+        <v>24526</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
@@ -5548,11 +5557,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
-        <v>0.58837030115247679</v>
+        <v>0.59792783488253909</v>
       </c>
       <c r="K16">
         <f t="shared" si="9"/>
-        <v>0.27170363448581014</v>
+        <v>0.28126116821587244</v>
       </c>
       <c r="M16">
         <v>1000</v>
@@ -5749,7 +5758,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6479,4 +6488,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A67E9-302D-4499-979D-4DB1E23B1E16}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" activeCellId="2" sqref="A4 M23 G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353AF465-2C53-4228-A626-C196E4615017}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20290F46-E640-4781-8EC0-C6C65C4688E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63771AE9-3BA8-49DA-84D6-D05170F3F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3015" yWindow="4935" windowWidth="28440" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63771AE9-3BA8-49DA-84D6-D05170F3F350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249865BE-DA68-4950-82CE-0902D98A9CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="4935" windowWidth="28440" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>Bench</t>
   </si>
@@ -335,6 +335,39 @@
   </si>
   <si>
     <t>New wires</t>
+  </si>
+  <si>
+    <t>BV15(15)</t>
+  </si>
+  <si>
+    <t>IQP15(15)</t>
+  </si>
+  <si>
+    <t>qft15(15)</t>
+  </si>
+  <si>
+    <t>hlf15(20)</t>
+  </si>
+  <si>
+    <t>HC14(17)</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>BV27(15)</t>
+  </si>
+  <si>
+    <t>IQP27(15)</t>
+  </si>
+  <si>
+    <t>qft27(15)</t>
+  </si>
+  <si>
+    <t>hlf27(20)</t>
+  </si>
+  <si>
+    <t>HC26(17)</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1181,7 @@
                   <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28846153846153844</c:v>
+                  <c:v>0.34615384615384615</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.31666666666666665</c:v>
@@ -1229,7 +1262,7 @@
                   <c:v>0.59221052804144325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52610992660238876</c:v>
+                  <c:v>0.60256325591048887</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.59792783488253909</c:v>
@@ -4002,7 +4035,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4891,7 +4924,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,13 +5445,13 @@
         <v>52</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>40.799999999999997</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F13">
-        <v>15.7</v>
+        <v>13.75</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
@@ -5426,19 +5459,19 @@
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>25115.7</v>
+        <v>21063.75</v>
       </c>
       <c r="I13">
         <f t="shared" si="7"/>
-        <v>0.28846153846153844</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>0.52610992660238876</v>
+        <v>0.60256325591048887</v>
       </c>
       <c r="K13">
         <f t="shared" si="9"/>
-        <v>0.23764838814085032</v>
+        <v>0.25640940975664273</v>
       </c>
       <c r="M13">
         <v>1000</v>
@@ -5757,8 +5790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5977,25 +6010,37 @@
       <c r="A6" t="s">
         <v>47</v>
       </c>
+      <c r="B6">
+        <v>178</v>
+      </c>
+      <c r="D6">
+        <v>163</v>
+      </c>
+      <c r="E6">
+        <v>166.3</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>999</v>
+        <v>178999</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="e">
+        <v>124342</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.4269662921348312E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K6" t="e">
+        <v>0.30534807457024898</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.22107841164890069</v>
       </c>
       <c r="M6">
         <v>1000</v>
@@ -6181,10 +6226,10 @@
         <v>88</v>
       </c>
       <c r="E11">
-        <v>89.4</v>
+        <v>90.75</v>
       </c>
       <c r="F11">
-        <v>18.5</v>
+        <v>20.3333333333333</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -6192,7 +6237,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>70918.5</v>
+        <v>70437.000000000029</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -6200,11 +6245,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>0.44158221718281249</v>
+        <v>0.44537358561878415</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>0.13999491559551092</v>
+        <v>0.14378628403148258</v>
       </c>
       <c r="M11">
         <v>1000</v>
@@ -6221,10 +6266,10 @@
         <v>89</v>
       </c>
       <c r="E12">
-        <v>90.6</v>
+        <v>92</v>
       </c>
       <c r="F12">
-        <v>18.25</v>
+        <v>20.666</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -6232,7 +6277,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>72368.25</v>
+        <v>71354.665999999997</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -6240,11 +6285,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>0.43016677296671629</v>
+        <v>0.43814781218749754</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>0.13651597931592263</v>
+        <v>0.14449701853670388</v>
       </c>
       <c r="M12">
         <v>1000</v>
@@ -6492,27 +6537,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>96</v>
       </c>
       <c r="C1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6522,8 +6571,12 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>(B2-C2)/B2</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6533,8 +6586,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6544,8 +6600,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -6555,8 +6614,12 @@
       <c r="C5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" ref="D5" si="0">(B5-C5)/B5</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6564,6 +6627,154 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>321</v>
+      </c>
+      <c r="C8">
+        <v>187</v>
+      </c>
+      <c r="D8">
+        <f>(B8-C8)/B8</f>
+        <v>0.4174454828660436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <f>(B9-C9)/B9</f>
+        <v>0.37037037037037035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>1355</v>
+      </c>
+      <c r="C14">
+        <v>873</v>
+      </c>
+      <c r="D14">
+        <f>(B14-C14)/B14</f>
+        <v>0.35571955719557197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>108</v>
+      </c>
+      <c r="C15">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <f>(B15-C15)/B15</f>
+        <v>0.37037037037037035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17">
+        <v>866</v>
+      </c>
+      <c r="C17">
+        <v>586</v>
+      </c>
+      <c r="D17">
+        <f>(B17-C17)/B17</f>
+        <v>0.32332563510392609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
     </row>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249865BE-DA68-4950-82CE-0902D98A9CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F7C48D-28ED-42F9-9EC0-08035B1241B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
   <si>
     <t>Bench</t>
   </si>
@@ -214,60 +214,6 @@
     <t>hlf7(16)</t>
   </si>
   <si>
-    <t>BV5 (S)</t>
-  </si>
-  <si>
-    <t>BV5 (M)</t>
-  </si>
-  <si>
-    <t>BV5 (L)</t>
-  </si>
-  <si>
-    <t>IQP5(S)</t>
-  </si>
-  <si>
-    <t>IQP5(M)</t>
-  </si>
-  <si>
-    <t>IQP5(L)</t>
-  </si>
-  <si>
-    <t>QFT5(S)</t>
-  </si>
-  <si>
-    <t>QFT5(M)</t>
-  </si>
-  <si>
-    <t>QFT5(L)</t>
-  </si>
-  <si>
-    <t>HLF7(S)</t>
-  </si>
-  <si>
-    <t>HLF7(M)</t>
-  </si>
-  <si>
-    <t>HLF7(L)</t>
-  </si>
-  <si>
-    <t>VQE6(S)</t>
-  </si>
-  <si>
-    <t>VQE6(M)</t>
-  </si>
-  <si>
-    <t>VQE6(L)</t>
-  </si>
-  <si>
-    <t>BV15(L)</t>
-  </si>
-  <si>
-    <t>BV15(M)</t>
-  </si>
-  <si>
-    <t>BV15(S)</t>
-  </si>
-  <si>
     <t>IQP15(L)</t>
   </si>
   <si>
@@ -304,9 +250,6 @@
     <t>HC6(14)</t>
   </si>
   <si>
-    <t>qft15(45)()new</t>
-  </si>
-  <si>
     <t>vqe26(53)</t>
   </si>
   <si>
@@ -368,6 +311,105 @@
   </si>
   <si>
     <t>HC26(17)</t>
+  </si>
+  <si>
+    <t>DP-single</t>
+  </si>
+  <si>
+    <t>BV15 (S)</t>
+  </si>
+  <si>
+    <t>BV15 (M)</t>
+  </si>
+  <si>
+    <t>BV15 (L)</t>
+  </si>
+  <si>
+    <t>IQP15(S)</t>
+  </si>
+  <si>
+    <t>IQP15(M)</t>
+  </si>
+  <si>
+    <t>QFT15(S)</t>
+  </si>
+  <si>
+    <t>QFT15(M)</t>
+  </si>
+  <si>
+    <t>HLF15(S)</t>
+  </si>
+  <si>
+    <t>HLF15(M)</t>
+  </si>
+  <si>
+    <t>VQE14(S)</t>
+  </si>
+  <si>
+    <t>VQE14(M)</t>
+  </si>
+  <si>
+    <t>IQP(S)</t>
+  </si>
+  <si>
+    <t>BV(S)</t>
+  </si>
+  <si>
+    <t>BV(M)</t>
+  </si>
+  <si>
+    <t>BV(L)</t>
+  </si>
+  <si>
+    <t>IQP(M)</t>
+  </si>
+  <si>
+    <t>IQP(L)</t>
+  </si>
+  <si>
+    <t>QFT(S)</t>
+  </si>
+  <si>
+    <t>QFT(M)</t>
+  </si>
+  <si>
+    <t>QFT(L)</t>
+  </si>
+  <si>
+    <t>HLF(S)</t>
+  </si>
+  <si>
+    <t>HLF(M)</t>
+  </si>
+  <si>
+    <t>HLF(L)</t>
+  </si>
+  <si>
+    <t>VQE(S)</t>
+  </si>
+  <si>
+    <t>VQE(M)</t>
+  </si>
+  <si>
+    <t>VQE(L)</t>
+  </si>
+  <si>
+    <t>Average(S)</t>
+  </si>
+  <si>
+    <t>Average(M)</t>
+  </si>
+  <si>
+    <t>Average(L)</t>
+  </si>
+  <si>
+    <t>Ave(S)</t>
+  </si>
+  <si>
+    <t>Ave(M)</t>
+  </si>
+  <si>
+    <t>Ave(L)</t>
   </si>
 </sst>
 </file>
@@ -531,107 +573,92 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$22:$D$36</c:f>
+              <c:f>Sheet1!$D$27:$D$41</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>BV5 (L)</c:v>
+                  <c:v>BV(S)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BV5 (M)</c:v>
+                  <c:v>BV(M)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BV5 (S)</c:v>
+                  <c:v>BV(L)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>IQP5(L)</c:v>
+                  <c:v>IQP(S)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>IQP5(M)</c:v>
+                  <c:v>IQP(M)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>IQP5(S)</c:v>
+                  <c:v>IQP(L)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>QFT5(L)</c:v>
+                  <c:v>HLF(S)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>QFT5(M)</c:v>
+                  <c:v>HLF(M)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>QFT5(S)</c:v>
+                  <c:v>HLF(L)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>HLF7(L)</c:v>
+                  <c:v>QFT(S)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>HLF7(M)</c:v>
+                  <c:v>QFT(M)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HLF7(S)</c:v>
+                  <c:v>QFT(L)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>VQE6(L)</c:v>
+                  <c:v>VQE(S)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>VQE6(M)</c:v>
+                  <c:v>VQE(M)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>VQE6(S)</c:v>
+                  <c:v>VQE(L)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$I$2:$I$4,Sheet1!$I$6:$I$8,Sheet1!$I$10:$I$12,Sheet1!$I$14:$I$16,Sheet1!$I$18:$I$20)</c:f>
+              <c:f>(Sheet1!$J$3:$J$4,Sheet1!$J$7:$J$8,Sheet1!$J$15:$J$16,Sheet1!$J$11:$J$12,Sheet1!$J$19:$J$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.48277526811269356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.55174316355736408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32142857142857145</c:v>
+                  <c:v>0.21740075655463281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31818181818181818</c:v>
+                  <c:v>0.30436105917648593</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22727272727272727</c:v>
+                  <c:v>0.23810657650364303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.28572789180437164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.21740075655463281</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.30436105917648593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1</c:v>
+                  <c:v>0.20000800032001281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31818181818181818</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22727272727272727</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.0909090909090912E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.29166666666666669</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.20833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.28001120044801792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,107 +687,92 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$22:$D$36</c:f>
+              <c:f>Sheet1!$D$27:$D$41</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>BV5 (L)</c:v>
+                  <c:v>BV(S)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BV5 (M)</c:v>
+                  <c:v>BV(M)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>BV5 (S)</c:v>
+                  <c:v>BV(L)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>IQP5(L)</c:v>
+                  <c:v>IQP(S)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>IQP5(M)</c:v>
+                  <c:v>IQP(M)</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>IQP5(S)</c:v>
+                  <c:v>IQP(L)</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>QFT5(L)</c:v>
+                  <c:v>HLF(S)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>QFT5(M)</c:v>
+                  <c:v>HLF(M)</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>QFT5(S)</c:v>
+                  <c:v>HLF(L)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>HLF7(L)</c:v>
+                  <c:v>QFT(S)</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>HLF7(M)</c:v>
+                  <c:v>QFT(M)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HLF7(S)</c:v>
+                  <c:v>QFT(L)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>VQE6(L)</c:v>
+                  <c:v>VQE(S)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>VQE6(M)</c:v>
+                  <c:v>VQE(M)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>VQE6(S)</c:v>
+                  <c:v>VQE(L)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$J$2:$J$4,Sheet1!$J$6:$J$8,Sheet1!$J$10:$J$12,Sheet1!$J$14:$J$16,Sheet1!$J$18:$J$20)</c:f>
+              <c:f>(Sheet1!$K$3:$K$4,Sheet1!$K$7:$K$8,Sheet1!$K$15:$K$16,Sheet1!$K$11:$K$12,Sheet1!$K$19:$K$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.50343115279837236</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.63788406496775751</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50343115279837236</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3103555295010173</c:v>
+                  <c:v>0.33443845384581938</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.40633288403843648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33443845384581938</c:v>
+                  <c:v>0.43765179294252105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20701443541023523</c:v>
+                  <c:v>0.57746559359969529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57746559359969529</c:v>
+                  <c:v>0.29944780207835126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43765179294252105</c:v>
+                  <c:v>0.35645028044697596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38351826277441781</c:v>
+                  <c:v>0.34042861714468581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35645028044697596</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.29944780207835126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.17383364494108439</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.46308852354094165</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.34042861714468581</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.24103964158566343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,511 +1085,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Depth Reduction for medium benchmarks</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Single-circuit</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$24:$C$30</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>BV15(L)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BV15(M)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BV15(S)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>IQP15(L)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>QFT15(L)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HLF15(L)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>VQE14(L)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet2!$I$2:$I$5,Sheet2!$I$9,Sheet2!$I$13,Sheet2!$I$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.43243243243243246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36486486486486486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14864864864864866</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.34615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.31666666666666665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CB2-46E8-8ADD-4CAADD73CFF3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>1000-circuit</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$C$24:$C$30</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>BV15(L)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>BV15(M)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BV15(S)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>IQP15(L)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>QFT15(L)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HLF15(L)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>VQE14(L)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet2!$J$2:$J$5,Sheet2!$J$9,Sheet2!$J$13,Sheet2!$J$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.52251363351511348</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46652622034960467</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2642790837211163</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49907714910060619</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59221052804144325</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60256325591048887</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59792783488253909</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4CB2-46E8-8ADD-4CAADD73CFF3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="356666383"/>
-        <c:axId val="1862349871"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="356666383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1862349871"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1862349871"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Depth reduction w.r.t.</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t>baseline</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="356666383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Depth Reduction</a:t>
             </a:r>
             <a:r>
@@ -1642,7 +1149,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$21:$A$23</c:f>
+              <c:f>Sheet3!$A$28:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1659,18 +1166,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet3!$I$5,Sheet3!$I$8,Sheet3!$I$14)</c:f>
+              <c:f>(Sheet3!$J$8,Sheet3!$J$16,Sheet3!$J$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.4269662921348312E-2</c:v>
+                  <c:v>0.1675987016687244</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25925925925925924</c:v>
+                  <c:v>0.25688309067055659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28703703703703703</c:v>
+                  <c:v>0.28440627895668769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,7 +1206,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$21:$A$23</c:f>
+              <c:f>Sheet3!$A$28:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1716,18 +1223,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet3!$J$5,Sheet3!$J$8,Sheet3!$J$14)</c:f>
+              <c:f>(Sheet3!$K$8,Sheet3!$K$16,Sheet3!$K$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.37309426309644189</c:v>
+                  <c:v>0.41500045810311792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58716823090120096</c:v>
+                  <c:v>0.59448022458921645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57755575739226961</c:v>
+                  <c:v>0.61118294663253792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,46 +1602,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3141,523 +2608,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3689,59 +2653,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6F1CB1-B158-4A8E-AA23-CC7B1E4C177A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4032,21 +2953,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4057,10 +2979,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -4069,24 +2991,27 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -4095,39 +3020,43 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2">
-        <f>B2*M2 + (M2-1)</f>
+        <f>B2*N2 + (N2-1)</f>
         <v>28999</v>
       </c>
       <c r="H2">
-        <f>E2*M2-F2*(M2-1)</f>
-        <v>10501</v>
+        <f>D2*N2+N2-1</f>
+        <v>19999</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I20" si="0">(B2-D2)/B2</f>
-        <v>0.5714285714285714</v>
+        <f>E2*N2-F2*(N2-1)</f>
+        <v>19999</v>
       </c>
       <c r="J2">
         <f>(G2-H2)/G2</f>
-        <v>0.63788406496775751</v>
+        <v>0.3103555295010173</v>
       </c>
       <c r="K2">
-        <f>J2-I2</f>
-        <v>6.6455493539186117E-2</v>
-      </c>
-      <c r="M2">
+        <f>(G2-I2)/G2</f>
+        <v>0.3103555295010173</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -4147,32 +3076,36 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G20" si="1">B3*M3 + (M3-1)</f>
+        <f>B3*N3 + (N3-1)</f>
         <v>28999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H20" si="2">E3*M3-F3*(M3-1)</f>
+        <f t="shared" ref="H3:H20" si="0">D3*N3+N3-1</f>
+        <v>14999</v>
+      </c>
+      <c r="I3">
+        <f>E3*N3-F3*(N3-1)</f>
         <v>14400</v>
       </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
       <c r="J3">
-        <f t="shared" ref="J3:J20" si="3">(G3-H3)/G3</f>
+        <f t="shared" ref="J3:J4" si="1">(G3-H3)/G3</f>
+        <v>0.48277526811269356</v>
+      </c>
+      <c r="K3">
+        <f>(G3-I3)/G3</f>
         <v>0.50343115279837236</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K20" si="4">J3-I3</f>
-        <v>3.4311527983723611E-3</v>
-      </c>
-      <c r="M3">
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>2.0655884685678805E-2</v>
+      </c>
+      <c r="N3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>28</v>
@@ -4181,66 +3114,45 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <f>B4*M4 + (M4-1)</f>
+        <f>B4*N4 + (N4-1)</f>
         <v>28999</v>
       </c>
       <c r="H4">
-        <f>E4*M4-F4*(M4-1)</f>
-        <v>19999</v>
+        <f t="shared" si="0"/>
+        <v>12999</v>
       </c>
       <c r="I4">
-        <f>(B4-D4)/B4</f>
-        <v>0.32142857142857145</v>
+        <f>E4*N4-F4*(N4-1)</f>
+        <v>10501</v>
       </c>
       <c r="J4">
-        <f>(G4-H4)/G4</f>
-        <v>0.3103555295010173</v>
+        <f t="shared" si="1"/>
+        <v>0.55174316355736408</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
-        <v>-1.107304192755415E-2</v>
-      </c>
-      <c r="M4">
+        <f>(G4-I4)/G4</f>
+        <v>0.63788406496775751</v>
+      </c>
+      <c r="L4">
+        <f>K4-J4</f>
+        <v>8.6140901410393433E-2</v>
+      </c>
+      <c r="N4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>22</v>
@@ -4249,39 +3161,43 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>17.399999999999999</v>
+        <v>20.111000000000001</v>
       </c>
       <c r="F6">
-        <v>3.75</v>
+        <v>1.875</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>B6*N6 + (N6-1)</f>
         <v>22999</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>13653.75</v>
+        <f t="shared" si="0"/>
+        <v>20999</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.31818181818181818</v>
+        <f>E6*N6-F6*(N6-1)</f>
+        <v>18237.875</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
-        <v>0.40633288403843648</v>
+        <f>(G6-H6)/G6</f>
+        <v>8.6960302621853128E-2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
-        <v>8.8151065856618305E-2</v>
-      </c>
-      <c r="M6">
+        <f>(G6-I6)/G6</f>
+        <v>0.20701443541023523</v>
+      </c>
+      <c r="L6">
+        <f>K6-J6</f>
+        <v>0.1200541327883821</v>
+      </c>
+      <c r="N6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -4301,32 +3217,36 @@
         <v>2.25</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>B7*N7 + (N7-1)</f>
         <v>22999</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>17999</v>
+      </c>
+      <c r="I7">
+        <f>E7*N7-F7*(N7-1)</f>
         <v>15307.25</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0.22727272727272727</v>
-      </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J7:J8" si="2">(G7-H7)/G7</f>
+        <v>0.21740075655463281</v>
+      </c>
+      <c r="K7">
+        <f>(G7-I7)/G7</f>
         <v>0.33443845384581938</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
-        <v>0.10716572657309212</v>
-      </c>
-      <c r="M7">
+      <c r="L7">
+        <f t="shared" ref="L3:L20" si="3">K7-J7</f>
+        <v>0.11703769729118657</v>
+      </c>
+      <c r="N7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>22</v>
@@ -4335,349 +3255,327 @@
         <v>-1</v>
       </c>
       <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F8">
+        <v>3.75</v>
+      </c>
+      <c r="G8">
+        <f>B8*N8 + (N8-1)</f>
+        <v>22999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>15999</v>
+      </c>
+      <c r="I8">
+        <f>E8*N8-F8*(N8-1)</f>
+        <v>13653.75</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.30436105917648593</v>
+      </c>
+      <c r="K8">
+        <f>(G8-I8)/G8</f>
+        <v>0.40633288403843648</v>
+      </c>
+      <c r="L8">
+        <f>K8-J8</f>
+        <v>0.10197182486195056</v>
+      </c>
+      <c r="N8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>20.111000000000001</v>
-      </c>
-      <c r="F8">
-        <v>1.875</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>B10*N10 + (N10-1)</f>
         <v>22999</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>18237.875</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0.20701443541023523</v>
-      </c>
-      <c r="K8">
+      <c r="H10">
+        <f>D10*N10+N10-1</f>
+        <v>20999</v>
+      </c>
+      <c r="I10">
+        <f>E10*N10-F10*(N10-1)</f>
+        <v>19001</v>
+      </c>
+      <c r="J10">
+        <f>(G10-H10)/G10</f>
+        <v>8.6960302621853128E-2</v>
+      </c>
+      <c r="K10">
+        <f>(G10-I10)/G10</f>
+        <v>0.17383364494108439</v>
+      </c>
+      <c r="L10">
+        <f>K10-J10</f>
+        <v>8.6873342319231259E-2</v>
+      </c>
+      <c r="N10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>17.111000000000001</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>B11*N11 + (N11-1)</f>
+        <v>22999</v>
+      </c>
+      <c r="H11">
+        <f>D11*N11+N11-1</f>
+        <v>17999</v>
+      </c>
+      <c r="I11">
+        <f>E11*N11-F11*(N11-1)</f>
+        <v>16112</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J12" si="4">(G11-H11)/G11</f>
+        <v>0.21740075655463281</v>
+      </c>
+      <c r="K11">
+        <f>(G11-I11)/G11</f>
+        <v>0.29944780207835126</v>
+      </c>
+      <c r="L11">
+        <f>K11-J11</f>
+        <v>8.2047045523718443E-2</v>
+      </c>
+      <c r="N11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>15.8</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>B12*N12 + (N12-1)</f>
+        <v>22999</v>
+      </c>
+      <c r="H12">
+        <f>D12*N12+N12-1</f>
+        <v>15999</v>
+      </c>
+      <c r="I12">
+        <f>E12*N12-F12*(N12-1)</f>
+        <v>14801</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="4"/>
-        <v>0.11610534450114432</v>
-      </c>
-      <c r="M8">
+        <v>0.30436105917648593</v>
+      </c>
+      <c r="K12">
+        <f>(G12-I12)/G12</f>
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="L12">
+        <f>K12-J12</f>
+        <v>5.2089221270490038E-2</v>
+      </c>
+      <c r="N12">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="F14">
+        <v>5.5</v>
+      </c>
+      <c r="G14">
+        <f>B14*N14 + (N14-1)</f>
+        <v>20999</v>
+      </c>
+      <c r="H14">
+        <f>D14*N14+N14-1</f>
+        <v>18999</v>
+      </c>
+      <c r="I14">
+        <f>E14*N14-F14*(N14-1)</f>
+        <v>12945.5</v>
+      </c>
+      <c r="J14">
+        <f>(G14-H14)/G14</f>
+        <v>9.5242630601457212E-2</v>
+      </c>
+      <c r="K14">
+        <f>(G14-I14)/G14</f>
+        <v>0.38351826277441781</v>
+      </c>
+      <c r="L14">
+        <f>K14-J14</f>
+        <v>0.28827563217296059</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>15.555</v>
+      </c>
+      <c r="F15">
+        <v>3.75</v>
+      </c>
+      <c r="G15">
+        <f>B15*N15 + (N15-1)</f>
+        <v>20999</v>
+      </c>
+      <c r="H15">
+        <f>D15*N15+N15-1</f>
+        <v>15999</v>
+      </c>
+      <c r="I15">
+        <f>E15*N15-F15*(N15-1)</f>
+        <v>11808.75</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J16" si="5">(G15-H15)/G15</f>
+        <v>0.23810657650364303</v>
+      </c>
+      <c r="K15">
+        <f>(G15-I15)/G15</f>
+        <v>0.43765179294252105</v>
+      </c>
+      <c r="L15">
+        <f>K15-J15</f>
+        <v>0.19954521643887801</v>
+      </c>
+      <c r="N15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B16">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C16">
         <v>-1</v>
       </c>
-      <c r="D10">
+      <c r="D16">
         <v>14</v>
       </c>
-      <c r="E10">
+      <c r="E16">
         <v>15.666</v>
       </c>
-      <c r="F10">
+      <c r="F16">
         <v>6.8</v>
       </c>
-      <c r="G10">
-        <f t="shared" ref="G10" si="5">B10*M10 + (M10-1)</f>
+      <c r="G16">
+        <f>B16*N16 + (N16-1)</f>
         <v>20999</v>
       </c>
-      <c r="H10">
-        <f t="shared" ref="H10" si="6">E10*M10-F10*(M10-1)</f>
+      <c r="H16">
+        <f>D16*N16+N16-1</f>
+        <v>14999</v>
+      </c>
+      <c r="I16">
+        <f>E16*N16-F16*(N16-1)</f>
         <v>8872.7999999999993</v>
       </c>
-      <c r="I10">
-        <f t="shared" ref="I10" si="7">(B10-D10)/B10</f>
-        <v>0.3</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ref="J10" si="8">(G10-H10)/G10</f>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>0.28572789180437164</v>
+      </c>
+      <c r="K16">
+        <f>(G16-I16)/G16</f>
         <v>0.57746559359969529</v>
       </c>
-      <c r="K10">
-        <f t="shared" ref="K10" si="9">J10-I10</f>
-        <v>0.2774655935996953</v>
-      </c>
-      <c r="M10">
+      <c r="L16">
+        <f t="shared" ref="L16" si="6">K16-J16</f>
+        <v>0.29173770179532366</v>
+      </c>
+      <c r="N16">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>15.555</v>
-      </c>
-      <c r="F11">
-        <v>3.75</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>20999</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>11808.75</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0.43765179294252105</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>0.18765179294252105</v>
-      </c>
-      <c r="M11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>18.440000000000001</v>
-      </c>
-      <c r="F12">
-        <v>5.5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>20999</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>12945.5</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0.38351826277441781</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>0.28351826277441783</v>
-      </c>
-      <c r="M12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>15.8</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>22999</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>14801</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0.31818181818181818</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0.35645028044697596</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>3.8268462265157788E-2</v>
-      </c>
-      <c r="M14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>17.111000000000001</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>22999</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>16112</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0.29944780207835126</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>7.217507480562399E-2</v>
-      </c>
-      <c r="M15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>22999</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>19001</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>0.17383364494108439</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>8.2924554031993475E-2</v>
-      </c>
-      <c r="M16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -4686,41 +3584,45 @@
         <v>-1</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>19.666</v>
+        <v>22.22</v>
       </c>
       <c r="F18">
-        <v>6.25</v>
+        <v>3.25</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>B18*N18 + (N18-1)</f>
         <v>24999</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
-        <v>13422.25</v>
+        <f t="shared" si="0"/>
+        <v>22999</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
+        <f>E18*N18-F18*(N18-1)</f>
+        <v>18973.25</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
-        <v>0.46308852354094165</v>
+        <f>(G18-H18)/G18</f>
+        <v>8.0003200128005117E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
-        <v>0.17142185687427497</v>
-      </c>
-      <c r="M18">
+        <f>(G18-I18)/G18</f>
+        <v>0.24103964158566343</v>
+      </c>
+      <c r="L18">
+        <f>K18-J18</f>
+        <v>0.16103644145765833</v>
+      </c>
+      <c r="N18">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B19">
         <v>24</v>
@@ -4738,32 +3640,36 @@
         <v>2.625</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f>B19*N19 + (N19-1)</f>
         <v>24999</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>19999</v>
+      </c>
+      <c r="I19">
+        <f>E19*N19-F19*(N19-1)</f>
         <v>16488.625</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
-      </c>
       <c r="J19">
+        <f t="shared" ref="J19:J20" si="7">(G19-H19)/G19</f>
+        <v>0.20000800032001281</v>
+      </c>
+      <c r="K19">
+        <f>(G19-I19)/G19</f>
+        <v>0.34042861714468581</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="3"/>
-        <v>0.34042861714468581</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>0.13209528381135247</v>
-      </c>
-      <c r="M19">
+        <v>0.14042061682467299</v>
+      </c>
+      <c r="N19">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -4772,144 +3678,202 @@
         <v>-1</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>22.22</v>
+        <v>19.666</v>
       </c>
       <c r="F20">
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>B20*N20 + (N20-1)</f>
         <v>24999</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
-        <v>18973.25</v>
+        <f t="shared" si="0"/>
+        <v>17999</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <f>E20*N20-F20*(N20-1)</f>
+        <v>13422.25</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
-        <v>0.24103964158566343</v>
+        <f t="shared" si="7"/>
+        <v>0.28001120044801792</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
-        <v>0.15770630825233012</v>
-      </c>
-      <c r="M20">
+        <f>(G20-I20)/G20</f>
+        <v>0.46308852354094165</v>
+      </c>
+      <c r="L20">
+        <f>K20-J20</f>
+        <v>0.18307732309292374</v>
+      </c>
+      <c r="N20">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:K23" si="8">(J2+J6+J10+J14+J18)/5</f>
+        <v>0.13190439309483717</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>0.26315230284248364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>0.27113827160912296</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23" si="9">(K3+K7+K11+K15+K19)/5</f>
+        <v>0.38307956376194996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24">
+        <f>(J4+J8+J12+J16+J20)/5</f>
+        <v>0.34524087483254512</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24" si="10">(K4+K8+K12+K16+K20)/5</f>
+        <v>0.48824426931876141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
       <c r="D31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>69</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4921,15 +3885,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J22" sqref="J22:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4940,10 +3904,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -4952,24 +3916,27 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>74</v>
@@ -4978,39 +3945,43 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E2">
-        <v>46.8</v>
+        <v>66.5</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>11.333</v>
       </c>
       <c r="G2">
-        <f>B2*M2 + (M2-1)</f>
+        <f>B2*N2 + (N2-1)</f>
         <v>74999</v>
       </c>
       <c r="H2">
-        <f>E2*M2-F2*(M2-1)</f>
-        <v>35811</v>
+        <f>D2*N2+N2-1</f>
+        <v>63999</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I7" si="0">(B2-D2)/B2</f>
-        <v>0.43243243243243246</v>
+        <f>E2*N2-F2*(N2-1)</f>
+        <v>55178.332999999999</v>
       </c>
       <c r="J2">
         <f>(G2-H2)/G2</f>
-        <v>0.52251363351511348</v>
+        <v>0.14666862224829663</v>
       </c>
       <c r="K2">
-        <f>J2-I2</f>
-        <v>9.0081201082681028E-2</v>
-      </c>
-      <c r="M2">
+        <f>(G2-I2)/G2</f>
+        <v>0.2642790837211163</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2</f>
+        <v>0.11761046147281967</v>
+      </c>
+      <c r="N2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5030,32 +4001,36 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="1">B3*M3 + (M3-1)</f>
+        <f>B3*N3 + (N3-1)</f>
         <v>74999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="2">E3*M3-F3*(M3-1)</f>
+        <f t="shared" ref="H3:H20" si="0">D3*N3+N3-1</f>
+        <v>47999</v>
+      </c>
+      <c r="I3">
+        <f>E3*N3-F3*(N3-1)</f>
         <v>40010</v>
       </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>0.36486486486486486</v>
-      </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="3">(G3-H3)/G3</f>
+        <f t="shared" ref="J3:J4" si="1">(G3-H3)/G3</f>
+        <v>0.36000480006400087</v>
+      </c>
+      <c r="K3">
+        <f>(G3-I3)/G3</f>
         <v>0.46652622034960467</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K7" si="4">J3-I3</f>
-        <v>0.10166135548473981</v>
-      </c>
-      <c r="M3">
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>0.1065214202856038</v>
+      </c>
+      <c r="N3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>74</v>
@@ -5064,585 +4039,456 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>66.5</v>
+        <v>46.8</v>
       </c>
       <c r="F4">
-        <v>11.333</v>
+        <v>11</v>
       </c>
       <c r="G4">
+        <f>B4*N4 + (N4-1)</f>
+        <v>74999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>42999</v>
+      </c>
+      <c r="I4">
+        <f>E4*N4-F4*(N4-1)</f>
+        <v>35811</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>74999</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>55178.332999999999</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.14864864864864866</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>0.2642790837211163</v>
+        <v>0.42667235563140843</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
-        <v>0.11563043507246765</v>
-      </c>
-      <c r="M4">
+        <f>(G4-I4)/G4</f>
+        <v>0.52251363351511348</v>
+      </c>
+      <c r="L4">
+        <f>K4-J4</f>
+        <v>9.5841277883705056E-2</v>
+      </c>
+      <c r="N4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>61</v>
-      </c>
-      <c r="E5">
-        <v>64.8</v>
-      </c>
-      <c r="F5">
-        <v>24.25</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>80999</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>40574.25</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0.49907714910060619</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
-        <v>0.2615771491006062</v>
-      </c>
-      <c r="M5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>80</v>
       </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
       <c r="D6">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E6">
-        <v>65</v>
+        <v>76.25</v>
       </c>
       <c r="F6">
-        <v>14.333</v>
+        <v>15.666</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f>B6*N6 + (N6-1)</f>
         <v>80999</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>50681.332999999999</v>
+        <f t="shared" si="0"/>
+        <v>75999</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.23749999999999999</v>
+        <f>E6*N6-F6*(N6-1)</f>
+        <v>60599.665999999997</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
-        <v>0.37429680613340904</v>
+        <f>(G6-H6)/G6</f>
+        <v>6.1729157150088275E-2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
-        <v>0.13679680613340905</v>
-      </c>
-      <c r="M6">
+        <f>(G6-I6)/G6</f>
+        <v>0.25184673884862779</v>
+      </c>
+      <c r="L6">
+        <f>K6-J6</f>
+        <v>0.19011758169853951</v>
+      </c>
+      <c r="N6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>80</v>
       </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
       <c r="D7">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E7">
-        <v>76.25</v>
+        <v>65</v>
       </c>
       <c r="F7">
-        <v>15.666</v>
+        <v>14.333</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f>B7*N7 + (N7-1)</f>
         <v>80999</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>60599.665999999997</v>
+        <f t="shared" si="0"/>
+        <v>61999</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <f>E7*N7-F7*(N7-1)</f>
+        <v>50681.332999999999</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0.25184673884862779</v>
+        <f t="shared" ref="J7:J8" si="2">(G7-H7)/G7</f>
+        <v>0.23457079717033544</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
-        <v>0.18934673884862779</v>
-      </c>
-      <c r="M7">
+        <f>(G7-I7)/G7</f>
+        <v>0.37429680613340904</v>
+      </c>
+      <c r="L7">
+        <f>K7-J7</f>
+        <v>0.13972600896307361</v>
+      </c>
+      <c r="N7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E8">
-        <v>51.6</v>
+        <v>64.8</v>
       </c>
       <c r="F8">
-        <v>26.5</v>
+        <v>24.25</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G18" si="5">B8*M8 + (M8-1)</f>
+        <f>B8*N8 + (N8-1)</f>
+        <v>80999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>61999</v>
+      </c>
+      <c r="I8">
+        <f>E8*N8-F8*(N8-1)</f>
+        <v>40574.25</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.23457079717033544</v>
+      </c>
+      <c r="K8">
+        <f>(G8-I8)/G8</f>
+        <v>0.49907714910060619</v>
+      </c>
+      <c r="L8">
+        <f>K8-J8</f>
+        <v>0.26450635193027072</v>
+      </c>
+      <c r="N8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>49.8</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <f>B10*N10 + (N10-1)</f>
+        <v>52999</v>
+      </c>
+      <c r="H10">
+        <f>D10*N10+N10-1</f>
+        <v>49999</v>
+      </c>
+      <c r="I10">
+        <f>E10*N10-F10*(N10-1)</f>
+        <v>30819</v>
+      </c>
+      <c r="J10">
+        <f>(G10-H10)/G10</f>
+        <v>5.6604841600784918E-2</v>
+      </c>
+      <c r="K10">
+        <f>(G10-I10)/G10</f>
+        <v>0.41849846223513654</v>
+      </c>
+      <c r="L10">
+        <f>K10-J10</f>
+        <v>0.3618936206343516</v>
+      </c>
+      <c r="N10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>43.8</v>
+      </c>
+      <c r="F11">
+        <v>17.5</v>
+      </c>
+      <c r="G11">
+        <f>B11*N11 + (N11-1)</f>
+        <v>52999</v>
+      </c>
+      <c r="H11">
+        <f>D11*N11+N11-1</f>
+        <v>41999</v>
+      </c>
+      <c r="I11">
+        <f>E11*N11-F11*(N11-1)</f>
+        <v>26317.5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:J12" si="3">(G11-H11)/G11</f>
+        <v>0.20755108586954471</v>
+      </c>
+      <c r="K11">
+        <f>(G11-I11)/G11</f>
+        <v>0.50343402705711426</v>
+      </c>
+      <c r="L11">
+        <f>K11-J11</f>
+        <v>0.29588294118756953</v>
+      </c>
+      <c r="N11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F12">
+        <v>13.75</v>
+      </c>
+      <c r="G12">
+        <f>B12*N12 + (N12-1)</f>
+        <v>52999</v>
+      </c>
+      <c r="H12">
+        <f>D12*N12+N12-1</f>
+        <v>34999</v>
+      </c>
+      <c r="I12">
+        <f>E12*N12-F12*(N12-1)</f>
+        <v>21063.75</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.33962904960470952</v>
+      </c>
+      <c r="K12">
+        <f>(G12-I12)/G12</f>
+        <v>0.60256325591048887</v>
+      </c>
+      <c r="L12">
+        <f>K12-J12</f>
+        <v>0.26293420630577935</v>
+      </c>
+      <c r="N12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>58.4</v>
+      </c>
+      <c r="F14">
+        <v>25.5</v>
+      </c>
+      <c r="G14">
+        <f>B14*N14 + (N14-1)</f>
         <v>60999</v>
       </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H18" si="6">E8*M8-F8*(M8-1)</f>
-        <v>25126.5</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I18" si="7">(B8-D8)/B8</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J20" si="8">(G8-H8)/G8</f>
-        <v>0.5880834112034623</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ref="K8:K20" si="9">J8-I8</f>
-        <v>0.32141674453679564</v>
-      </c>
-      <c r="M8">
+      <c r="H14">
+        <f>D14*N14+N14-1</f>
+        <v>58999</v>
+      </c>
+      <c r="I14">
+        <f>E14*N14-F14*(N14-1)</f>
+        <v>32925.5</v>
+      </c>
+      <c r="J14">
+        <f>(G14-H14)/G14</f>
+        <v>3.2787422744635156E-2</v>
+      </c>
+      <c r="K14">
+        <f>(G14-I14)/G14</f>
+        <v>0.46022885621075754</v>
+      </c>
+      <c r="L14">
+        <f>K14-J14</f>
+        <v>0.4274414334661224</v>
+      </c>
+      <c r="N14">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>46.4</v>
+      </c>
+      <c r="F15">
+        <v>13.5</v>
+      </c>
+      <c r="G15">
+        <f>B15*N15 + (N15-1)</f>
+        <v>60999</v>
+      </c>
+      <c r="H15">
+        <f>D15*N15+N15-1</f>
+        <v>46999</v>
+      </c>
+      <c r="I15">
+        <f>E15*N15-F15*(N15-1)</f>
+        <v>32913.5</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J16" si="4">(G15-H15)/G15</f>
+        <v>0.2295119592124461</v>
+      </c>
+      <c r="K15">
+        <f>(G15-I15)/G15</f>
+        <v>0.46042558074722534</v>
+      </c>
+      <c r="L15">
+        <f>K15-J15</f>
+        <v>0.23091362153477923</v>
+      </c>
+      <c r="N15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>49.6</v>
-      </c>
-      <c r="F9">
-        <v>24.75</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>60999</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="6"/>
-        <v>24874.75</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="7"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="8"/>
-        <v>0.59221052804144325</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="9"/>
-        <v>0.32554386137477659</v>
-      </c>
-      <c r="M9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>60</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>46</v>
-      </c>
-      <c r="E10">
-        <v>54</v>
-      </c>
-      <c r="F10">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>60999</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="6"/>
-        <v>29025</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="7"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="8"/>
-        <v>0.5241725274184823</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="9"/>
-        <v>0.29083919408514897</v>
-      </c>
-      <c r="M10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>46</v>
-      </c>
-      <c r="E11">
-        <v>46.4</v>
-      </c>
-      <c r="F11">
-        <v>13.5</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>60999</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
-        <v>32913.5</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="7"/>
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="8"/>
-        <v>0.46042558074722534</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="9"/>
-        <v>0.227092247413892</v>
-      </c>
-      <c r="M11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
-        <v>58</v>
-      </c>
-      <c r="E12">
-        <v>58.4</v>
-      </c>
-      <c r="F12">
-        <v>25.5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>60999</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
-        <v>32925.5</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="8"/>
-        <v>0.46022885621075754</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="9"/>
-        <v>0.42689552287742422</v>
-      </c>
-      <c r="M12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F13">
-        <v>13.75</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>52999</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
-        <v>21063.75</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="7"/>
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="8"/>
-        <v>0.60256325591048887</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="9"/>
-        <v>0.25640940975664273</v>
-      </c>
-      <c r="M13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>41</v>
-      </c>
-      <c r="E14">
-        <v>43.8</v>
-      </c>
-      <c r="F14">
-        <v>17.5</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
-        <v>52999</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
-        <v>26317.5</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="7"/>
-        <v>0.21153846153846154</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="8"/>
-        <v>0.50343402705711426</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="9"/>
-        <v>0.2918955655186527</v>
-      </c>
-      <c r="M14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>49</v>
-      </c>
-      <c r="E15">
-        <v>49.8</v>
-      </c>
-      <c r="F15">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="5"/>
-        <v>52999</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="6"/>
-        <v>30819</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="7"/>
-        <v>5.7692307692307696E-2</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="8"/>
-        <v>0.41849846223513654</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="9"/>
-        <v>0.36080615454282883</v>
-      </c>
-      <c r="M15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>93</v>
       </c>
       <c r="B16">
         <v>60</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16">
-        <v>50.5</v>
+        <v>49.6</v>
       </c>
       <c r="F16">
-        <v>26</v>
+        <v>24.75</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f>B16*N16 + (N16-1)</f>
         <v>60999</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
-        <v>24526</v>
+        <f>D16*N16+N16-1</f>
+        <v>44999</v>
       </c>
       <c r="I16">
-        <f t="shared" si="7"/>
-        <v>0.31666666666666665</v>
+        <f>E16*N16-F16*(N16-1)</f>
+        <v>24874.75</v>
       </c>
       <c r="J16">
-        <f t="shared" si="8"/>
-        <v>0.59792783488253909</v>
+        <f t="shared" si="4"/>
+        <v>0.26229938195708125</v>
       </c>
       <c r="K16">
-        <f t="shared" si="9"/>
-        <v>0.28126116821587244</v>
-      </c>
-      <c r="M16">
+        <f>(G16-I16)/G16</f>
+        <v>0.59221052804144325</v>
+      </c>
+      <c r="L16">
+        <f>K16-J16</f>
+        <v>0.32991114608436201</v>
+      </c>
+      <c r="N16">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17">
-        <v>60</v>
-      </c>
-      <c r="D17">
-        <v>43</v>
-      </c>
-      <c r="E17">
-        <v>45.6</v>
-      </c>
-      <c r="F17">
-        <v>11.25</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="5"/>
-        <v>60999</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
-        <v>34361.25</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="7"/>
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="8"/>
-        <v>0.43669158510795258</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="9"/>
-        <v>0.15335825177461926</v>
-      </c>
-      <c r="M17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>60</v>
@@ -5657,146 +4503,260 @@
         <v>15.75</v>
       </c>
       <c r="G18">
+        <f>B18*N18 + (N18-1)</f>
+        <v>60999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>51999</v>
+      </c>
+      <c r="I18">
+        <f>E18*N18-F18*(N18-1)</f>
+        <v>37465.75</v>
+      </c>
+      <c r="J18">
+        <f>(G18-H18)/G18</f>
+        <v>0.14754340235085822</v>
+      </c>
+      <c r="K18">
+        <f>(G18-I18)/G18</f>
+        <v>0.38579730815259267</v>
+      </c>
+      <c r="L18">
+        <f>K18-J18</f>
+        <v>0.23825390580173444</v>
+      </c>
+      <c r="N18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>45.6</v>
+      </c>
+      <c r="F19">
+        <v>11.25</v>
+      </c>
+      <c r="G19">
+        <f>B19*N19 + (N19-1)</f>
+        <v>60999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>43999</v>
+      </c>
+      <c r="I19">
+        <f>E19*N19-F19*(N19-1)</f>
+        <v>34361.25</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="5">(G19-H19)/G19</f>
+        <v>0.27869309332939884</v>
+      </c>
+      <c r="K19">
+        <f>(G19-I19)/G19</f>
+        <v>0.43669158510795258</v>
+      </c>
+      <c r="L19">
+        <f>K19-J19</f>
+        <v>0.15799849177855374</v>
+      </c>
+      <c r="N19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>50.5</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <f>B20*N20 + (N20-1)</f>
+        <v>60999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>41999</v>
+      </c>
+      <c r="I20">
+        <f>E20*N20-F20*(N20-1)</f>
+        <v>24526</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="5"/>
-        <v>60999</v>
-      </c>
-      <c r="H18">
+        <v>0.31148051607403399</v>
+      </c>
+      <c r="K20">
+        <f>(G20-I20)/G20</f>
+        <v>0.59792783488253909</v>
+      </c>
+      <c r="L20">
+        <f>K20-J20</f>
+        <v>0.2864473188085051</v>
+      </c>
+      <c r="N20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f>(J2+J6+J10+J14+J18)/5</f>
+        <v>8.906668921893264E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="J22:K24" si="6">(K2+K6+K10+K14+K18)/5</f>
+        <v>0.35613008983364619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J23">
         <f t="shared" si="6"/>
-        <v>37465.75</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="7"/>
-        <v>0.15</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="8"/>
-        <v>0.38579730815259267</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="9"/>
-        <v>0.23579730815259267</v>
-      </c>
-      <c r="M18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <f t="shared" ref="G19:G20" si="10">B19*M19 + (M19-1)</f>
-        <v>999</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H20" si="11">D19*M19-E19*(M19-1)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" t="e">
-        <f t="shared" ref="I19:I20" si="12">(B19-D19)/B19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K19" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G20">
-        <f t="shared" si="10"/>
-        <v>999</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I20" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K20" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>0.26206634712914517</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>0.44827484387906119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>(J4+J8+J12+J16+J20)/5</f>
+        <v>0.31493042008751371</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>0.56285848029003804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>78</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5807,10 +4767,10 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -5819,24 +4779,27 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>134</v>
@@ -5845,39 +4808,43 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>87.332999999999998</v>
+        <v>126.33</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G18" si="0">B2*M2 + (M2-1)</f>
+        <f>B2*N2 + (N2-1)</f>
         <v>134999</v>
       </c>
       <c r="H2">
-        <f>E2*M2-F2*(M2-1)</f>
-        <v>71349</v>
+        <f>D2*N2+N2-1</f>
+        <v>123999</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I18" si="1">(B2-D2)/B2</f>
-        <v>0.37313432835820898</v>
+        <f>E2*N2-F2*(N2-1)</f>
+        <v>102354</v>
       </c>
       <c r="J2">
         <f>(G2-H2)/G2</f>
-        <v>0.47148497396277012</v>
+        <v>8.1482085052481876E-2</v>
       </c>
       <c r="K2">
-        <f>J2-I2</f>
-        <v>9.8350645604561138E-2</v>
-      </c>
-      <c r="M2">
+        <f>(G2-I2)/G2</f>
+        <v>0.24181660604893371</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2</f>
+        <v>0.16033452099645185</v>
+      </c>
+      <c r="N2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -5897,32 +4864,36 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f>B3*N3 + (N3-1)</f>
         <v>134999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H18" si="2">E3*M3-F3*(M3-1)</f>
+        <f t="shared" ref="H3:H4" si="0">D3*N3+N3-1</f>
+        <v>109999</v>
+      </c>
+      <c r="I3">
+        <f>E3*N3-F3*(N3-1)</f>
         <v>91686</v>
       </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0.18656716417910449</v>
-      </c>
       <c r="J3">
-        <f t="shared" ref="J3:J18" si="3">(G3-H3)/G3</f>
+        <f t="shared" ref="J3:J20" si="1">(G3-H3)/G3</f>
+        <v>0.18518655693745881</v>
+      </c>
+      <c r="K3">
+        <f>(G3-I3)/G3</f>
         <v>0.32083941362528612</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K18" si="4">J3-I3</f>
-        <v>0.13427224944618163</v>
-      </c>
-      <c r="M3">
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>0.13565285668782731</v>
+      </c>
+      <c r="N3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>134</v>
@@ -5931,456 +4902,359 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>126.33</v>
+        <v>87.332999999999998</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G4">
+        <f>B4*N4 + (N4-1)</f>
+        <v>134999</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>134999</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>102354</v>
+        <v>84999</v>
       </c>
       <c r="I4">
+        <f>E4*N4-F4*(N4-1)</f>
+        <v>71349</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>8.2089552238805971E-2</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>0.24181660604893371</v>
+        <v>0.37037311387491761</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
-        <v>0.15972705381012775</v>
-      </c>
-      <c r="M4">
+        <f>(G4-I4)/G4</f>
+        <v>0.47148497396277012</v>
+      </c>
+      <c r="L4">
+        <f>K4-J4</f>
+        <v>0.1011118600878525</v>
+      </c>
+      <c r="N4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>178</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>163</v>
-      </c>
-      <c r="E5">
-        <v>167.66</v>
-      </c>
-      <c r="F5">
-        <v>55.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>178999</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>112215.5</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>8.4269662921348312E-2</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0.37309426309644189</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
-        <v>0.28882460017509359</v>
-      </c>
-      <c r="M5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>178</v>
       </c>
       <c r="D6">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E6">
-        <v>166.3</v>
+        <v>174.333</v>
       </c>
       <c r="F6">
-        <v>42</v>
+        <v>43.5</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>B6*N6 + (N6-1)</f>
         <v>178999</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>124342</v>
+        <f>D6*N6+N6-1</f>
+        <v>174999</v>
       </c>
       <c r="I6">
+        <f>E6*N6-F6*(N6-1)</f>
+        <v>130876.5</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>8.4269662921348312E-2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>0.30534807457024898</v>
+        <v>2.2346493555829922E-2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
-        <v>0.22107841164890069</v>
-      </c>
-      <c r="M6">
+        <f>(G6-I6)/G6</f>
+        <v>0.26884228403510635</v>
+      </c>
+      <c r="L6">
+        <f>K6-J6</f>
+        <v>0.24649579047927642</v>
+      </c>
+      <c r="N6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>178</v>
       </c>
       <c r="D7">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E7">
-        <v>174.333</v>
+        <v>166.3</v>
       </c>
       <c r="F7">
-        <v>43.5</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>B7*N7 + (N7-1)</f>
         <v>178999</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>130876.5</v>
+        <f t="shared" ref="H7:H8" si="2">D7*N7+N7-1</f>
+        <v>163999</v>
       </c>
       <c r="I7">
+        <f>E7*N7-F7*(N7-1)</f>
+        <v>124342</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>2.247191011235955E-2</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0.26884228403510635</v>
+        <v>8.3799350834362199E-2</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
-        <v>0.2463703739227468</v>
-      </c>
-      <c r="M7">
+        <f>(G7-I7)/G7</f>
+        <v>0.30534807457024898</v>
+      </c>
+      <c r="L7">
+        <f>K7-J7</f>
+        <v>0.2215487237358868</v>
+      </c>
+      <c r="N7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="C8">
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E8">
-        <v>93.2</v>
+        <v>152</v>
       </c>
       <c r="F8">
-        <v>48.25</v>
+        <v>47.332999999999998</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>108999</v>
+        <f>B8*N8 + (N8-1)</f>
+        <v>178999</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>44998.25</v>
+        <v>148999</v>
       </c>
       <c r="I8">
+        <f>E8*N8-F8*(N8-1)</f>
+        <v>104714.333</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>0.25925925925925924</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0.58716823090120096</v>
+        <v>0.1675987016687244</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
-        <v>0.32790897164194172</v>
-      </c>
-      <c r="M8">
+        <f>(G8-I8)/G8</f>
+        <v>0.41500045810311792</v>
+      </c>
+      <c r="L8">
+        <f>K8-J8</f>
+        <v>0.24740175643439352</v>
+      </c>
+      <c r="N8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>108</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>82</v>
-      </c>
-      <c r="E9">
-        <v>84</v>
-      </c>
-      <c r="F9">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>108999</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>58026</v>
-      </c>
-      <c r="I9">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>126</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10">
+        <v>122</v>
+      </c>
+      <c r="F10">
+        <v>9.75</v>
+      </c>
+      <c r="G10">
+        <f>B10*N10 + (N10-1)</f>
+        <v>126999</v>
+      </c>
+      <c r="H10">
+        <f>D10*N10+N10-1</f>
+        <v>120999</v>
+      </c>
+      <c r="I10">
+        <f>E10*N10-F10*(N10-1)</f>
+        <v>112259.75</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>0.24074074074074073</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>0.46764649216965293</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0.2269057514289122</v>
-      </c>
-      <c r="M9">
+        <v>4.724446649186214E-2</v>
+      </c>
+      <c r="K10">
+        <f>(G10-I10)/G10</f>
+        <v>0.11605800045669651</v>
+      </c>
+      <c r="L10">
+        <f>K10-J10</f>
+        <v>6.8813533964834361E-2</v>
+      </c>
+      <c r="N10">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>108</v>
-      </c>
-      <c r="D10">
-        <v>106</v>
-      </c>
-      <c r="E10">
-        <v>106</v>
-      </c>
-      <c r="F10">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>108999</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>57049</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>1.8518518518518517E-2</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0.47660987715483627</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0.45809135863631778</v>
-      </c>
-      <c r="M10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>126</v>
       </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
       <c r="D11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E11">
-        <v>90.75</v>
+        <v>92.25</v>
       </c>
       <c r="F11">
-        <v>20.3333333333333</v>
+        <v>17.332999999999998</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>B11*N11 + (N11-1)</f>
         <v>126999</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>70437.000000000029</v>
+        <f t="shared" ref="H11:H12" si="3">D11*N11+N11-1</f>
+        <v>91999</v>
       </c>
       <c r="I11">
+        <f>E11*N11-F11*(N11-1)</f>
+        <v>74934.332999999999</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>0.30158730158730157</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0.44537358561878415</v>
+        <v>0.27559272120252915</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
-        <v>0.14378628403148258</v>
-      </c>
-      <c r="M11">
+        <f>(G11-I11)/G11</f>
+        <v>0.40996123591524342</v>
+      </c>
+      <c r="L11">
+        <f>K11-J11</f>
+        <v>0.13436851471271427</v>
+      </c>
+      <c r="N11">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>126</v>
       </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
       <c r="D12">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12">
-        <v>92</v>
+        <v>90.75</v>
       </c>
       <c r="F12">
-        <v>20.666</v>
+        <v>20.3333333333333</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>B12*N12 + (N12-1)</f>
         <v>126999</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>71354.665999999997</v>
+        <f t="shared" si="3"/>
+        <v>88999</v>
       </c>
       <c r="I12">
+        <f>E12*N12-F12*(N12-1)</f>
+        <v>70437.000000000029</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.29365079365079366</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0.43814781218749754</v>
+        <v>0.29921495444846025</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
-        <v>0.14449701853670388</v>
-      </c>
-      <c r="M12">
+        <f>(G12-I12)/G12</f>
+        <v>0.44537358561878415</v>
+      </c>
+      <c r="L12">
+        <f>K12-J12</f>
+        <v>0.1461586311703239</v>
+      </c>
+      <c r="N12">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13">
-        <v>126</v>
-      </c>
-      <c r="D13">
-        <v>120</v>
-      </c>
-      <c r="E13">
-        <v>122</v>
-      </c>
-      <c r="F13">
-        <v>9.75</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>126999</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>112259.75</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>0.11605800045669651</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>6.8438952837648892E-2</v>
-      </c>
-      <c r="M13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>108</v>
       </c>
-      <c r="C14">
-        <v>-1</v>
-      </c>
       <c r="D14">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E14">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>B14*N14 + (N14-1)</f>
         <v>108999</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>46046</v>
+        <f>D14*N14+N14-1</f>
+        <v>106999</v>
       </c>
       <c r="I14">
+        <f>E14*N14-F14*(N14-1)</f>
+        <v>57049</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.28703703703703703</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0.57755575739226961</v>
+        <v>1.8348792190754044E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
-        <v>0.29051872035523257</v>
-      </c>
-      <c r="M14">
+        <f>(G14-I14)/G14</f>
+        <v>0.47660987715483627</v>
+      </c>
+      <c r="L14">
+        <f>K14-J14</f>
+        <v>0.45826108496408224</v>
+      </c>
+      <c r="N14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>108</v>
@@ -6389,41 +5263,45 @@
         <v>-1</v>
       </c>
       <c r="D15">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15">
-        <v>80.5</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>20.832999999999998</v>
+        <v>27</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>B15*N15 + (N15-1)</f>
         <v>108999</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>59687.832999999999</v>
+        <f t="shared" ref="H15:H16" si="4">D15*N15+N15-1</f>
+        <v>82999</v>
       </c>
       <c r="I15">
+        <f>E15*N15-F15*(N15-1)</f>
+        <v>57027</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.26851851851851855</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0.45240017798328425</v>
+        <v>0.23853429847980256</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
-        <v>0.1838816594647657</v>
-      </c>
-      <c r="M15">
+        <f>(G15-I15)/G15</f>
+        <v>0.47681171386893456</v>
+      </c>
+      <c r="L15">
+        <f>K15-J15</f>
+        <v>0.238277415389132</v>
+      </c>
+      <c r="N15">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>108</v>
@@ -6432,101 +5310,226 @@
         <v>-1</v>
       </c>
       <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16">
+        <v>95.4</v>
+      </c>
+      <c r="F16">
+        <v>51.25</v>
+      </c>
+      <c r="G16">
+        <f>B16*N16 + (N16-1)</f>
+        <v>108999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>80999</v>
+      </c>
+      <c r="I16">
+        <f>E16*N16-F16*(N16-1)</f>
+        <v>44201.25</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.25688309067055659</v>
+      </c>
+      <c r="K16">
+        <f>(G16-I16)/G16</f>
+        <v>0.59448022458921645</v>
+      </c>
+      <c r="L16">
+        <f>K16-J16</f>
+        <v>0.33759713391865986</v>
+      </c>
+      <c r="N16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
         <v>99</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>100.5</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>40</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
+      <c r="G18">
+        <f>B18*N18 + (N18-1)</f>
         <v>108999</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
+      <c r="H18">
+        <f>D18*N18+N18-1</f>
+        <v>99999</v>
+      </c>
+      <c r="I18">
+        <f>E18*N18-F18*(N18-1)</f>
         <v>60540</v>
       </c>
-      <c r="I16">
+      <c r="J18">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
+        <v>8.2569564858393202E-2</v>
+      </c>
+      <c r="K18">
+        <f>(G18-I18)/G18</f>
         <v>0.44458206038587511</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>0.3612487270525418</v>
-      </c>
-      <c r="M16">
+      <c r="L18">
+        <f>K18-J18</f>
+        <v>0.36201249552748194</v>
+      </c>
+      <c r="N18">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" t="e">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>108</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>80.5</v>
+      </c>
+      <c r="F19">
+        <v>20.832999999999998</v>
+      </c>
+      <c r="G19">
+        <f>B19*N19 + (N19-1)</f>
+        <v>108999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H20" si="5">D19*N19+N19-1</f>
+        <v>79999</v>
+      </c>
+      <c r="I19">
+        <f>E19*N19-F19*(N19-1)</f>
+        <v>59687.832999999999</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17">
+        <v>0.26605748676593366</v>
+      </c>
+      <c r="K19">
+        <f>(G19-I19)/G19</f>
+        <v>0.45240017798328425</v>
+      </c>
+      <c r="L19">
+        <f>K19-J19</f>
+        <v>0.18634269121735059</v>
+      </c>
+      <c r="N19">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>999</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" t="e">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>108</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>93</v>
+      </c>
+      <c r="F20">
+        <v>50.67</v>
+      </c>
+      <c r="G20">
+        <f>B20*N20 + (N20-1)</f>
+        <v>108999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>77999</v>
+      </c>
+      <c r="I20">
+        <f>E20*N20-F20*(N20-1)</f>
+        <v>42380.67</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18">
+        <v>0.28440627895668769</v>
+      </c>
+      <c r="K20">
+        <f>(G20-I20)/G20</f>
+        <v>0.61118294663253792</v>
+      </c>
+      <c r="L20">
+        <f>K20-J20</f>
+        <v>0.32677666767585023</v>
+      </c>
+      <c r="N20">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>81</v>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f>(J2+J6+J10+J14+J18)/5</f>
+        <v>5.0398280429864238E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="J22:K24" si="6">(K2+K6+K10+K14+K18)/5</f>
+        <v>0.30958176561628958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>0.20983408284401728</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>0.39307212319259943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>(J4+J8+J12+J16+J20)/5</f>
+        <v>0.2756952279238693</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>0.50750443778128529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -6539,8 +5542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6552,13 +5555,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,7 +5638,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>321</v>
@@ -6650,7 +5653,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>108</v>
@@ -6665,7 +5668,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6679,7 +5682,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>62</v>
@@ -6693,7 +5696,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6707,37 +5710,37 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>1355</v>
       </c>
       <c r="C14">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D14">
         <f>(B14-C14)/B14</f>
-        <v>0.35571955719557197</v>
+        <v>0.35867158671586719</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B15">
-        <v>108</v>
+        <v>1043</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>944</v>
       </c>
       <c r="D15">
         <f>(B15-C15)/B15</f>
-        <v>0.37037037037037035</v>
+        <v>9.4918504314477473E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6751,7 +5754,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>866</v>
@@ -6766,7 +5769,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>0</v>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F7C48D-28ED-42F9-9EC0-08035B1241B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE39057-A8B3-435D-B850-2DEE34826AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25380" yWindow="4785" windowWidth="28440" windowHeight="14205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
   <si>
     <t>Bench</t>
   </si>
@@ -280,39 +280,6 @@
     <t>New wires</t>
   </si>
   <si>
-    <t>BV15(15)</t>
-  </si>
-  <si>
-    <t>IQP15(15)</t>
-  </si>
-  <si>
-    <t>qft15(15)</t>
-  </si>
-  <si>
-    <t>hlf15(20)</t>
-  </si>
-  <si>
-    <t>HC14(17)</t>
-  </si>
-  <si>
-    <t>Improvement</t>
-  </si>
-  <si>
-    <t>BV27(15)</t>
-  </si>
-  <si>
-    <t>IQP27(15)</t>
-  </si>
-  <si>
-    <t>qft27(15)</t>
-  </si>
-  <si>
-    <t>hlf27(20)</t>
-  </si>
-  <si>
-    <t>HC26(17)</t>
-  </si>
-  <si>
     <t>DP-single</t>
   </si>
   <si>
@@ -410,6 +377,51 @@
   </si>
   <si>
     <t>Ave(L)</t>
+  </si>
+  <si>
+    <t>Original measurements</t>
+  </si>
+  <si>
+    <t>New measurements</t>
+  </si>
+  <si>
+    <t>Wires reduction</t>
+  </si>
+  <si>
+    <t>Measurements reduction</t>
+  </si>
+  <si>
+    <t>qft5</t>
+  </si>
+  <si>
+    <t>hlf7</t>
+  </si>
+  <si>
+    <t>HC6</t>
+  </si>
+  <si>
+    <t>qft15</t>
+  </si>
+  <si>
+    <t>hlf15</t>
+  </si>
+  <si>
+    <t>HC14</t>
+  </si>
+  <si>
+    <t>BV27</t>
+  </si>
+  <si>
+    <t>IQP27</t>
+  </si>
+  <si>
+    <t>qft27</t>
+  </si>
+  <si>
+    <t>hlf27</t>
+  </si>
+  <si>
+    <t>HC26</t>
   </si>
 </sst>
 </file>
@@ -2991,7 +3003,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -3237,7 +3249,7 @@
         <v>0.33443845384581938</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L3:L20" si="3">K7-J7</f>
+        <f t="shared" ref="L7:L19" si="3">K7-J7</f>
         <v>0.11703769729118657</v>
       </c>
       <c r="N7">
@@ -3716,7 +3728,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:K23" si="8">(J2+J6+J10+J14+J18)/5</f>
@@ -3729,7 +3741,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
@@ -3742,7 +3754,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J24">
         <f>(J4+J8+J12+J16+J20)/5</f>
@@ -3758,7 +3770,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3772,7 +3784,7 @@
         <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3786,7 +3798,7 @@
         <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3794,7 +3806,7 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3808,72 +3820,72 @@
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3887,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -4656,7 +4668,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -4664,7 +4676,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4672,7 +4684,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -4680,7 +4692,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -4688,7 +4700,7 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4698,12 +4710,12 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
@@ -4713,12 +4725,12 @@
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
@@ -4728,12 +4740,12 @@
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
@@ -4750,7 +4762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -4779,7 +4791,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
@@ -5540,10 +5552,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,9 +5563,11 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>77</v>
       </c>
@@ -5561,12 +5575,21 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -5575,13 +5598,24 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>88</v>
+      </c>
+      <c r="E2">
+        <f>D2-(B2-C2)</f>
+        <v>80</v>
+      </c>
+      <c r="F2">
         <f>(B2-C2)/B2</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>(D2-E2)/D2</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5590,12 +5624,23 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>108</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">D3-(B3-C3)</f>
+        <v>108</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="1">(D3-E3)/D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5604,12 +5649,23 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -5618,13 +5674,24 @@
         <v>6.8</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5" si="0">(B5-C5)/B5</f>
+        <v>142</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="F5">
+        <f>(B5-C5)/B5</f>
         <v>0.15000000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>8.450704225352032E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5633,12 +5700,22 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>134</v>
+      </c>
+      <c r="E6">
+        <v>134</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>321</v>
@@ -5647,28 +5724,50 @@
         <v>187</v>
       </c>
       <c r="D8">
+        <v>650</v>
+      </c>
+      <c r="E8">
+        <f>D8-(B8-C8)</f>
+        <v>516</v>
+      </c>
+      <c r="F8">
         <f>(B8-C8)/B8</f>
         <v>0.4174454828660436</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>(D8-E8)/D8</f>
+        <v>0.20615384615384616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>108</v>
       </c>
       <c r="C9">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9">
+        <v>986</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E12" si="2">D9-(B9-C9)</f>
+        <v>942</v>
+      </c>
+      <c r="F9">
         <f>(B9-C9)/B9</f>
-        <v>0.37037037037037035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G12" si="3">(D9-E9)/D9</f>
+        <v>4.4624746450304259E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5677,12 +5776,23 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>662</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>662</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B11">
         <v>62</v>
@@ -5691,12 +5801,23 @@
         <v>62</v>
       </c>
       <c r="D11">
+        <v>482</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5705,12 +5826,23 @@
         <v>0</v>
       </c>
       <c r="D12">
+        <v>710</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>710</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>1355</v>
@@ -5719,13 +5851,24 @@
         <v>869</v>
       </c>
       <c r="D14">
+        <v>1994</v>
+      </c>
+      <c r="E14">
+        <f>D14-(B14-C14)</f>
+        <v>1508</v>
+      </c>
+      <c r="F14">
         <f>(B14-C14)/B14</f>
         <v>0.35867158671586719</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f>(D14-E14)/D14</f>
+        <v>0.24373119358074222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <v>1043</v>
@@ -5734,13 +5877,24 @@
         <v>944</v>
       </c>
       <c r="D15">
+        <v>4138</v>
+      </c>
+      <c r="E15">
+        <f>D15-(B15-C15)</f>
+        <v>4039</v>
+      </c>
+      <c r="F15">
         <f>(B15-C15)/B15</f>
         <v>9.4918504314477473E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="4">(D15-E15)/D15</f>
+        <v>2.3924601256645722E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5749,12 +5903,23 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>2162</v>
+      </c>
+      <c r="E16">
+        <f>D16-(B16-C16)</f>
+        <v>2162</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B17">
         <v>866</v>
@@ -5763,13 +5928,24 @@
         <v>586</v>
       </c>
       <c r="D17">
+        <v>1928</v>
+      </c>
+      <c r="E17">
+        <f>D17-(B17-C17)</f>
+        <v>1648</v>
+      </c>
+      <c r="F17">
         <f>(B17-C17)/B17</f>
         <v>0.32332563510392609</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0.14522821576763487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5778,7 +5954,14 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>2258</v>
+      </c>
+      <c r="F18">
         <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE39057-A8B3-435D-B850-2DEE34826AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A07A439-8CF1-488F-890E-29ABAEE7FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25380" yWindow="4785" windowWidth="28440" windowHeight="14205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="100" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
   <si>
     <t>Bench</t>
   </si>
@@ -2967,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,8 +3899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4762,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5554,7 +5554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -5627,7 +5627,7 @@
         <v>108</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E6" si="0">D3-(B3-C3)</f>
+        <f t="shared" ref="E3:E5" si="0">D3-(B3-C3)</f>
         <v>108</v>
       </c>
       <c r="F3">
@@ -5971,14 +5971,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A67E9-302D-4499-979D-4DB1E23B1E16}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" activeCellId="2" sqref="A4 M23 G29"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>299</v>
+      </c>
+      <c r="E2">
+        <v>95.4</v>
+      </c>
+      <c r="F2">
+        <v>51.25</v>
+      </c>
+      <c r="G2">
+        <f>B2*N2 + (N2-1)</f>
+        <v>400999</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2" si="0">D2*N2+N2-1</f>
+        <v>299999</v>
+      </c>
+      <c r="I2">
+        <f>E2*N2-F2*(N2-1)</f>
+        <v>44201.25</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2" si="1">(G2-H2)/G2</f>
+        <v>0.25187095229663914</v>
+      </c>
+      <c r="K2">
+        <f>(G2-I2)/G2</f>
+        <v>0.88977216900790279</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2</f>
+        <v>0.63790121671126365</v>
+      </c>
+      <c r="N2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A07A439-8CF1-488F-890E-29ABAEE7FA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182F985-49C7-42AE-B26B-3968E64F6E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>Bench</t>
   </si>
@@ -4762,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5554,7 +5554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -5971,10 +5971,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A67E9-302D-4499-979D-4DB1E23B1E16}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6034,10 +6034,10 @@
         <v>299</v>
       </c>
       <c r="E2">
-        <v>95.4</v>
+        <v>348.75</v>
       </c>
       <c r="F2">
-        <v>51.25</v>
+        <v>198</v>
       </c>
       <c r="G2">
         <f>B2*N2 + (N2-1)</f>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="I2">
         <f>E2*N2-F2*(N2-1)</f>
-        <v>44201.25</v>
+        <v>150948</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2" si="1">(G2-H2)/G2</f>
@@ -6057,13 +6057,60 @@
       </c>
       <c r="K2">
         <f>(G2-I2)/G2</f>
-        <v>0.88977216900790279</v>
+        <v>0.6235701335913556</v>
       </c>
       <c r="L2">
         <f>K2-J2</f>
-        <v>0.63790121671126365</v>
+        <v>0.37169918129471646</v>
       </c>
       <c r="N2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>299</v>
+      </c>
+      <c r="E3">
+        <v>327.25</v>
+      </c>
+      <c r="F3">
+        <v>140</v>
+      </c>
+      <c r="G3">
+        <f>B3*N3 + (N3-1)</f>
+        <v>400999</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3" si="2">D3*N3+N3-1</f>
+        <v>299999</v>
+      </c>
+      <c r="I3">
+        <f>E3*N3-F3*(N3-1)</f>
+        <v>187390</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3" si="3">(G3-H3)/G3</f>
+        <v>0.25187095229663914</v>
+      </c>
+      <c r="K3">
+        <f>(G3-I3)/G3</f>
+        <v>0.53269210147656232</v>
+      </c>
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>0.28082114917992318</v>
+      </c>
+      <c r="N3">
         <v>1000</v>
       </c>
     </row>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182F985-49C7-42AE-B26B-3968E64F6E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B94E83-E09F-4318-BC2E-04BD1B1A0166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="100" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="50" sheetId="6" r:id="rId5"/>
+    <sheet name="100" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="125">
   <si>
     <t>Bench</t>
   </si>
@@ -391,37 +391,31 @@
     <t>Measurements reduction</t>
   </si>
   <si>
-    <t>qft5</t>
-  </si>
-  <si>
     <t>hlf7</t>
   </si>
   <si>
-    <t>HC6</t>
-  </si>
-  <si>
-    <t>qft15</t>
-  </si>
-  <si>
     <t>hlf15</t>
   </si>
   <si>
-    <t>HC14</t>
-  </si>
-  <si>
     <t>BV27</t>
   </si>
   <si>
     <t>IQP27</t>
   </si>
   <si>
-    <t>qft27</t>
-  </si>
-  <si>
     <t>hlf27</t>
   </si>
   <si>
-    <t>HC26</t>
+    <t>qft100(300)</t>
+  </si>
+  <si>
+    <t>qft50(150)</t>
+  </si>
+  <si>
+    <t>bv50</t>
+  </si>
+  <si>
+    <t>bv100</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1234,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.41500045810311792</c:v>
+                  <c:v>0.42279007145291314</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.59448022458921645</c:v>
@@ -2968,7 +2962,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,7 +3894,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4763,7 +4757,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,10 +5046,10 @@
         <v>148</v>
       </c>
       <c r="E8">
-        <v>152</v>
+        <v>173.25</v>
       </c>
       <c r="F8">
-        <v>47.332999999999998</v>
+        <v>70</v>
       </c>
       <c r="G8">
         <f>B8*N8 + (N8-1)</f>
@@ -5067,7 +5061,7 @@
       </c>
       <c r="I8">
         <f>E8*N8-F8*(N8-1)</f>
-        <v>104714.333</v>
+        <v>103320</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
@@ -5075,11 +5069,11 @@
       </c>
       <c r="K8">
         <f>(G8-I8)/G8</f>
-        <v>0.41500045810311792</v>
+        <v>0.42279007145291314</v>
       </c>
       <c r="L8">
         <f>K8-J8</f>
-        <v>0.24740175643439352</v>
+        <v>0.25519136978418877</v>
       </c>
       <c r="N8">
         <v>1000</v>
@@ -5526,7 +5520,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="6"/>
-        <v>0.50750443778128529</v>
+        <v>0.50906236045124431</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5552,10 +5546,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5627,14 +5621,14 @@
         <v>108</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">D3-(B3-C3)</f>
+        <f t="shared" ref="E3" si="0">D3-(B3-C3)</f>
         <v>108</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="1">(D3-E3)/D3</f>
+        <f t="shared" ref="G3" si="1">(D3-E3)/D3</f>
         <v>0</v>
       </c>
     </row>
@@ -5643,325 +5637,242 @@
         <v>116</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="D4">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f>D4-(B4-C4)</f>
+        <v>140.80000000000001</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f>(B4-C4)/B4</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(D4-E4)/D4</f>
+        <v>8.450704225352032E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>6.8</v>
+        <v>187</v>
       </c>
       <c r="D5">
-        <v>142</v>
+        <v>650</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>140.80000000000001</v>
+        <f>D5-(B5-C5)</f>
+        <v>516</v>
       </c>
       <c r="F5">
         <f>(B5-C5)/B5</f>
-        <v>0.15000000000000002</v>
+        <v>0.4174454828660436</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>8.450704225352032E-3</v>
+        <f>(D5-E5)/D5</f>
+        <v>0.20615384615384616</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B6">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>986</v>
+      </c>
+      <c r="E6">
+        <f>D6-(B6-C6)</f>
+        <v>942</v>
+      </c>
+      <c r="F6">
+        <f>(B6-C6)/B6</f>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="G6">
+        <f>(D6-E6)/D6</f>
+        <v>4.4624746450304259E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>482</v>
+      </c>
+      <c r="E7">
+        <f>D7-(B7-C7)</f>
+        <v>482</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>134</v>
-      </c>
-      <c r="E6">
-        <v>134</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
+      <c r="G7">
+        <f>(D7-E7)/D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B8">
-        <v>321</v>
+        <v>1355</v>
       </c>
       <c r="C8">
-        <v>187</v>
+        <v>869</v>
       </c>
       <c r="D8">
-        <v>650</v>
+        <v>1994</v>
       </c>
       <c r="E8">
         <f>D8-(B8-C8)</f>
-        <v>516</v>
+        <v>1508</v>
       </c>
       <c r="F8">
         <f>(B8-C8)/B8</f>
-        <v>0.4174454828660436</v>
+        <v>0.35867158671586719</v>
       </c>
       <c r="G8">
         <f>(D8-E8)/D8</f>
-        <v>0.20615384615384616</v>
+        <v>0.24373119358074222</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="B9">
-        <v>108</v>
+        <v>1043</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>944</v>
       </c>
       <c r="D9">
-        <v>986</v>
+        <v>4138</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E12" si="2">D9-(B9-C9)</f>
-        <v>942</v>
+        <f>D9-(B9-C9)</f>
+        <v>4039</v>
       </c>
       <c r="F9">
         <f>(B9-C9)/B9</f>
-        <v>0.40740740740740738</v>
+        <v>9.4918504314477473E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G12" si="3">(D9-E9)/D9</f>
-        <v>4.4624746450304259E-2</v>
+        <f>(D9-E9)/D9</f>
+        <v>2.3924601256645722E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="D10">
-        <v>662</v>
+        <v>1928</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>662</v>
+        <f>D10-(B10-C10)</f>
+        <v>1648</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <f>(B10-C10)/B10</f>
+        <v>0.32332563510392609</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(D10-E10)/D10</f>
+        <v>0.14522821576763487</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>5395</v>
       </c>
       <c r="C11">
-        <v>62</v>
+        <v>3609</v>
       </c>
       <c r="D11">
-        <v>482</v>
+        <v>6633</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>482</v>
+        <f>D11-(B11-C11)</f>
+        <v>4847</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <f>(B11-C11)/B11</f>
+        <v>0.331047265987025</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>(D11-E11)/D11</f>
+        <v>0.26925976179707523</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>23247</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>15941</v>
       </c>
       <c r="D12">
-        <v>710</v>
+        <v>25783</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>710</v>
+        <f>D12-(B12-C12)</f>
+        <v>18477</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <f>(B12-C12)/B12</f>
+        <v>0.31427711102507849</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14">
-        <v>1355</v>
-      </c>
-      <c r="C14">
-        <v>869</v>
-      </c>
-      <c r="D14">
-        <v>1994</v>
-      </c>
-      <c r="E14">
-        <f>D14-(B14-C14)</f>
-        <v>1508</v>
-      </c>
-      <c r="F14">
-        <f>(B14-C14)/B14</f>
-        <v>0.35867158671586719</v>
-      </c>
-      <c r="G14">
-        <f>(D14-E14)/D14</f>
-        <v>0.24373119358074222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15">
-        <v>1043</v>
-      </c>
-      <c r="C15">
-        <v>944</v>
-      </c>
-      <c r="D15">
-        <v>4138</v>
-      </c>
-      <c r="E15">
-        <f>D15-(B15-C15)</f>
-        <v>4039</v>
-      </c>
-      <c r="F15">
-        <f>(B15-C15)/B15</f>
-        <v>9.4918504314477473E-2</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15:G18" si="4">(D15-E15)/D15</f>
-        <v>2.3924601256645722E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>2162</v>
-      </c>
-      <c r="E16">
-        <f>D16-(B16-C16)</f>
-        <v>2162</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17">
-        <v>866</v>
-      </c>
-      <c r="C17">
-        <v>586</v>
-      </c>
-      <c r="D17">
-        <v>1928</v>
-      </c>
-      <c r="E17">
-        <f>D17-(B17-C17)</f>
-        <v>1648</v>
-      </c>
-      <c r="F17">
-        <f>(B17-C17)/B17</f>
-        <v>0.32332563510392609</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>0.14522821576763487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>2258</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>(D12-E12)/D12</f>
+        <v>0.28336500795097547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>AVERAGE(F2:F12)</f>
+        <v>0.29064481758362049</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(G2:G12)</f>
+        <v>0.11960428800833336</v>
       </c>
     </row>
   </sheetData>
@@ -5970,11 +5881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A67E9-302D-4499-979D-4DB1E23B1E16}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353AF465-2C53-4228-A626-C196E4615017}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6020,113 +5931,349 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>400</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1">
         <v>-1</v>
       </c>
-      <c r="D2">
-        <v>299</v>
-      </c>
-      <c r="E2">
-        <v>348.75</v>
-      </c>
-      <c r="F2">
-        <v>198</v>
-      </c>
-      <c r="G2">
+      <c r="D2" s="1">
+        <v>149</v>
+      </c>
+      <c r="E2" s="1">
+        <v>178.8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>98</v>
+      </c>
+      <c r="G2" s="1">
         <f>B2*N2 + (N2-1)</f>
-        <v>400999</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2" si="0">D2*N2+N2-1</f>
-        <v>299999</v>
-      </c>
-      <c r="I2">
+        <v>200999</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H3" si="0">D2*N2+N2-1</f>
+        <v>149999</v>
+      </c>
+      <c r="I2" s="1">
         <f>E2*N2-F2*(N2-1)</f>
-        <v>150948</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2" si="1">(G2-H2)/G2</f>
-        <v>0.25187095229663914</v>
-      </c>
-      <c r="K2">
+        <v>80898</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J3" si="1">(G2-H2)/G2</f>
+        <v>0.25373260563485389</v>
+      </c>
+      <c r="K2" s="1">
         <f>(G2-I2)/G2</f>
-        <v>0.6235701335913556</v>
-      </c>
-      <c r="L2">
+        <v>0.59752038567356058</v>
+      </c>
+      <c r="L2" s="1">
         <f>K2-J2</f>
-        <v>0.37169918129471646</v>
-      </c>
-      <c r="N2">
+        <v>0.34378778003870669</v>
+      </c>
+      <c r="N2" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
       <c r="D3">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="E3">
-        <v>327.25</v>
+        <v>174</v>
       </c>
       <c r="F3">
-        <v>140</v>
+        <v>98.332999999999998</v>
       </c>
       <c r="G3">
         <f>B3*N3 + (N3-1)</f>
-        <v>400999</v>
+        <v>200999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3" si="2">D3*N3+N3-1</f>
-        <v>299999</v>
+        <f t="shared" si="0"/>
+        <v>149999</v>
       </c>
       <c r="I3">
         <f>E3*N3-F3*(N3-1)</f>
-        <v>187390</v>
+        <v>75765.332999999999</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3" si="3">(G3-H3)/G3</f>
-        <v>0.25187095229663914</v>
+        <f t="shared" si="1"/>
+        <v>0.25373260563485389</v>
       </c>
       <c r="K3">
         <f>(G3-I3)/G3</f>
-        <v>0.53269210147656232</v>
+        <v>0.62305616943367881</v>
       </c>
       <c r="L3">
         <f>K3-J3</f>
-        <v>0.28082114917992318</v>
+        <v>0.36932356379882492</v>
       </c>
       <c r="N3">
         <v>1000</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>168</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <f>B5*N5 + (N5-1)</f>
+        <v>250999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5" si="2">D5*N5+N5-1</f>
+        <v>160999</v>
+      </c>
+      <c r="I5">
+        <f>E5*N5-F5*(N5-1)</f>
+        <v>142026</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5" si="3">(G5-H5)/G5</f>
+        <v>0.35856716560623747</v>
+      </c>
+      <c r="K5">
+        <f>(G5-I5)/G5</f>
+        <v>0.43415710819565018</v>
+      </c>
+      <c r="L5">
+        <f>K5-J5</f>
+        <v>7.5589942589412706E-2</v>
+      </c>
+      <c r="N5">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353AF465-2C53-4228-A626-C196E4615017}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A67E9-302D-4499-979D-4DB1E23B1E16}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>299</v>
+      </c>
+      <c r="E2">
+        <v>348.75</v>
+      </c>
+      <c r="F2">
+        <v>198</v>
+      </c>
+      <c r="G2">
+        <f>B2*N2 + (N2-1)</f>
+        <v>400999</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2" si="0">D2*N2+N2-1</f>
+        <v>299999</v>
+      </c>
+      <c r="I2">
+        <f>E2*N2-F2*(N2-1)</f>
+        <v>150948</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2" si="1">(G2-H2)/G2</f>
+        <v>0.25187095229663914</v>
+      </c>
+      <c r="K2">
+        <f>(G2-I2)/G2</f>
+        <v>0.6235701335913556</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2</f>
+        <v>0.37169918129471646</v>
+      </c>
+      <c r="N2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>299</v>
+      </c>
+      <c r="E3">
+        <v>331.8</v>
+      </c>
+      <c r="F3">
+        <v>167.75</v>
+      </c>
+      <c r="G3">
+        <f>B3*N3 + (N3-1)</f>
+        <v>400999</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3" si="2">D3*N3+N3-1</f>
+        <v>299999</v>
+      </c>
+      <c r="I3">
+        <f>E3*N3-F3*(N3-1)</f>
+        <v>164217.75</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3" si="3">(G3-H3)/G3</f>
+        <v>0.25187095229663914</v>
+      </c>
+      <c r="K3">
+        <f>(G3-I3)/G3</f>
+        <v>0.59047840518305528</v>
+      </c>
+      <c r="L3">
+        <f>K3-J3</f>
+        <v>0.33860745288641614</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>341</v>
+      </c>
+      <c r="E5">
+        <v>343.5</v>
+      </c>
+      <c r="F5">
+        <v>53.332999999999998</v>
+      </c>
+      <c r="G5">
+        <f>B5*N5 + (N5-1)</f>
+        <v>500999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5" si="4">D5*N5+N5-1</f>
+        <v>341999</v>
+      </c>
+      <c r="I5">
+        <f>E5*N5-F5*(N5-1)</f>
+        <v>290220.33299999998</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5" si="5">(G5-H5)/G5</f>
+        <v>0.31736590292595396</v>
+      </c>
+      <c r="K5">
+        <f>(G5-I5)/G5</f>
+        <v>0.42071674194958475</v>
+      </c>
+      <c r="L5">
+        <f>K5-J5</f>
+        <v>0.10335083902363079</v>
+      </c>
+      <c r="N5">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B94E83-E09F-4318-BC2E-04BD1B1A0166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EFF829-4DC7-4572-B1AE-F3A0867AA00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="6285" windowWidth="20925" windowHeight="14205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
   <si>
     <t>Bench</t>
   </si>
@@ -391,21 +391,6 @@
     <t>Measurements reduction</t>
   </si>
   <si>
-    <t>hlf7</t>
-  </si>
-  <si>
-    <t>hlf15</t>
-  </si>
-  <si>
-    <t>BV27</t>
-  </si>
-  <si>
-    <t>IQP27</t>
-  </si>
-  <si>
-    <t>hlf27</t>
-  </si>
-  <si>
     <t>qft100(300)</t>
   </si>
   <si>
@@ -416,6 +401,39 @@
   </si>
   <si>
     <t>bv100</t>
+  </si>
+  <si>
+    <t>hlf(7)</t>
+  </si>
+  <si>
+    <t>bv(5)</t>
+  </si>
+  <si>
+    <t>iqp(5)</t>
+  </si>
+  <si>
+    <t>bv(15)</t>
+  </si>
+  <si>
+    <t>iqp(15)</t>
+  </si>
+  <si>
+    <t>hlf(15)</t>
+  </si>
+  <si>
+    <t>bv(27)</t>
+  </si>
+  <si>
+    <t>iqp(27)</t>
+  </si>
+  <si>
+    <t>hlf(27)</t>
+  </si>
+  <si>
+    <t>bv(50)</t>
+  </si>
+  <si>
+    <t>bv(100)</t>
   </si>
 </sst>
 </file>
@@ -5549,7 +5567,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5583,7 +5601,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -5609,7 +5627,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5634,7 +5652,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -5646,7 +5664,7 @@
         <v>142</v>
       </c>
       <c r="E4">
-        <f>D4-(B4-C4)</f>
+        <f t="shared" ref="E4:E12" si="2">D4-(B4-C4)</f>
         <v>140.80000000000001</v>
       </c>
       <c r="F4">
@@ -5654,13 +5672,13 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="G4">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" ref="G4:G12" si="3">(D4-E4)/D4</f>
         <v>8.450704225352032E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>321</v>
@@ -5672,7 +5690,7 @@
         <v>650</v>
       </c>
       <c r="E5">
-        <f>D5-(B5-C5)</f>
+        <f t="shared" si="2"/>
         <v>516</v>
       </c>
       <c r="F5">
@@ -5680,13 +5698,13 @@
         <v>0.4174454828660436</v>
       </c>
       <c r="G5">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="3"/>
         <v>0.20615384615384616</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>108</v>
@@ -5698,7 +5716,7 @@
         <v>986</v>
       </c>
       <c r="E6">
-        <f>D6-(B6-C6)</f>
+        <f t="shared" si="2"/>
         <v>942</v>
       </c>
       <c r="F6">
@@ -5706,13 +5724,13 @@
         <v>0.40740740740740738</v>
       </c>
       <c r="G6">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="3"/>
         <v>4.4624746450304259E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <v>62</v>
@@ -5724,20 +5742,20 @@
         <v>482</v>
       </c>
       <c r="E7">
-        <f>D7-(B7-C7)</f>
+        <f t="shared" si="2"/>
         <v>482</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B8">
         <v>1355</v>
@@ -5749,7 +5767,7 @@
         <v>1994</v>
       </c>
       <c r="E8">
-        <f>D8-(B8-C8)</f>
+        <f t="shared" si="2"/>
         <v>1508</v>
       </c>
       <c r="F8">
@@ -5757,13 +5775,13 @@
         <v>0.35867158671586719</v>
       </c>
       <c r="G8">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="3"/>
         <v>0.24373119358074222</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B9">
         <v>1043</v>
@@ -5775,7 +5793,7 @@
         <v>4138</v>
       </c>
       <c r="E9">
-        <f>D9-(B9-C9)</f>
+        <f t="shared" si="2"/>
         <v>4039</v>
       </c>
       <c r="F9">
@@ -5783,13 +5801,13 @@
         <v>9.4918504314477473E-2</v>
       </c>
       <c r="G9">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="3"/>
         <v>2.3924601256645722E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B10">
         <v>866</v>
@@ -5801,7 +5819,7 @@
         <v>1928</v>
       </c>
       <c r="E10">
-        <f>D10-(B10-C10)</f>
+        <f t="shared" si="2"/>
         <v>1648</v>
       </c>
       <c r="F10">
@@ -5809,13 +5827,13 @@
         <v>0.32332563510392609</v>
       </c>
       <c r="G10">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="3"/>
         <v>0.14522821576763487</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B11">
         <v>5395</v>
@@ -5827,7 +5845,7 @@
         <v>6633</v>
       </c>
       <c r="E11">
-        <f>D11-(B11-C11)</f>
+        <f t="shared" si="2"/>
         <v>4847</v>
       </c>
       <c r="F11">
@@ -5835,13 +5853,13 @@
         <v>0.331047265987025</v>
       </c>
       <c r="G11">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="3"/>
         <v>0.26925976179707523</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B12">
         <v>23247</v>
@@ -5853,7 +5871,7 @@
         <v>25783</v>
       </c>
       <c r="E12">
-        <f>D12-(B12-C12)</f>
+        <f t="shared" si="2"/>
         <v>18477</v>
       </c>
       <c r="F12">
@@ -5861,7 +5879,7 @@
         <v>0.31427711102507849</v>
       </c>
       <c r="G12">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="3"/>
         <v>0.28336500795097547</v>
       </c>
     </row>
@@ -5933,7 +5951,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1">
         <v>200</v>
@@ -5980,7 +5998,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -6027,7 +6045,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>250</v>
@@ -6134,7 +6152,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>400</v>
@@ -6181,7 +6199,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>400</v>
@@ -6228,7 +6246,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <v>500</v>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EFF829-4DC7-4572-B1AE-F3A0867AA00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DE482-CD81-4765-859E-FAA4CD50F5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="6285" windowWidth="20925" windowHeight="14205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="2565" windowWidth="22800" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5566,7 +5566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6100,8 +6100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A67E9-302D-4499-979D-4DB1E23B1E16}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6261,7 +6261,7 @@
         <v>343.5</v>
       </c>
       <c r="F5">
-        <v>53.332999999999998</v>
+        <v>52.332999999999998</v>
       </c>
       <c r="G5">
         <f>B5*N5 + (N5-1)</f>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I5">
         <f>E5*N5-F5*(N5-1)</f>
-        <v>290220.33299999998</v>
+        <v>291219.33299999998</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5" si="5">(G5-H5)/G5</f>
@@ -6281,11 +6281,11 @@
       </c>
       <c r="K5">
         <f>(G5-I5)/G5</f>
-        <v>0.42071674194958475</v>
+        <v>0.41872272599346511</v>
       </c>
       <c r="L5">
         <f>K5-J5</f>
-        <v>0.10335083902363079</v>
+        <v>0.10135682306751115</v>
       </c>
       <c r="N5">
         <v>1000</v>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DE482-CD81-4765-859E-FAA4CD50F5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1314E1A7-5E14-4E0A-B58B-E370804B66FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="2565" windowWidth="22800" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="1935" windowWidth="26700" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
   <si>
     <t>Bench</t>
   </si>
@@ -434,6 +434,24 @@
   </si>
   <si>
     <t>bv(100)</t>
+  </si>
+  <si>
+    <t>hwea4(12)</t>
+  </si>
+  <si>
+    <t>hwea4(15)</t>
+  </si>
+  <si>
+    <t>hwea15(37)</t>
+  </si>
+  <si>
+    <t>hwea15(45)</t>
+  </si>
+  <si>
+    <t>hwea15(40)</t>
+  </si>
+  <si>
+    <t>hwea15(50)</t>
   </si>
 </sst>
 </file>
@@ -597,7 +615,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$27:$D$41</c:f>
+              <c:f>Sheet1!$D$34:$D$48</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -711,7 +729,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$27:$D$41</c:f>
+              <c:f>Sheet1!$D$34:$D$48</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -2636,16 +2654,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2977,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3122,7 @@
         <v>28999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H20" si="0">D3*N3+N3-1</f>
+        <f t="shared" ref="H3:H23" si="0">D3*N3+N3-1</f>
         <v>14999</v>
       </c>
       <c r="I3">
@@ -3676,7 +3694,7 @@
         <v>16488.625</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J20" si="7">(G19-H19)/G19</f>
+        <f t="shared" ref="J19:J23" si="7">(G19-H19)/G19</f>
         <v>0.20000800032001281</v>
       </c>
       <c r="K19">
@@ -3740,163 +3758,254 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>131</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>18.2</v>
+      </c>
+      <c r="F22">
+        <v>5.25</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G21:G23" si="8">B22*N22 + (N22-1)</f>
+        <v>26999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>16999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I21:I23" si="9">E22*N22-F22*(N22-1)</f>
+        <v>12955.25</v>
       </c>
       <c r="J22">
-        <f t="shared" ref="J22:K23" si="8">(J2+J6+J10+J14+J18)/5</f>
-        <v>0.13190439309483717</v>
+        <f t="shared" si="7"/>
+        <v>0.37038408829956665</v>
       </c>
       <c r="K22">
-        <f t="shared" si="8"/>
-        <v>0.26315230284248364</v>
+        <f t="shared" ref="K21:K23" si="10">(G22-I22)/G22</f>
+        <v>0.52015815400570387</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L21:L23" si="11">K22-J22</f>
+        <v>0.14977406570613722</v>
+      </c>
+      <c r="N22">
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>16.75</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>26999</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>15999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>10756</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>0.40742249712952333</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="10"/>
+        <v>0.60161487462498608</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="11"/>
+        <v>0.19419237749546275</v>
+      </c>
+      <c r="N23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29">
+        <f>(J2+J6+J10+J14+J18)/5</f>
+        <v>0.13190439309483717</v>
+      </c>
+      <c r="K29">
+        <f>(K2+K6+K10+K14+K18)/5</f>
+        <v>0.26315230284248364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>107</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="8"/>
+      <c r="J30">
+        <f>(J3+J7+J11+J15+J19)/5</f>
         <v>0.27113827160912296</v>
       </c>
-      <c r="K23">
-        <f t="shared" ref="K23" si="9">(K3+K7+K11+K15+K19)/5</f>
+      <c r="K30">
+        <f>(K3+K7+K11+K15+K19)/5</f>
         <v>0.38307956376194996</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>108</v>
       </c>
-      <c r="J24">
+      <c r="J31">
         <f>(J4+J8+J12+J16+J20)/5</f>
         <v>0.34524087483254512</v>
       </c>
-      <c r="K24">
-        <f t="shared" ref="K24" si="10">(K4+K8+K12+K16+K20)/5</f>
+      <c r="K31">
+        <f>(K4+K8+K12+K16+K20)/5</f>
         <v>0.48824426931876141</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C35" t="s">
         <v>66</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C36" t="s">
         <v>65</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>66</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3911,11 +4020,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4029,7 +4141,7 @@
         <v>74999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H20" si="0">D3*N3+N3-1</f>
+        <f t="shared" ref="H3:H23" si="0">D3*N3+N3-1</f>
         <v>47999</v>
       </c>
       <c r="I3">
@@ -4583,7 +4695,7 @@
         <v>34361.25</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J20" si="5">(G19-H19)/G19</f>
+        <f t="shared" ref="J19:J23" si="5">(G19-H19)/G19</f>
         <v>0.27869309332939884</v>
       </c>
       <c r="K19">
@@ -4645,34 +4757,190 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21">
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>55.25</v>
+      </c>
+      <c r="F21">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G23" si="6">B21*N21 + (N21-1)</f>
+        <v>66999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>52999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I23" si="7">E21*N21-F21*(N21-1)</f>
+        <v>20285</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>0.20895834266183078</v>
+      </c>
+      <c r="K21">
+        <f>(G21-I21)/G21</f>
+        <v>0.69723428707891166</v>
+      </c>
+      <c r="L21">
+        <f>K21-J21</f>
+        <v>0.48827594441708089</v>
+      </c>
+      <c r="N21">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>55.25</v>
+      </c>
+      <c r="F22">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>66999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>44999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>17288</v>
+      </c>
       <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0.32836310989716266</v>
+      </c>
+      <c r="K22">
+        <f>(G22-I22)/G22</f>
+        <v>0.7419662980044478</v>
+      </c>
+      <c r="L22">
+        <f>K22-J22</f>
+        <v>0.41360318810728514</v>
+      </c>
+      <c r="N22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>52.5</v>
+      </c>
+      <c r="F23">
+        <v>40.332999999999998</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23" si="8">B23*N23 + (N23-1)</f>
+        <v>66999</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23" si="9">D23*N23+N23-1</f>
+        <v>44999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23" si="10">E23*N23-F23*(N23-1)</f>
+        <v>12207.332999999999</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="11">(G23-H23)/G23</f>
+        <v>0.32836310989716266</v>
+      </c>
+      <c r="K23">
+        <f>(G23-I23)/G23</f>
+        <v>0.81779828057135184</v>
+      </c>
+      <c r="L23">
+        <f>K23-J23</f>
+        <v>0.48943517067418918</v>
+      </c>
+      <c r="N23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24">
+        <v>66</v>
+      </c>
+      <c r="D24">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>34.332999999999998</v>
+      </c>
+      <c r="G24">
+        <f>B24*N24 + (N24-1)</f>
+        <v>66999</v>
+      </c>
+      <c r="H24">
+        <f>D24*N24+N24-1</f>
+        <v>39999</v>
+      </c>
+      <c r="I24">
+        <f>E24*N24-F24*(N24-1)</f>
+        <v>12701.332999999999</v>
+      </c>
+      <c r="J24">
+        <f>(G24-H24)/G24</f>
+        <v>0.40299108941924505</v>
+      </c>
+      <c r="K24">
+        <f>(G24-I24)/G24</f>
+        <v>0.81042503619457007</v>
+      </c>
+      <c r="L24">
+        <f>K24-J24</f>
+        <v>0.40743394677532502</v>
+      </c>
+      <c r="N24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J25">
         <f>(J2+J6+J10+J14+J18)/5</f>
         <v>8.906668921893264E-2</v>
       </c>
-      <c r="K22">
-        <f t="shared" ref="J22:K24" si="6">(K2+K6+K10+K14+K18)/5</f>
+      <c r="K25">
+        <f>(K2+K6+K10+K14+K18)/5</f>
         <v>0.35613008983364619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J23">
-        <f t="shared" si="6"/>
-        <v>0.26206634712914517</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="6"/>
-        <v>0.44827484387906119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J24">
-        <f>(J4+J8+J12+J16+J20)/5</f>
-        <v>0.31493042008751371</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="6"/>
-        <v>0.56285848029003804</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4682,6 +4950,14 @@
       <c r="C26" t="s">
         <v>80</v>
       </c>
+      <c r="J26">
+        <f>(J3+J7+J11+J15+J19)/5</f>
+        <v>0.26206634712914517</v>
+      </c>
+      <c r="K26">
+        <f>(K3+K7+K11+K15+K19)/5</f>
+        <v>0.44827484387906119</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4689,6 +4965,14 @@
       </c>
       <c r="C27" t="s">
         <v>81</v>
+      </c>
+      <c r="J27">
+        <f>(J4+J8+J12+J16+J20)/5</f>
+        <v>0.31493042008751371</v>
+      </c>
+      <c r="K27">
+        <f>(K4+K8+K12+K16+K20)/5</f>
+        <v>0.56285848029003804</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4774,8 +5058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6100,7 +6384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A67E9-302D-4499-979D-4DB1E23B1E16}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1314E1A7-5E14-4E0A-B58B-E370804B66FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC379C5E-9C25-4FAF-B6BC-37EF03369B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1935" windowWidth="26700" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25200" yWindow="3735" windowWidth="20925" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="140">
   <si>
     <t>Bench</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>hwea15(50)</t>
+  </si>
+  <si>
+    <t>hwea27(63)</t>
+  </si>
+  <si>
+    <t>hwea27(67)</t>
+  </si>
+  <si>
+    <t>hwea15(80)</t>
   </si>
 </sst>
 </file>
@@ -3773,7 +3782,7 @@
         <v>5.25</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G21:G23" si="8">B22*N22 + (N22-1)</f>
+        <f t="shared" ref="G22:G23" si="8">B22*N22 + (N22-1)</f>
         <v>26999</v>
       </c>
       <c r="H22">
@@ -3781,7 +3790,7 @@
         <v>16999</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I21:I23" si="9">E22*N22-F22*(N22-1)</f>
+        <f t="shared" ref="I22:I23" si="9">E22*N22-F22*(N22-1)</f>
         <v>12955.25</v>
       </c>
       <c r="J22">
@@ -3789,11 +3798,11 @@
         <v>0.37038408829956665</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K21:K23" si="10">(G22-I22)/G22</f>
+        <f t="shared" ref="K22:K23" si="10">(G22-I22)/G22</f>
         <v>0.52015815400570387</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L21:L23" si="11">K22-J22</f>
+        <f t="shared" ref="L22:L23" si="11">K22-J22</f>
         <v>0.14977406570613722</v>
       </c>
       <c r="N22">
@@ -3852,11 +3861,11 @@
         <v>106</v>
       </c>
       <c r="J29">
-        <f>(J2+J6+J10+J14+J18)/5</f>
+        <f t="shared" ref="J29:K31" si="12">(J2+J6+J10+J14+J18)/5</f>
         <v>0.13190439309483717</v>
       </c>
       <c r="K29">
-        <f>(K2+K6+K10+K14+K18)/5</f>
+        <f t="shared" si="12"/>
         <v>0.26315230284248364</v>
       </c>
     </row>
@@ -3865,11 +3874,11 @@
         <v>107</v>
       </c>
       <c r="J30">
-        <f>(J3+J7+J11+J15+J19)/5</f>
+        <f t="shared" si="12"/>
         <v>0.27113827160912296</v>
       </c>
       <c r="K30">
-        <f>(K3+K7+K11+K15+K19)/5</f>
+        <f t="shared" si="12"/>
         <v>0.38307956376194996</v>
       </c>
     </row>
@@ -3878,11 +3887,11 @@
         <v>108</v>
       </c>
       <c r="J31">
-        <f>(J4+J8+J12+J16+J20)/5</f>
+        <f t="shared" si="12"/>
         <v>0.34524087483254512</v>
       </c>
       <c r="K31">
-        <f>(K4+K8+K12+K16+K20)/5</f>
+        <f t="shared" si="12"/>
         <v>0.48824426931876141</v>
       </c>
     </row>
@@ -4020,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,7 +4150,7 @@
         <v>74999</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H23" si="0">D3*N3+N3-1</f>
+        <f t="shared" ref="H3:H22" si="0">D3*N3+N3-1</f>
         <v>47999</v>
       </c>
       <c r="I3">
@@ -4655,11 +4664,11 @@
         <v>0.14754340235085822</v>
       </c>
       <c r="K18">
-        <f>(G18-I18)/G18</f>
+        <f t="shared" ref="K18:K24" si="5">(G18-I18)/G18</f>
         <v>0.38579730815259267</v>
       </c>
       <c r="L18">
-        <f>K18-J18</f>
+        <f t="shared" ref="L18:L24" si="6">K18-J18</f>
         <v>0.23825390580173444</v>
       </c>
       <c r="N18">
@@ -4695,15 +4704,15 @@
         <v>34361.25</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J23" si="5">(G19-H19)/G19</f>
+        <f t="shared" ref="J19:J22" si="7">(G19-H19)/G19</f>
         <v>0.27869309332939884</v>
       </c>
       <c r="K19">
-        <f>(G19-I19)/G19</f>
+        <f t="shared" si="5"/>
         <v>0.43669158510795258</v>
       </c>
       <c r="L19">
-        <f>K19-J19</f>
+        <f t="shared" si="6"/>
         <v>0.15799849177855374</v>
       </c>
       <c r="N19">
@@ -4742,15 +4751,15 @@
         <v>24526</v>
       </c>
       <c r="J20">
+        <f t="shared" si="7"/>
+        <v>0.31148051607403399</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="5"/>
-        <v>0.31148051607403399</v>
-      </c>
-      <c r="K20">
-        <f>(G20-I20)/G20</f>
         <v>0.59792783488253909</v>
       </c>
       <c r="L20">
-        <f>K20-J20</f>
+        <f t="shared" si="6"/>
         <v>0.2864473188085051</v>
       </c>
       <c r="N20">
@@ -4771,10 +4780,10 @@
         <v>55.25</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G23" si="6">B21*N21 + (N21-1)</f>
+        <f t="shared" ref="G21:G22" si="8">B21*N21 + (N21-1)</f>
         <v>66999</v>
       </c>
       <c r="H21">
@@ -4782,20 +4791,20 @@
         <v>52999</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I23" si="7">E21*N21-F21*(N21-1)</f>
-        <v>20285</v>
+        <f t="shared" ref="I21:I22" si="9">E21*N21-F21*(N21-1)</f>
+        <v>19286</v>
       </c>
       <c r="J21">
+        <f t="shared" si="7"/>
+        <v>0.20895834266183078</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="5"/>
-        <v>0.20895834266183078</v>
-      </c>
-      <c r="K21">
-        <f>(G21-I21)/G21</f>
-        <v>0.69723428707891166</v>
+        <v>0.71214495738742367</v>
       </c>
       <c r="L21">
-        <f>K21-J21</f>
-        <v>0.48827594441708089</v>
+        <f t="shared" si="6"/>
+        <v>0.5031866147255929</v>
       </c>
       <c r="N21">
         <v>1000</v>
@@ -4818,7 +4827,7 @@
         <v>38</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>66999</v>
       </c>
       <c r="H22">
@@ -4826,19 +4835,19 @@
         <v>44999</v>
       </c>
       <c r="I22">
+        <f t="shared" si="9"/>
+        <v>17288</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="7"/>
-        <v>17288</v>
-      </c>
-      <c r="J22">
+        <v>0.32836310989716266</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="5"/>
-        <v>0.32836310989716266</v>
-      </c>
-      <c r="K22">
-        <f>(G22-I22)/G22</f>
         <v>0.7419662980044478</v>
       </c>
       <c r="L22">
-        <f>K22-J22</f>
+        <f t="shared" si="6"/>
         <v>0.41360318810728514</v>
       </c>
       <c r="N22">
@@ -4862,27 +4871,27 @@
         <v>40.332999999999998</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23" si="8">B23*N23 + (N23-1)</f>
+        <f t="shared" ref="G23" si="10">B23*N23 + (N23-1)</f>
         <v>66999</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23" si="9">D23*N23+N23-1</f>
+        <f t="shared" ref="H23" si="11">D23*N23+N23-1</f>
         <v>44999</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23" si="10">E23*N23-F23*(N23-1)</f>
+        <f t="shared" ref="I23" si="12">E23*N23-F23*(N23-1)</f>
         <v>12207.332999999999</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23" si="11">(G23-H23)/G23</f>
+        <f t="shared" ref="J23" si="13">(G23-H23)/G23</f>
         <v>0.32836310989716266</v>
       </c>
       <c r="K23">
-        <f>(G23-I23)/G23</f>
+        <f t="shared" si="5"/>
         <v>0.81779828057135184</v>
       </c>
       <c r="L23">
-        <f>K23-J23</f>
+        <f t="shared" si="6"/>
         <v>0.48943517067418918</v>
       </c>
       <c r="N23">
@@ -4922,11 +4931,11 @@
         <v>0.40299108941924505</v>
       </c>
       <c r="K24">
-        <f>(G24-I24)/G24</f>
+        <f t="shared" si="5"/>
         <v>0.81042503619457007</v>
       </c>
       <c r="L24">
-        <f>K24-J24</f>
+        <f t="shared" si="6"/>
         <v>0.40743394677532502</v>
       </c>
       <c r="N24">
@@ -4935,11 +4944,11 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J25">
-        <f>(J2+J6+J10+J14+J18)/5</f>
+        <f t="shared" ref="J25:K27" si="14">(J2+J6+J10+J14+J18)/5</f>
         <v>8.906668921893264E-2</v>
       </c>
       <c r="K25">
-        <f>(K2+K6+K10+K14+K18)/5</f>
+        <f t="shared" si="14"/>
         <v>0.35613008983364619</v>
       </c>
     </row>
@@ -4951,11 +4960,11 @@
         <v>80</v>
       </c>
       <c r="J26">
-        <f>(J3+J7+J11+J15+J19)/5</f>
+        <f t="shared" si="14"/>
         <v>0.26206634712914517</v>
       </c>
       <c r="K26">
-        <f>(K3+K7+K11+K15+K19)/5</f>
+        <f t="shared" si="14"/>
         <v>0.44827484387906119</v>
       </c>
     </row>
@@ -4967,11 +4976,11 @@
         <v>81</v>
       </c>
       <c r="J27">
-        <f>(J4+J8+J12+J16+J20)/5</f>
+        <f t="shared" si="14"/>
         <v>0.31493042008751371</v>
       </c>
       <c r="K27">
-        <f>(K4+K8+K12+K16+K20)/5</f>
+        <f t="shared" si="14"/>
         <v>0.56285848029003804</v>
       </c>
     </row>
@@ -5058,11 +5067,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5184,7 +5196,7 @@
         <v>91686</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J20" si="1">(G3-H3)/G3</f>
+        <f t="shared" ref="J3:J23" si="1">(G3-H3)/G3</f>
         <v>0.18518655693745881</v>
       </c>
       <c r="K3">
@@ -5725,7 +5737,7 @@
         <v>108999</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H20" si="5">D19*N19+N19-1</f>
+        <f t="shared" ref="H19:H23" si="5">D19*N19+N19-1</f>
         <v>79999</v>
       </c>
       <c r="I19">
@@ -5795,39 +5807,169 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21">
+        <v>114</v>
+      </c>
+      <c r="D21">
+        <v>94</v>
+      </c>
+      <c r="E21">
+        <v>103.25</v>
+      </c>
+      <c r="F21">
+        <v>80</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G23" si="6">B21*N21 + (N21-1)</f>
+        <v>114999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>94999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I23" si="7">E21*N21-F21*(N21-1)</f>
+        <v>23330</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0.1739145557787459</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K24" si="8">(G21-I21)/G21</f>
+        <v>0.79712867068409288</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L24" si="9">K21-J21</f>
+        <v>0.62321411490534695</v>
+      </c>
+      <c r="N21">
+        <v>1000</v>
+      </c>
+    </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22">
+        <v>114</v>
+      </c>
+      <c r="D22">
+        <v>94</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>114999</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>94999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>20080</v>
+      </c>
       <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.1739145557787459</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>0.82538978599813917</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>0.65147523021939324</v>
+      </c>
+      <c r="N22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23">
+        <v>114</v>
+      </c>
+      <c r="D23">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>88</v>
+      </c>
+      <c r="F23">
+        <v>74.332999999999998</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>114999</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>81999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>13741.332999999999</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.28695901703493076</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>0.88050910877485888</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>0.59355009173992812</v>
+      </c>
+      <c r="N23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J26">
         <f>(J2+J6+J10+J14+J18)/5</f>
         <v>5.0398280429864238E-2</v>
       </c>
-      <c r="K22">
-        <f t="shared" ref="J22:K24" si="6">(K2+K6+K10+K14+K18)/5</f>
+      <c r="K26">
+        <f>(K2+K6+K10+K14+K18)/5</f>
         <v>0.30958176561628958</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J23">
-        <f t="shared" si="6"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f>(J3+J7+J11+J15+J19)/5</f>
         <v>0.20983408284401728</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="6"/>
+      <c r="K27">
+        <f>(K3+K7+K11+K15+K19)/5</f>
         <v>0.39307212319259943</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J24">
-        <f>(J4+J8+J12+J16+J20)/5</f>
-        <v>0.2756952279238693</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="6"/>
-        <v>0.50906236045124431</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
+      </c>
+      <c r="J28">
+        <f>(J4+J8+J12+J16+J20)/5</f>
+        <v>0.2756952279238693</v>
+      </c>
+      <c r="K28">
+        <f>(K4+K8+K12+K16+K20)/5</f>
+        <v>0.50906236045124431</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC379C5E-9C25-4FAF-B6BC-37EF03369B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7F9D7-2684-4676-89CA-97E753C4F775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="3735" windowWidth="20925" windowHeight="14205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21675" yWindow="9840" windowWidth="20040" windowHeight="15690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="50" sheetId="6" r:id="rId5"/>
     <sheet name="100" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
   <si>
     <t>Bench</t>
   </si>
@@ -436,12 +437,6 @@
     <t>bv(100)</t>
   </si>
   <si>
-    <t>hwea4(12)</t>
-  </si>
-  <si>
-    <t>hwea4(15)</t>
-  </si>
-  <si>
     <t>hwea15(37)</t>
   </si>
   <si>
@@ -451,9 +446,6 @@
     <t>hwea15(40)</t>
   </si>
   <si>
-    <t>hwea15(50)</t>
-  </si>
-  <si>
     <t>hwea27(63)</t>
   </si>
   <si>
@@ -461,6 +453,78 @@
   </si>
   <si>
     <t>hwea15(80)</t>
+  </si>
+  <si>
+    <t>hwea5(12)</t>
+  </si>
+  <si>
+    <t>hwea5(15)</t>
+  </si>
+  <si>
+    <t>C1S</t>
+  </si>
+  <si>
+    <t>C1_100</t>
+  </si>
+  <si>
+    <t>C2S</t>
+  </si>
+  <si>
+    <t>C2100</t>
+  </si>
+  <si>
+    <t>bv(s)</t>
+  </si>
+  <si>
+    <t>bv(m)</t>
+  </si>
+  <si>
+    <t>bv(l)</t>
+  </si>
+  <si>
+    <t>iqp(s)</t>
+  </si>
+  <si>
+    <t>iqp(m)</t>
+  </si>
+  <si>
+    <t>iqp(l)</t>
+  </si>
+  <si>
+    <t>hwea(s)</t>
+  </si>
+  <si>
+    <t>hwea(m)</t>
+  </si>
+  <si>
+    <t>hwea(l)</t>
+  </si>
+  <si>
+    <t>qft(s)</t>
+  </si>
+  <si>
+    <t>qft(m)</t>
+  </si>
+  <si>
+    <t>qft(l)</t>
+  </si>
+  <si>
+    <t>hc(s)</t>
+  </si>
+  <si>
+    <t>hc(m)</t>
+  </si>
+  <si>
+    <t>hc(l)</t>
+  </si>
+  <si>
+    <t>Ave(s)</t>
+  </si>
+  <si>
+    <t>Ave(m)</t>
+  </si>
+  <si>
+    <t>Ave(l)</t>
   </si>
 </sst>
 </file>
@@ -3006,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,7 +3831,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B22">
         <v>26</v>
@@ -3811,7 +3875,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B23">
         <v>26</v>
@@ -3820,13 +3884,13 @@
         <v>-1</v>
       </c>
       <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
         <v>15</v>
       </c>
-      <c r="E23">
-        <v>16.75</v>
-      </c>
       <c r="F23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <f t="shared" si="8"/>
@@ -3834,23 +3898,23 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>15999</v>
+        <v>14999</v>
       </c>
       <c r="I23">
         <f t="shared" si="9"/>
-        <v>10756</v>
+        <v>11004</v>
       </c>
       <c r="J23">
         <f t="shared" si="7"/>
-        <v>0.40742249712952333</v>
+        <v>0.44446090595947996</v>
       </c>
       <c r="K23">
         <f t="shared" si="10"/>
-        <v>0.60161487462498608</v>
+        <v>0.59242934923515689</v>
       </c>
       <c r="L23">
         <f t="shared" si="11"/>
-        <v>0.19419237749546275</v>
+        <v>0.14796844327567693</v>
       </c>
       <c r="N23">
         <v>1000</v>
@@ -4029,8 +4093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4768,7 +4832,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21">
         <v>66</v>
@@ -4812,7 +4876,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22">
         <v>66</v>
@@ -4856,7 +4920,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23">
         <v>66</v>
@@ -4895,50 +4959,6 @@
         <v>0.48943517067418918</v>
       </c>
       <c r="N23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24">
-        <v>66</v>
-      </c>
-      <c r="D24">
-        <v>39</v>
-      </c>
-      <c r="E24">
-        <v>47</v>
-      </c>
-      <c r="F24">
-        <v>34.332999999999998</v>
-      </c>
-      <c r="G24">
-        <f>B24*N24 + (N24-1)</f>
-        <v>66999</v>
-      </c>
-      <c r="H24">
-        <f>D24*N24+N24-1</f>
-        <v>39999</v>
-      </c>
-      <c r="I24">
-        <f>E24*N24-F24*(N24-1)</f>
-        <v>12701.332999999999</v>
-      </c>
-      <c r="J24">
-        <f>(G24-H24)/G24</f>
-        <v>0.40299108941924505</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="5"/>
-        <v>0.81042503619457007</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="6"/>
-        <v>0.40743394677532502</v>
-      </c>
-      <c r="N24">
         <v>1000</v>
       </c>
     </row>
@@ -5067,8 +5087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5809,7 +5829,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B21">
         <v>114</v>
@@ -5821,7 +5841,7 @@
         <v>103.25</v>
       </c>
       <c r="F21">
-        <v>80</v>
+        <v>82.3333333333333</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G23" si="6">B21*N21 + (N21-1)</f>
@@ -5833,19 +5853,19 @@
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I23" si="7">E21*N21-F21*(N21-1)</f>
-        <v>23330</v>
+        <v>20999.000000000029</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
         <v>0.1739145557787459</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K24" si="8">(G21-I21)/G21</f>
-        <v>0.79712867068409288</v>
+        <f t="shared" ref="K21:K23" si="8">(G21-I21)/G21</f>
+        <v>0.81739841216010545</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21:L24" si="9">K21-J21</f>
-        <v>0.62321411490534695</v>
+        <f t="shared" ref="L21:L23" si="9">K21-J21</f>
+        <v>0.64348385638135952</v>
       </c>
       <c r="N21">
         <v>1000</v>
@@ -5853,7 +5873,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B22">
         <v>114</v>
@@ -5897,7 +5917,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B23">
         <v>114</v>
@@ -5906,10 +5926,10 @@
         <v>81</v>
       </c>
       <c r="E23">
-        <v>88</v>
+        <v>93.75</v>
       </c>
       <c r="F23">
-        <v>74.332999999999998</v>
+        <v>82.3333333333333</v>
       </c>
       <c r="G23">
         <f t="shared" si="6"/>
@@ -5921,7 +5941,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>13741.332999999999</v>
+        <v>11499.000000000029</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
@@ -5929,11 +5949,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="8"/>
-        <v>0.88050910877485888</v>
+        <v>0.90000782615500974</v>
       </c>
       <c r="L23">
         <f t="shared" si="9"/>
-        <v>0.59355009173992812</v>
+        <v>0.61304880912007897</v>
       </c>
       <c r="N23">
         <v>1000</v>
@@ -5941,21 +5961,21 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J26">
-        <f>(J2+J6+J10+J14+J18)/5</f>
+        <f t="shared" ref="J26:K28" si="10">(J2+J6+J10+J14+J18)/5</f>
         <v>5.0398280429864238E-2</v>
       </c>
       <c r="K26">
-        <f>(K2+K6+K10+K14+K18)/5</f>
+        <f t="shared" si="10"/>
         <v>0.30958176561628958</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J27">
-        <f>(J3+J7+J11+J15+J19)/5</f>
+        <f t="shared" si="10"/>
         <v>0.20983408284401728</v>
       </c>
       <c r="K27">
-        <f>(K3+K7+K11+K15+K19)/5</f>
+        <f t="shared" si="10"/>
         <v>0.39307212319259943</v>
       </c>
     </row>
@@ -5964,7 +5984,7 @@
         <v>61</v>
       </c>
       <c r="J28">
-        <f>(J4+J8+J12+J16+J20)/5</f>
+        <f t="shared" si="10"/>
         <v>0.2756952279238693</v>
       </c>
       <c r="K28">
@@ -5992,8 +6012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6527,7 +6547,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6720,4 +6740,351 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AF73E7-F7C1-4821-9A7B-2C781D220F9F}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2">
+        <v>0.48277526811269356</v>
+      </c>
+      <c r="C2">
+        <v>0.55174316355736408</v>
+      </c>
+      <c r="D2">
+        <v>0.50343115279837236</v>
+      </c>
+      <c r="E2">
+        <v>0.63788406496775751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3">
+        <v>0.36000480006400087</v>
+      </c>
+      <c r="C3">
+        <v>0.42667235563140843</v>
+      </c>
+      <c r="D3">
+        <v>0.46652622034960467</v>
+      </c>
+      <c r="E3">
+        <v>0.52251363351511348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4">
+        <v>0.18518655693745881</v>
+      </c>
+      <c r="C4">
+        <v>0.37037311387491761</v>
+      </c>
+      <c r="D4">
+        <v>0.32083941362528612</v>
+      </c>
+      <c r="E4">
+        <v>0.47148497396277012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5">
+        <v>0.21740075655463281</v>
+      </c>
+      <c r="C5">
+        <v>0.30436105917648593</v>
+      </c>
+      <c r="D5">
+        <v>0.33443845384581938</v>
+      </c>
+      <c r="E5">
+        <v>0.40633288403843648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6">
+        <v>0.23457079717033544</v>
+      </c>
+      <c r="C6">
+        <v>0.23457079717033544</v>
+      </c>
+      <c r="D6">
+        <v>0.37429680613340904</v>
+      </c>
+      <c r="E6">
+        <v>0.49907714910060619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7">
+        <v>8.3799350834362199E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.1675987016687244</v>
+      </c>
+      <c r="D7">
+        <v>0.30534807457024898</v>
+      </c>
+      <c r="E7">
+        <v>0.42279007145291314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8">
+        <v>0.37038408829956665</v>
+      </c>
+      <c r="C8">
+        <v>0.44446090595947996</v>
+      </c>
+      <c r="D8">
+        <v>0.52015815400570387</v>
+      </c>
+      <c r="E8">
+        <v>0.59242934923515689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>0.20895834266183078</v>
+      </c>
+      <c r="C9">
+        <v>0.32836310989716266</v>
+      </c>
+      <c r="D9">
+        <v>0.71214495738742367</v>
+      </c>
+      <c r="E9">
+        <v>0.81779828057135184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10">
+        <v>0.1739145557787459</v>
+      </c>
+      <c r="C10">
+        <v>0.28695901703493076</v>
+      </c>
+      <c r="D10">
+        <v>0.81739841216010545</v>
+      </c>
+      <c r="E10">
+        <v>0.90000782615500974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11">
+        <v>0.23810657650364303</v>
+      </c>
+      <c r="C11">
+        <v>0.28572789180437164</v>
+      </c>
+      <c r="D11">
+        <v>0.43765179294252105</v>
+      </c>
+      <c r="E11">
+        <v>0.57746559359969529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12">
+        <v>0.2295119592124461</v>
+      </c>
+      <c r="C12">
+        <v>0.26229938195708125</v>
+      </c>
+      <c r="D12">
+        <v>0.46042558074722534</v>
+      </c>
+      <c r="E12">
+        <v>0.59221052804144325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13">
+        <v>0.23853429847980256</v>
+      </c>
+      <c r="C13">
+        <v>0.25688309067055659</v>
+      </c>
+      <c r="D13">
+        <v>0.47681171386893456</v>
+      </c>
+      <c r="E13">
+        <v>0.59448022458921645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14">
+        <v>0.20000800032001281</v>
+      </c>
+      <c r="C14">
+        <v>0.28001120044801792</v>
+      </c>
+      <c r="D14">
+        <v>0.34042861714468581</v>
+      </c>
+      <c r="E14">
+        <v>0.46308852354094165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15">
+        <v>0.27869309332939884</v>
+      </c>
+      <c r="C15">
+        <v>0.31148051607403399</v>
+      </c>
+      <c r="D15">
+        <v>0.43669158510795258</v>
+      </c>
+      <c r="E15">
+        <v>0.59792783488253909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16">
+        <v>0.26605748676593366</v>
+      </c>
+      <c r="C16">
+        <v>0.28440627895668769</v>
+      </c>
+      <c r="D16">
+        <v>0.45240017798328425</v>
+      </c>
+      <c r="E16">
+        <v>0.61118294663253792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B2,B5,B8,B11,B14)</f>
+        <v>0.30173493795810974</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C2,C5,C8,C11,C14)</f>
+        <v>0.37326084418914396</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(D2,D5,D8,D11,D14)</f>
+        <v>0.42722163414742048</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="C17:E17" si="0">AVERAGE(E2,E5,E8,E11,E14)</f>
+        <v>0.53544008307639757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:E19" si="1">AVERAGE(B3,B6,B9,B12,B15)</f>
+        <v>0.26234779848760237</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C3,C6,C9,C12,C15)</f>
+        <v>0.31267723214600435</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>0.49001702994512303</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.60590548522221066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0.18949844975926061</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE(C4,C7,C10,C13,C16)</f>
+        <v>0.27324404044116346</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(D4,D7,D10,D13,D16)</f>
+        <v>0.47455955844157194</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.59998920855848947</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7F9D7-2684-4676-89CA-97E753C4F775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3298E2E-6C31-4CCA-B52F-4BF01E2C537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21675" yWindow="9840" windowWidth="20040" windowHeight="15690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="3120" windowWidth="19530" windowHeight="15690" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="50" sheetId="6" r:id="rId5"/>
     <sheet name="100" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="utilization" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="174">
   <si>
     <t>Bench</t>
   </si>
@@ -525,13 +526,52 @@
   </si>
   <si>
     <t>Ave(l)</t>
+  </si>
+  <si>
+    <t>100-c2</t>
+  </si>
+  <si>
+    <t>original source</t>
+  </si>
+  <si>
+    <t>original usage</t>
+  </si>
+  <si>
+    <t>current usage</t>
+  </si>
+  <si>
+    <t>current source</t>
+  </si>
+  <si>
+    <t>original depth</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>current depth</t>
+  </si>
+  <si>
+    <t>original utilization</t>
+  </si>
+  <si>
+    <t>current utilization</t>
+  </si>
+  <si>
+    <t>shots</t>
+  </si>
+  <si>
+    <t>original single usage</t>
+  </si>
+  <si>
+    <t>current single usage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +592,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -570,16 +625,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{95D521C2-6816-419E-BFF9-E655EA0B57FE}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{CDF3FFAB-D93D-47B3-86F1-61287D1E469C}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{E5B46D14-5E44-45C1-8292-A98B81838054}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{62469A36-D6EF-4287-AB59-33EC8B4D6A8E}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{4279937C-B1FA-49A6-8DD6-A793FB7F6905}"/>
+    <cellStyle name="Normal 6" xfId="6" xr:uid="{00C31B0E-FACE-4CC5-B6CF-258ACB22E53B}"/>
+    <cellStyle name="Normal 7" xfId="7" xr:uid="{CA1F5A1D-323B-4053-9F41-6D4D6F02CDD2}"/>
+    <cellStyle name="Normal 8" xfId="8" xr:uid="{04DEB3D3-0662-4448-AE11-DE7E119D2BD7}"/>
+    <cellStyle name="Normal 9" xfId="9" xr:uid="{C427F987-B2C7-42A5-8529-D618939C54DA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3071,10 +3147,10 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="I23" activeCellId="1" sqref="G23 I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -3083,7 +3159,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3124,7 +3200,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3171,7 +3247,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -3218,7 +3294,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3265,7 +3341,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3388,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3359,7 +3435,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3406,7 +3482,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3453,7 +3529,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -3500,7 +3576,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3547,7 +3623,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3594,7 +3670,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -3641,7 +3717,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3688,7 +3764,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3735,7 +3811,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -3782,7 +3858,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3829,7 +3905,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -3873,7 +3949,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -3920,7 +3996,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -3933,7 +4009,7 @@
         <v>0.26315230284248364</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3946,7 +4022,7 @@
         <v>0.38307956376194996</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -3959,7 +4035,7 @@
         <v>0.48824426931876141</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -3967,7 +4043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -3981,7 +4057,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -3995,7 +4071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -4003,7 +4079,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -4017,67 +4093,67 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="D39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="D40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="D41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="D42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="D43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="D44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="D45" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="D46" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="D47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="D48" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4">
       <c r="D49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4">
       <c r="D50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4">
       <c r="D51" t="s">
         <v>111</v>
       </c>
@@ -4094,15 +4170,15 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4143,7 +4219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -4190,7 +4266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4237,7 +4313,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4284,7 +4360,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4331,7 +4407,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -4375,7 +4451,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -4422,7 +4498,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4466,7 +4542,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4510,7 +4586,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -4554,7 +4630,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -4601,7 +4677,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -4648,7 +4724,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4695,7 +4771,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -4728,18 +4804,18 @@
         <v>0.14754340235085822</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K24" si="5">(G18-I18)/G18</f>
+        <f t="shared" ref="K18:K23" si="5">(G18-I18)/G18</f>
         <v>0.38579730815259267</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L24" si="6">K18-J18</f>
+        <f t="shared" ref="L18:L23" si="6">K18-J18</f>
         <v>0.23825390580173444</v>
       </c>
       <c r="N18">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -4783,7 +4859,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -4830,7 +4906,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -4874,7 +4950,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -4918,7 +4994,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>132</v>
       </c>
@@ -4962,7 +5038,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="J25">
         <f t="shared" ref="J25:K27" si="14">(J2+J6+J10+J14+J18)/5</f>
         <v>8.906668921893264E-2</v>
@@ -4972,7 +5048,7 @@
         <v>0.35613008983364619</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -4988,7 +5064,7 @@
         <v>0.44827484387906119</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -5004,7 +5080,7 @@
         <v>0.56285848029003804</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5012,7 +5088,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -5020,7 +5096,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -5028,52 +5104,52 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="C31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="C32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3">
       <c r="C38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3">
       <c r="C39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3">
       <c r="C40" t="s">
         <v>60</v>
       </c>
@@ -5088,15 +5164,15 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="I23" activeCellId="9" sqref="G4 I4 G8 I8 G16 I16 G20 I20 G23 I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5137,7 +5213,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -5184,7 +5260,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -5231,7 +5307,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -5278,7 +5354,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -5322,7 +5398,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -5366,7 +5442,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -5413,7 +5489,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -5457,7 +5533,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -5501,7 +5577,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -5548,7 +5624,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -5592,7 +5668,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -5639,7 +5715,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -5686,7 +5762,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -5733,7 +5809,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -5780,7 +5856,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -5827,7 +5903,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -5871,7 +5947,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -5915,7 +5991,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -5959,7 +6035,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="J26">
         <f t="shared" ref="J26:K28" si="10">(J2+J6+J10+J14+J18)/5</f>
         <v>5.0398280429864238E-2</v>
@@ -5969,7 +6045,7 @@
         <v>0.30958176561628958</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="J27">
         <f t="shared" si="10"/>
         <v>0.20983408284401728</v>
@@ -5979,7 +6055,7 @@
         <v>0.39307212319259943</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -5992,12 +6068,12 @@
         <v>0.50906236045124431</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -6012,11 +6088,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422AE11-086A-49E8-8FB2-936F34BE6B38}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
@@ -6025,7 +6101,7 @@
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>77</v>
       </c>
@@ -6045,7 +6121,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -6071,7 +6147,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -6096,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -6122,7 +6198,7 @@
         <v>8.450704225352032E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -6148,7 +6224,7 @@
         <v>0.20615384615384616</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -6174,7 +6250,7 @@
         <v>4.4624746450304259E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -6199,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -6225,7 +6301,7 @@
         <v>0.24373119358074222</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -6251,7 +6327,7 @@
         <v>2.3924601256645722E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -6277,7 +6353,7 @@
         <v>0.14522821576763487</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -6303,7 +6379,7 @@
         <v>0.26925976179707523</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -6329,7 +6405,7 @@
         <v>0.28336500795097547</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="F13">
         <f>AVERAGE(F2:F12)</f>
         <v>0.29064481758362049</v>
@@ -6352,9 +6428,9 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6395,7 +6471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
@@ -6442,7 +6518,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -6489,7 +6565,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -6550,12 +6626,12 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6596,7 +6672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -6643,7 +6719,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -6690,7 +6766,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -6750,9 +6826,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>139</v>
       </c>
@@ -6766,7 +6842,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -6783,7 +6859,7 @@
         <v>0.63788406496775751</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -6800,7 +6876,7 @@
         <v>0.52251363351511348</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -6817,7 +6893,7 @@
         <v>0.47148497396277012</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -6834,7 +6910,7 @@
         <v>0.40633288403843648</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -6851,7 +6927,7 @@
         <v>0.49907714910060619</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -6868,7 +6944,7 @@
         <v>0.42279007145291314</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -6885,7 +6961,7 @@
         <v>0.59242934923515689</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -6902,7 +6978,7 @@
         <v>0.81779828057135184</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -6919,7 +6995,7 @@
         <v>0.90000782615500974</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -6936,7 +7012,7 @@
         <v>0.57746559359969529</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -6953,7 +7029,7 @@
         <v>0.59221052804144325</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -6970,7 +7046,7 @@
         <v>0.59448022458921645</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -6987,7 +7063,7 @@
         <v>0.46308852354094165</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -7004,7 +7080,7 @@
         <v>0.59792783488253909</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -7021,7 +7097,7 @@
         <v>0.61118294663253792</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -7038,11 +7114,11 @@
         <v>0.42722163414742048</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="C17:E17" si="0">AVERAGE(E2,E5,E8,E11,E14)</f>
+        <f t="shared" ref="E17" si="0">AVERAGE(E2,E5,E8,E11,E14)</f>
         <v>0.53544008307639757</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -7063,7 +7139,7 @@
         <v>0.60590548522221066</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -7082,6 +7158,807 @@
       <c r="E19">
         <f t="shared" si="1"/>
         <v>0.59998920855848947</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5A0B76-FF96-46F8-BB70-83369D9DD483}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>28999</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>434985</v>
+      </c>
+      <c r="E2">
+        <v>88</v>
+      </c>
+      <c r="F2">
+        <f>O2*E2</f>
+        <v>88000</v>
+      </c>
+      <c r="G2">
+        <f>F2/D2</f>
+        <v>0.20230582663770014</v>
+      </c>
+      <c r="H2">
+        <v>10501</v>
+      </c>
+      <c r="I2">
+        <f>B2*H2</f>
+        <v>157515</v>
+      </c>
+      <c r="J2">
+        <v>80</v>
+      </c>
+      <c r="K2">
+        <f>J2*O2</f>
+        <v>80000</v>
+      </c>
+      <c r="L2">
+        <f>K2/I2</f>
+        <v>0.50788813763768526</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>74999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">B3*C3</f>
+        <v>3749950</v>
+      </c>
+      <c r="E3">
+        <v>650</v>
+      </c>
+      <c r="F3">
+        <f>O3*E3</f>
+        <v>650000</v>
+      </c>
+      <c r="G3">
+        <f>F3/D3</f>
+        <v>0.17333564447525968</v>
+      </c>
+      <c r="H3">
+        <v>35811</v>
+      </c>
+      <c r="I3">
+        <f>B3*H3</f>
+        <v>1790550</v>
+      </c>
+      <c r="J3">
+        <v>650</v>
+      </c>
+      <c r="K3">
+        <f>J3*O3</f>
+        <v>650000</v>
+      </c>
+      <c r="L3">
+        <f>K3/I3</f>
+        <v>0.36301695009913154</v>
+      </c>
+      <c r="O3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>134999</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>12149910</v>
+      </c>
+      <c r="E4">
+        <v>1994</v>
+      </c>
+      <c r="F4">
+        <f>O4*E4</f>
+        <v>1994000</v>
+      </c>
+      <c r="G4">
+        <f>F4/D4</f>
+        <v>0.1641164420147968</v>
+      </c>
+      <c r="H4">
+        <v>71349</v>
+      </c>
+      <c r="I4">
+        <f>B4*H4</f>
+        <v>6421410</v>
+      </c>
+      <c r="J4">
+        <v>1994</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K16" si="1">J4*O4</f>
+        <v>1994000</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L16" si="2">K4/I4</f>
+        <v>0.31052370118089329</v>
+      </c>
+      <c r="O4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>22999</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>321986</v>
+      </c>
+      <c r="E5">
+        <v>108</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F4:F16" si="3">O5*E5</f>
+        <v>108000</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G4:G16" si="4">F5/D5</f>
+        <v>0.33541831011286205</v>
+      </c>
+      <c r="H5">
+        <v>13653.75</v>
+      </c>
+      <c r="I5">
+        <f>B5*H5</f>
+        <v>191152.5</v>
+      </c>
+      <c r="J5">
+        <v>108</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>108000</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.56499391846823876</v>
+      </c>
+      <c r="O5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>80999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3644955</v>
+      </c>
+      <c r="E6">
+        <v>986</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>986000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>0.27051088422216463</v>
+      </c>
+      <c r="H6">
+        <v>40574.25</v>
+      </c>
+      <c r="I6">
+        <f>B6*H6</f>
+        <v>1825841.25</v>
+      </c>
+      <c r="J6">
+        <v>942</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>942000</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.51592656261873804</v>
+      </c>
+      <c r="O6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>178999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>14319920</v>
+      </c>
+      <c r="E7">
+        <v>4039</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4039000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>0.28205464834999078</v>
+      </c>
+      <c r="H7">
+        <v>103320</v>
+      </c>
+      <c r="I7">
+        <f>B7*H7</f>
+        <v>8265600</v>
+      </c>
+      <c r="J7">
+        <v>4039</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>4039000</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.48865176151761519</v>
+      </c>
+      <c r="O7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>26999</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>404985</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>76000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>0.18766127140511377</v>
+      </c>
+      <c r="H8">
+        <v>11004</v>
+      </c>
+      <c r="I8">
+        <f>B8*H8</f>
+        <v>165060</v>
+      </c>
+      <c r="J8">
+        <v>76</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>76000</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.46043862837755967</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>66999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3014955</v>
+      </c>
+      <c r="E9">
+        <v>246</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>246000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>8.1593257610810113E-2</v>
+      </c>
+      <c r="H9">
+        <v>12207.332999999999</v>
+      </c>
+      <c r="I9">
+        <f>B9*H9</f>
+        <v>549329.98499999999</v>
+      </c>
+      <c r="J9">
+        <v>246</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>246000</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.44781826355246201</v>
+      </c>
+      <c r="O9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>114999</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9199920</v>
+      </c>
+      <c r="E10">
+        <v>450</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>450000</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>4.8913468812772282E-2</v>
+      </c>
+      <c r="H10">
+        <v>11499.000000000029</v>
+      </c>
+      <c r="I10">
+        <f>B10*H10</f>
+        <v>919920.00000000233</v>
+      </c>
+      <c r="J10">
+        <v>450</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>450000</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.48917297156274336</v>
+      </c>
+      <c r="O10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>20999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>314985</v>
+      </c>
+      <c r="E11">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>72000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0.2285823134434973</v>
+      </c>
+      <c r="H11">
+        <v>8872.7999999999993</v>
+      </c>
+      <c r="I11">
+        <f>B11*H11</f>
+        <v>133092</v>
+      </c>
+      <c r="J11">
+        <v>72</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>72000</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.54097917230186643</v>
+      </c>
+      <c r="O11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>60999</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2744955</v>
+      </c>
+      <c r="E12">
+        <v>662</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>662000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0.24116970952164971</v>
+      </c>
+      <c r="H12">
+        <v>24874.75</v>
+      </c>
+      <c r="I12">
+        <f>B12*H12</f>
+        <v>1119363.75</v>
+      </c>
+      <c r="J12">
+        <v>662</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>662000</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.59140739549587884</v>
+      </c>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>108999</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>8719920</v>
+      </c>
+      <c r="E13">
+        <v>2162</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>2162000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0.24793805447756401</v>
+      </c>
+      <c r="H13">
+        <v>44201.25</v>
+      </c>
+      <c r="I13">
+        <f>B13*H13</f>
+        <v>3536100</v>
+      </c>
+      <c r="J13">
+        <v>2162</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>2162000</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.61140804841492036</v>
+      </c>
+      <c r="O13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>24999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>424983</v>
+      </c>
+      <c r="E14">
+        <v>134</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>134000</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0.31530672991625547</v>
+      </c>
+      <c r="H14">
+        <v>13422.25</v>
+      </c>
+      <c r="I14">
+        <f>B14*H14</f>
+        <v>228178.25</v>
+      </c>
+      <c r="J14">
+        <v>134</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>134000</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.58726017926774354</v>
+      </c>
+      <c r="O14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>60999</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2744955</v>
+      </c>
+      <c r="E15">
+        <v>710</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>710000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>0.25865633498545515</v>
+      </c>
+      <c r="H15">
+        <v>24526</v>
+      </c>
+      <c r="I15">
+        <f>B15*H15</f>
+        <v>1103670</v>
+      </c>
+      <c r="J15">
+        <v>710</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>710000</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.64330823525147918</v>
+      </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>108999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>8719920</v>
+      </c>
+      <c r="E16">
+        <v>2258</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>2258000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0.25894732979201646</v>
+      </c>
+      <c r="H16">
+        <v>42380.67</v>
+      </c>
+      <c r="I16">
+        <f>B16*H16</f>
+        <v>3390453.5999999996</v>
+      </c>
+      <c r="J16">
+        <v>2258</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>2258000</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0.66598758349030351</v>
+      </c>
+      <c r="O16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(G2:G16)</f>
+        <v>0.21976734838519391</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGE(L2:L16)</f>
+        <v>0.51925210061581717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="E24">
+        <v>4138</v>
+      </c>
+      <c r="I24">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="I25">
+        <v>4039</v>
       </c>
     </row>
   </sheetData>

--- a/example/new_result.xlsx
+++ b/example/new_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yingheng\Project\DP_MBQC\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pitt_research\DP_MBQC\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B6274D-79B6-4B9D-8643-654F8CA9A4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75CACC9-13C5-434C-AF8A-9BE0F5D92374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="3615" windowWidth="26700" windowHeight="11385" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23685" yWindow="2655" windowWidth="26055" windowHeight="15690" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="186">
   <si>
     <t>Bench</t>
   </si>
@@ -587,6 +587,21 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>Success rate</t>
+  </si>
+  <si>
+    <t>original photons</t>
+  </si>
+  <si>
+    <t>improved photons</t>
+  </si>
+  <si>
+    <t>Original success rate</t>
+  </si>
+  <si>
+    <t>Width</t>
   </si>
 </sst>
 </file>
@@ -840,7 +855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$J$3:$J$4,Sheet1!$J$7:$J$8,Sheet1!$J$15:$J$16,Sheet1!$J$11:$J$12,Sheet1!$J$19:$J$20)</c:f>
+              <c:f>(Sheet1!$K$3:$K$4,Sheet1!$K$7:$K$8,Sheet1!$K$15:$K$16,Sheet1!$K$11:$K$12,Sheet1!$K$19:$K$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -954,7 +969,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$K$3:$K$4,Sheet1!$K$7:$K$8,Sheet1!$K$15:$K$16,Sheet1!$K$11:$K$12,Sheet1!$K$19:$K$20)</c:f>
+              <c:f>(Sheet1!$L$3:$L$4,Sheet1!$L$7:$L$8,Sheet1!$L$15:$L$16,Sheet1!$L$11:$L$12,Sheet1!$L$19:$L$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1380,7 +1395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet3!$J$8,Sheet3!$J$16,Sheet3!$J$20)</c:f>
+              <c:f>(Sheet3!$K$8,Sheet3!$K$16,Sheet3!$K$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1437,7 +1452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet3!$K$8,Sheet3!$K$16,Sheet3!$K$20)</c:f>
+              <c:f>(Sheet3!$L$8,Sheet3!$L$16,Sheet3!$L$20)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2867,15 +2882,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3167,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3180,881 +3195,1352 @@
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>28</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
-      </c>
-      <c r="D2">
-        <v>19</v>
       </c>
       <c r="E2">
         <v>19</v>
       </c>
       <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="G2">
-        <f>B2*N2 + (N2-1)</f>
+      <c r="H2">
+        <f>C2*O2 + (O2-1)</f>
         <v>28999</v>
       </c>
-      <c r="H2">
-        <f>D2*N2+N2-1</f>
+      <c r="I2">
+        <f>E2*O2+O2-1</f>
         <v>19999</v>
       </c>
-      <c r="I2">
-        <f>E2*N2-F2*(N2-1)</f>
+      <c r="J2">
+        <f>F2*O2-G2*(O2-1)</f>
         <v>19999</v>
       </c>
-      <c r="J2">
-        <f>(G2-H2)/G2</f>
+      <c r="K2">
+        <f>(H2-I2)/H2</f>
         <v>0.3103555295010173</v>
       </c>
-      <c r="K2">
-        <f>(G2-I2)/G2</f>
+      <c r="L2">
+        <f>(H2-J2)/H2</f>
         <v>0.3103555295010173</v>
       </c>
-      <c r="L2">
-        <f>K2-J2</f>
+      <c r="M2">
+        <f>L2-K2</f>
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2">
+        <v>0.999</v>
+      </c>
+      <c r="Q2">
+        <f>B2*C2</f>
+        <v>252</v>
+      </c>
+      <c r="R2">
+        <f>B2*E2</f>
+        <v>171</v>
+      </c>
+      <c r="S2">
+        <f>P2^Q2</f>
+        <v>0.77714674607213174</v>
+      </c>
+      <c r="T2">
+        <f>0.999^R2</f>
+        <v>0.84274946723484234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
         <v>28</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>14.4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <f>B3*N3 + (N3-1)</f>
+      <c r="H3">
+        <f>C3*O3 + (O3-1)</f>
         <v>28999</v>
       </c>
-      <c r="H3">
-        <f>D3*N3+N3-1</f>
+      <c r="I3">
+        <f>E3*O3+O3-1</f>
         <v>14999</v>
       </c>
-      <c r="I3">
-        <f>E3*N3-F3*(N3-1)</f>
+      <c r="J3">
+        <f>F3*O3-G3*(O3-1)</f>
         <v>14400</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J4" si="0">(G3-H3)/G3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="0">(H3-I3)/H3</f>
         <v>0.48277526811269356</v>
       </c>
-      <c r="K3">
-        <f>(G3-I3)/G3</f>
+      <c r="L3">
+        <f>(H3-J3)/H3</f>
         <v>0.50343115279837236</v>
       </c>
-      <c r="L3">
-        <f>K3-J3</f>
+      <c r="M3">
+        <f>L3-K3</f>
         <v>2.0655884685678805E-2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3">
+        <v>0.999</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q23" si="1">B3*C3</f>
+        <v>336</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R23" si="2">B3*E3</f>
+        <v>168</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S4" si="3">P3^Q3</f>
+        <v>0.71450297913407423</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T23" si="4">0.999^R3</f>
+        <v>0.84528278057350381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
         <v>28</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>11.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <f>B4*N4 + (N4-1)</f>
+      <c r="H4">
+        <f>C4*O4 + (O4-1)</f>
         <v>28999</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H3:H23" si="1">D4*N4+N4-1</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I23" si="5">E4*O4+O4-1</f>
         <v>12999</v>
       </c>
-      <c r="I4">
-        <f>E4*N4-F4*(N4-1)</f>
+      <c r="J4">
+        <f>F4*O4-G4*(O4-1)</f>
         <v>10501</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0.55174316355736408</v>
       </c>
-      <c r="K4">
-        <f>(G4-I4)/G4</f>
+      <c r="L4">
+        <f>(H4-J4)/H4</f>
         <v>0.63788406496775751</v>
       </c>
-      <c r="L4">
-        <f>K4-J4</f>
+      <c r="M4">
+        <f>L4-K4</f>
         <v>8.6140901410393433E-2</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P4">
+        <v>0.999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>0.65690876243350227</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="4"/>
+        <v>0.83519499032567424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="P5">
+        <v>0.999</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20.111000000000001</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.875</v>
       </c>
-      <c r="G6">
-        <f>B6*N6 + (N6-1)</f>
+      <c r="H6">
+        <f>C6*O6 + (O6-1)</f>
         <v>22999</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>20999</v>
+      </c>
+      <c r="J6">
+        <f>F6*O6-G6*(O6-1)</f>
+        <v>18237.875</v>
+      </c>
+      <c r="K6">
+        <f>(H6-I6)/H6</f>
+        <v>8.6960302621853128E-2</v>
+      </c>
+      <c r="L6">
+        <f>(H6-J6)/H6</f>
+        <v>0.20701443541023523</v>
+      </c>
+      <c r="M6">
+        <f>L6-K6</f>
+        <v>0.1200541327883821</v>
+      </c>
+      <c r="O6">
+        <v>1000</v>
+      </c>
+      <c r="P6">
+        <v>0.999</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="1"/>
-        <v>20999</v>
-      </c>
-      <c r="I6">
-        <f>E6*N6-F6*(N6-1)</f>
-        <v>18237.875</v>
-      </c>
-      <c r="J6">
-        <f>(G6-H6)/G6</f>
-        <v>8.6960302621853128E-2</v>
-      </c>
-      <c r="K6">
-        <f>(G6-I6)/G6</f>
-        <v>0.20701443541023523</v>
-      </c>
-      <c r="L6">
-        <f>K6-J6</f>
-        <v>0.1200541327883821</v>
-      </c>
-      <c r="N6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>198</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="S6">
+        <f>P6^Q6</f>
+        <v>0.82028858636277624</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>0.83519499032567424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17.555</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.25</v>
       </c>
-      <c r="G7">
-        <f>B7*N7 + (N7-1)</f>
+      <c r="H7">
+        <f>C7*O7 + (O7-1)</f>
         <v>22999</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>17999</v>
+      </c>
+      <c r="J7">
+        <f>F7*O7-G7*(O7-1)</f>
+        <v>15307.25</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K8" si="6">(H7-I7)/H7</f>
+        <v>0.21740075655463281</v>
+      </c>
+      <c r="L7">
+        <f>(H7-J7)/H7</f>
+        <v>0.33443845384581938</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M19" si="7">L7-K7</f>
+        <v>0.11703769729118657</v>
+      </c>
+      <c r="O7">
+        <v>1000</v>
+      </c>
+      <c r="P7">
+        <v>0.999</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="1"/>
-        <v>17999</v>
-      </c>
-      <c r="I7">
-        <f>E7*N7-F7*(N7-1)</f>
-        <v>15307.25</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7:J8" si="2">(G7-H7)/G7</f>
-        <v>0.21740075655463281</v>
-      </c>
-      <c r="K7">
-        <f>(G7-I7)/G7</f>
-        <v>0.33443845384581938</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L19" si="3">K7-J7</f>
-        <v>0.11703769729118657</v>
-      </c>
-      <c r="N7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>264</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S8" si="8">P7^Q7</f>
+        <v>0.76787210621629576</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>0.81537914277992263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>17.399999999999999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.75</v>
       </c>
-      <c r="G8">
-        <f>B8*N8 + (N8-1)</f>
+      <c r="H8">
+        <f>C8*O8 + (O8-1)</f>
         <v>22999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>15999</v>
+      </c>
+      <c r="J8">
+        <f>F8*O8-G8*(O8-1)</f>
+        <v>13653.75</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.30436105917648593</v>
+      </c>
+      <c r="L8">
+        <f>(H8-J8)/H8</f>
+        <v>0.40633288403843648</v>
+      </c>
+      <c r="M8">
+        <f>L8-K8</f>
+        <v>0.10197182486195056</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="P8">
+        <v>0.999</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="1"/>
-        <v>15999</v>
-      </c>
-      <c r="I8">
-        <f>E8*N8-F8*(N8-1)</f>
-        <v>13653.75</v>
-      </c>
-      <c r="J8">
+        <v>330</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="2"/>
-        <v>0.30436105917648593</v>
-      </c>
-      <c r="K8">
-        <f>(G8-I8)/G8</f>
-        <v>0.40633288403843648</v>
-      </c>
-      <c r="L8">
-        <f>K8-J8</f>
-        <v>0.10197182486195056</v>
-      </c>
-      <c r="N8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>225</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>0.71880504167381509</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>0.79842633081076442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="P9">
+        <v>0.999</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
       </c>
       <c r="E10">
         <v>20</v>
       </c>
       <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <f>B10*N10 + (N10-1)</f>
+      <c r="H10">
+        <f>C10*O10 + (O10-1)</f>
         <v>22999</v>
       </c>
-      <c r="H10">
-        <f>D10*N10+N10-1</f>
+      <c r="I10">
+        <f>E10*O10+O10-1</f>
         <v>20999</v>
       </c>
-      <c r="I10">
-        <f>E10*N10-F10*(N10-1)</f>
+      <c r="J10">
+        <f>F10*O10-G10*(O10-1)</f>
         <v>19001</v>
       </c>
-      <c r="J10">
-        <f>(G10-H10)/G10</f>
+      <c r="K10">
+        <f>(H10-I10)/H10</f>
         <v>8.6960302621853128E-2</v>
       </c>
-      <c r="K10">
-        <f>(G10-I10)/G10</f>
+      <c r="L10">
+        <f>(H10-J10)/H10</f>
         <v>0.17383364494108439</v>
       </c>
-      <c r="L10">
-        <f>K10-J10</f>
+      <c r="M10">
+        <f>L10-K10</f>
         <v>8.6873342319231259E-2</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10">
+        <v>0.999</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="S10">
+        <f>P10^Q10</f>
+        <v>0.75115512140985019</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>0.77095128874658381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>17.111000000000001</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <f>B11*N11 + (N11-1)</f>
+      <c r="H11">
+        <f>C11*O11 + (O11-1)</f>
         <v>22999</v>
       </c>
-      <c r="H11">
-        <f>D11*N11+N11-1</f>
+      <c r="I11">
+        <f>E11*O11+O11-1</f>
         <v>17999</v>
       </c>
-      <c r="I11">
-        <f>E11*N11-F11*(N11-1)</f>
+      <c r="J11">
+        <f>F11*O11-G11*(O11-1)</f>
         <v>16112</v>
       </c>
-      <c r="J11">
-        <f t="shared" ref="J11:J12" si="4">(G11-H11)/G11</f>
+      <c r="K11">
+        <f t="shared" ref="K11:K12" si="9">(H11-I11)/H11</f>
         <v>0.21740075655463281</v>
       </c>
-      <c r="K11">
-        <f>(G11-I11)/G11</f>
+      <c r="L11">
+        <f>(H11-J11)/H11</f>
         <v>0.29944780207835126</v>
       </c>
-      <c r="L11">
-        <f>K11-J11</f>
+      <c r="M11">
+        <f>L11-K11</f>
         <v>8.2047045523718443E-2</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11">
+        <v>0.999</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:S12" si="10">P11^Q11</f>
+        <v>0.70315627300103711</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>0.76175058683840957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>15</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>15.8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <f>B12*N12 + (N12-1)</f>
+      <c r="H12">
+        <f>C12*O12 + (O12-1)</f>
         <v>22999</v>
       </c>
-      <c r="H12">
-        <f>D12*N12+N12-1</f>
+      <c r="I12">
+        <f>E12*O12+O12-1</f>
         <v>15999</v>
       </c>
-      <c r="I12">
-        <f>E12*N12-F12*(N12-1)</f>
+      <c r="J12">
+        <f>F12*O12-G12*(O12-1)</f>
         <v>14801</v>
       </c>
-      <c r="J12">
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>0.30436105917648593</v>
+      </c>
+      <c r="L12">
+        <f>(H12-J12)/H12</f>
+        <v>0.35645028044697596</v>
+      </c>
+      <c r="M12">
+        <f>L12-K12</f>
+        <v>5.2089221270490038E-2</v>
+      </c>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+      <c r="P12">
+        <v>0.999</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="10"/>
+        <v>0.64389465414626923</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="4"/>
-        <v>0.30436105917648593</v>
-      </c>
-      <c r="K12">
-        <f>(G12-I12)/G12</f>
-        <v>0.35645028044697596</v>
-      </c>
-      <c r="L12">
-        <f>K12-J12</f>
-        <v>5.2089221270490038E-2</v>
-      </c>
-      <c r="N12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.74070703215610123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="P13">
+        <v>0.999</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>18.440000000000001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5.5</v>
       </c>
-      <c r="G14">
-        <f>B14*N14 + (N14-1)</f>
+      <c r="H14">
+        <f>C14*O14 + (O14-1)</f>
         <v>20999</v>
       </c>
-      <c r="H14">
-        <f>D14*N14+N14-1</f>
+      <c r="I14">
+        <f>E14*O14+O14-1</f>
         <v>18999</v>
       </c>
-      <c r="I14">
-        <f>E14*N14-F14*(N14-1)</f>
+      <c r="J14">
+        <f>F14*O14-G14*(O14-1)</f>
         <v>12945.5</v>
       </c>
-      <c r="J14">
-        <f>(G14-H14)/G14</f>
+      <c r="K14">
+        <f>(H14-I14)/H14</f>
         <v>9.5242630601457212E-2</v>
       </c>
-      <c r="K14">
-        <f>(G14-I14)/G14</f>
+      <c r="L14">
+        <f>(H14-J14)/H14</f>
         <v>0.38351826277441781</v>
       </c>
-      <c r="L14">
-        <f>K14-J14</f>
+      <c r="M14">
+        <f>L14-K14</f>
         <v>0.28827563217296059</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14">
+        <v>0.999</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="S14">
+        <f>P14^Q14</f>
+        <v>0.83519499032567424</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>0.85037227563789164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>55</v>
       </c>
       <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>15</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>15.555</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.75</v>
       </c>
-      <c r="G15">
-        <f>B15*N15 + (N15-1)</f>
+      <c r="H15">
+        <f>C15*O15 + (O15-1)</f>
         <v>20999</v>
       </c>
-      <c r="H15">
-        <f>D15*N15+N15-1</f>
+      <c r="I15">
+        <f>E15*O15+O15-1</f>
         <v>15999</v>
       </c>
-      <c r="I15">
-        <f>E15*N15-F15*(N15-1)</f>
+      <c r="J15">
+        <f>F15*O15-G15*(O15-1)</f>
         <v>11808.75</v>
       </c>
-      <c r="J15">
-        <f t="shared" ref="J15:J16" si="5">(G15-H15)/G15</f>
+      <c r="K15">
+        <f t="shared" ref="K15:K16" si="11">(H15-I15)/H15</f>
         <v>0.23810657650364303</v>
       </c>
-      <c r="K15">
-        <f>(G15-I15)/G15</f>
+      <c r="L15">
+        <f>(H15-J15)/H15</f>
         <v>0.43765179294252105</v>
       </c>
-      <c r="L15">
-        <f>K15-J15</f>
+      <c r="M15">
+        <f>L15-K15</f>
         <v>0.19954521643887801</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15">
+        <v>0.999</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:S16" si="12">P15^Q15</f>
+        <v>0.78653340841681607</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>0.83519499032567424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>20</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-1</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>14</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15.666</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6.8</v>
       </c>
-      <c r="G16">
-        <f>B16*N16 + (N16-1)</f>
+      <c r="H16">
+        <f>C16*O16 + (O16-1)</f>
         <v>20999</v>
       </c>
-      <c r="H16">
-        <f>D16*N16+N16-1</f>
+      <c r="I16">
+        <f>E16*O16+O16-1</f>
         <v>14999</v>
       </c>
-      <c r="I16">
-        <f>E16*N16-F16*(N16-1)</f>
+      <c r="J16">
+        <f>F16*O16-G16*(O16-1)</f>
         <v>8872.7999999999993</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="5"/>
+      <c r="K16">
+        <f t="shared" si="11"/>
         <v>0.28572789180437164</v>
       </c>
-      <c r="K16">
-        <f>(G16-I16)/G16</f>
+      <c r="L16">
+        <f>(H16-J16)/H16</f>
         <v>0.57746559359969529</v>
       </c>
-      <c r="L16">
-        <f t="shared" ref="L16" si="6">K16-J16</f>
+      <c r="M16">
+        <f t="shared" ref="M16" si="13">L16-K16</f>
         <v>0.29173770179532366</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P16">
+        <v>0.999</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="12"/>
+        <v>0.74070703215610123</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>0.81049908231502787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="P17">
+        <v>0.999</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
         <v>24</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-1</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>22</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>22.22</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3.25</v>
       </c>
-      <c r="G18">
-        <f>B18*N18 + (N18-1)</f>
+      <c r="H18">
+        <f>C18*O18 + (O18-1)</f>
         <v>24999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>22999</v>
+      </c>
+      <c r="J18">
+        <f>F18*O18-G18*(O18-1)</f>
+        <v>18973.25</v>
+      </c>
+      <c r="K18">
+        <f>(H18-I18)/H18</f>
+        <v>8.0003200128005117E-2</v>
+      </c>
+      <c r="L18">
+        <f>(H18-J18)/H18</f>
+        <v>0.24103964158566343</v>
+      </c>
+      <c r="M18">
+        <f>L18-K18</f>
+        <v>0.16103644145765833</v>
+      </c>
+      <c r="O18">
+        <v>1000</v>
+      </c>
+      <c r="P18">
+        <v>0.999</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="1"/>
-        <v>22999</v>
-      </c>
-      <c r="I18">
-        <f>E18*N18-F18*(N18-1)</f>
-        <v>18973.25</v>
-      </c>
-      <c r="J18">
-        <f>(G18-H18)/G18</f>
-        <v>8.0003200128005117E-2</v>
-      </c>
-      <c r="K18">
-        <f>(G18-I18)/G18</f>
-        <v>0.24103964158566343</v>
-      </c>
-      <c r="L18">
-        <f>K18-J18</f>
-        <v>0.16103644145765833</v>
-      </c>
-      <c r="N18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>264</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="S18">
+        <f>P18^Q18</f>
+        <v>0.76787210621629576</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>0.7849611281333907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>68</v>
       </c>
       <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19">
         <v>24</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>19.111000000000001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2.625</v>
       </c>
-      <c r="G19">
-        <f>B19*N19 + (N19-1)</f>
+      <c r="H19">
+        <f>C19*O19 + (O19-1)</f>
         <v>24999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>19999</v>
+      </c>
+      <c r="J19">
+        <f>F19*O19-G19*(O19-1)</f>
+        <v>16488.625</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K23" si="14">(H19-I19)/H19</f>
+        <v>0.20000800032001281</v>
+      </c>
+      <c r="L19">
+        <f>(H19-J19)/H19</f>
+        <v>0.34042861714468581</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="7"/>
+        <v>0.14042061682467299</v>
+      </c>
+      <c r="O19">
+        <v>1000</v>
+      </c>
+      <c r="P19">
+        <v>0.999</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="1"/>
-        <v>19999</v>
-      </c>
-      <c r="I19">
-        <f>E19*N19-F19*(N19-1)</f>
-        <v>16488.625</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J19:J23" si="7">(G19-H19)/G19</f>
-        <v>0.20000800032001281</v>
-      </c>
-      <c r="K19">
-        <f>(G19-I19)/G19</f>
-        <v>0.34042861714468581</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="3"/>
-        <v>0.14042061682467299</v>
-      </c>
-      <c r="N19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>336</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S20" si="15">P19^Q19</f>
+        <v>0.71450297913407423</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="4"/>
+        <v>0.76633712987596936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
         <v>24</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-1</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>17</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>19.666</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6.25</v>
       </c>
-      <c r="G20">
-        <f>B20*N20 + (N20-1)</f>
+      <c r="H20">
+        <f>C20*O20 + (O20-1)</f>
         <v>24999</v>
       </c>
-      <c r="H20">
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>17999</v>
+      </c>
+      <c r="J20">
+        <f>F20*O20-G20*(O20-1)</f>
+        <v>13422.25</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="14"/>
+        <v>0.28001120044801792</v>
+      </c>
+      <c r="L20">
+        <f>(H20-J20)/H20</f>
+        <v>0.46308852354094165</v>
+      </c>
+      <c r="M20">
+        <f>L20-K20</f>
+        <v>0.18307732309292374</v>
+      </c>
+      <c r="O20">
+        <v>1000</v>
+      </c>
+      <c r="P20">
+        <v>0.999</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="1"/>
-        <v>17999</v>
-      </c>
-      <c r="I20">
-        <f>E20*N20-F20*(N20-1)</f>
-        <v>13422.25</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="7"/>
-        <v>0.28001120044801792</v>
-      </c>
-      <c r="K20">
-        <f>(G20-I20)/G20</f>
-        <v>0.46308852354094165</v>
-      </c>
-      <c r="L20">
-        <f>K20-J20</f>
-        <v>0.18307732309292374</v>
-      </c>
-      <c r="N20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>408</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="15"/>
+        <v>0.66484314648052156</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>0.74890390875982971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="P21">
+        <v>0.999</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>137</v>
       </c>
       <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
         <v>26</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>16</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>18.2</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>5.25</v>
       </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G23" si="8">B22*N22 + (N22-1)</f>
+      <c r="H22">
+        <f t="shared" ref="H22:H23" si="16">C22*O22 + (O22-1)</f>
         <v>26999</v>
       </c>
-      <c r="H22">
-        <f>D22*N22+N22-1</f>
+      <c r="I22">
+        <f>E22*O22+O22-1</f>
         <v>16999</v>
       </c>
-      <c r="I22">
-        <f t="shared" ref="I22:I23" si="9">E22*N22-F22*(N22-1)</f>
+      <c r="J22">
+        <f t="shared" ref="J22" si="17">F22*O22-G22*(O22-1)</f>
         <v>12955.25</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="7"/>
+      <c r="K22">
+        <f t="shared" si="14"/>
         <v>0.37038408829956665</v>
       </c>
-      <c r="K22">
-        <f t="shared" ref="K22:K23" si="10">(G22-I22)/G22</f>
+      <c r="L22">
+        <f t="shared" ref="L22:L23" si="18">(H22-J22)/H22</f>
         <v>0.52015815400570387</v>
       </c>
-      <c r="L22">
-        <f t="shared" ref="L22:L23" si="11">K22-J22</f>
+      <c r="M22">
+        <f t="shared" ref="M22:M23" si="19">L22-K22</f>
         <v>0.14977406570613722</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="P22">
+        <v>0.999</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="S22">
+        <f>P22^Q22</f>
+        <v>0.73186727184486744</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="4"/>
+        <v>0.82522758998099066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>138</v>
       </c>
       <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
         <v>26</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-1</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>14</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>15</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="8"/>
+      <c r="H23">
+        <f t="shared" si="16"/>
         <v>26999</v>
       </c>
-      <c r="H23">
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>14999</v>
+      </c>
+      <c r="J23">
+        <f>F23*O23-G23*(O23-1)</f>
+        <v>11004</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="14"/>
+        <v>0.44446090595947996</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="18"/>
+        <v>0.59242934923515689</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="19"/>
+        <v>0.14796844327567693</v>
+      </c>
+      <c r="O23">
+        <v>1000</v>
+      </c>
+      <c r="P23">
+        <v>0.999</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="1"/>
-        <v>14999</v>
-      </c>
-      <c r="I23">
-        <f>E23*N23-F23*(N23-1)</f>
-        <v>11004</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="7"/>
-        <v>0.44446090595947996</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="10"/>
-        <v>0.59242934923515689</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="11"/>
-        <v>0.14796844327567693</v>
-      </c>
-      <c r="N23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>390</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="S23">
+        <f>P23^Q23</f>
+        <v>0.67692477321306754</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="4"/>
+        <v>0.81049908231502787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="S24">
+        <f>AVERAGE(S23,S20,S16,S12,S8,S4)</f>
+        <v>0.68368056835054614</v>
+      </c>
+      <c r="T24">
+        <f>AVERAGE(T23,T20,T16,T12,T8,T4)</f>
+        <v>0.79070507111373756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="T25">
+        <f>T24/S24</f>
+        <v>1.1565416770896382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>106</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:K31" si="12">(J2+J6+J10+J14+J18)/5</f>
+        <f>(K2+K6+K10+K14+K18)/5</f>
         <v>0.13190439309483717</v>
       </c>
       <c r="K29">
-        <f t="shared" si="12"/>
+        <f>(L2+L6+L10+L14+L18)/5</f>
         <v>0.26315230284248364</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>107</v>
       </c>
       <c r="J30">
-        <f t="shared" si="12"/>
+        <f>(K3+K7+K11+K15+K19)/5</f>
         <v>0.27113827160912296</v>
       </c>
       <c r="K30">
-        <f t="shared" si="12"/>
+        <f>(L3+L7+L11+L15+L19)/5</f>
         <v>0.38307956376194996</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>108</v>
       </c>
       <c r="J31">
-        <f t="shared" si="12"/>
+        <f>(K4+K8+K12+K16+K20)/5</f>
         <v>0.34524087483254512</v>
       </c>
       <c r="K31">
-        <f t="shared" si="12"/>
+        <f>(L4+L8+L12+L16+L20)/5</f>
         <v>0.48824426931876141</v>
       </c>
     </row>
@@ -4190,10 +4676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8F334-34CF-4144-B81D-80A2C593ED62}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4201,877 +4687,1354 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2">
+        <v>29</v>
+      </c>
+      <c r="C2">
         <v>74</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>63</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>66.5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>11.333</v>
       </c>
-      <c r="G2">
-        <f>B2*N2 + (N2-1)</f>
+      <c r="H2">
+        <f>C2*O2 + (O2-1)</f>
         <v>74999</v>
       </c>
-      <c r="H2">
-        <f>D2*N2+N2-1</f>
+      <c r="I2">
+        <f>E2*O2+O2-1</f>
         <v>63999</v>
       </c>
-      <c r="I2">
-        <f>E2*N2-F2*(N2-1)</f>
+      <c r="J2">
+        <f>F2*O2-G2*(O2-1)</f>
         <v>55178.332999999999</v>
       </c>
-      <c r="J2">
-        <f>(G2-H2)/G2</f>
+      <c r="K2">
+        <f>(H2-I2)/H2</f>
         <v>0.14666862224829663</v>
       </c>
-      <c r="K2">
-        <f>(G2-I2)/G2</f>
+      <c r="L2">
+        <f>(H2-J2)/H2</f>
         <v>0.2642790837211163</v>
       </c>
-      <c r="L2">
-        <f>K2-J2</f>
+      <c r="M2">
+        <f>L2-K2</f>
         <v>0.11761046147281967</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2">
+        <v>0.999</v>
+      </c>
+      <c r="Q2">
+        <f>B2*C2</f>
+        <v>2146</v>
+      </c>
+      <c r="R2">
+        <f>B2*E2</f>
+        <v>1827</v>
+      </c>
+      <c r="S2">
+        <f>P2^Q2</f>
+        <v>0.11682552273759952</v>
+      </c>
+      <c r="T2">
+        <f>0.999^R2</f>
+        <v>0.16074852213676807</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
         <v>74</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>17</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>47</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
-        <f>B3*N3 + (N3-1)</f>
+      <c r="H3">
+        <f>C3*O3 + (O3-1)</f>
         <v>74999</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H22" si="0">D3*N3+N3-1</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I22" si="0">E3*O3+O3-1</f>
         <v>47999</v>
       </c>
-      <c r="I3">
-        <f>E3*N3-F3*(N3-1)</f>
+      <c r="J3">
+        <f>F3*O3-G3*(O3-1)</f>
         <v>40010</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J4" si="1">(G3-H3)/G3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="1">(H3-I3)/H3</f>
         <v>0.36000480006400087</v>
       </c>
-      <c r="K3">
-        <f>(G3-I3)/G3</f>
+      <c r="L3">
+        <f>(H3-J3)/H3</f>
         <v>0.46652622034960467</v>
       </c>
-      <c r="L3">
-        <f>K3-J3</f>
+      <c r="M3">
+        <f>L3-K3</f>
         <v>0.1065214202856038</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3">
+        <v>0.999</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q23" si="2">B3*C3</f>
+        <v>2960</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R23" si="3">B3*E3</f>
+        <v>1880</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S4" si="4">P3^Q3</f>
+        <v>5.1742230808722645E-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T23" si="5">0.999^R3</f>
+        <v>0.15244664284569845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
         <v>74</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>42</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>46.8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="G4">
-        <f>B4*N4 + (N4-1)</f>
+      <c r="H4">
+        <f>C4*O4 + (O4-1)</f>
         <v>74999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>42999</v>
       </c>
-      <c r="I4">
-        <f>E4*N4-F4*(N4-1)</f>
+      <c r="J4">
+        <f>F4*O4-G4*(O4-1)</f>
         <v>35811</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>0.42667235563140843</v>
       </c>
-      <c r="K4">
-        <f>(G4-I4)/G4</f>
+      <c r="L4">
+        <f>(H4-J4)/H4</f>
         <v>0.52251363351511348</v>
       </c>
-      <c r="L4">
-        <f>K4-J4</f>
+      <c r="M4">
+        <f>L4-K4</f>
         <v>9.5841277883705056E-2</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P4">
+        <v>0.999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>3700</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="S4">
+        <f>P4^Q4</f>
+        <v>2.4677799769609619E-2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>0.12232783079001908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="P5">
+        <v>0.999</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
         <v>80</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>75</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>76.25</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>15.666</v>
       </c>
-      <c r="G6">
-        <f>B6*N6 + (N6-1)</f>
+      <c r="H6">
+        <f>C6*O6 + (O6-1)</f>
         <v>80999</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>75999</v>
       </c>
-      <c r="I6">
-        <f>E6*N6-F6*(N6-1)</f>
+      <c r="J6">
+        <f>F6*O6-G6*(O6-1)</f>
         <v>60599.665999999997</v>
       </c>
-      <c r="J6">
-        <f>(G6-H6)/G6</f>
+      <c r="K6">
+        <f>(H6-I6)/H6</f>
         <v>6.1729157150088275E-2</v>
       </c>
-      <c r="K6">
-        <f>(G6-I6)/G6</f>
+      <c r="L6">
+        <f>(H6-J6)/H6</f>
         <v>0.25184673884862779</v>
       </c>
-      <c r="L6">
-        <f>K6-J6</f>
+      <c r="M6">
+        <f>L6-K6</f>
         <v>0.19011758169853951</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6">
+        <v>0.999</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>2320</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>2175</v>
+      </c>
+      <c r="S6">
+        <f>P6^Q6</f>
+        <v>9.8159578370890815E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>0.11348458962088523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
         <v>80</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>61</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>65</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>14.333</v>
       </c>
-      <c r="G7">
-        <f>B7*N7 + (N7-1)</f>
+      <c r="H7">
+        <f>C7*O7 + (O7-1)</f>
         <v>80999</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>61999</v>
       </c>
-      <c r="I7">
-        <f>E7*N7-F7*(N7-1)</f>
+      <c r="J7">
+        <f>F7*O7-G7*(O7-1)</f>
         <v>50681.332999999999</v>
       </c>
-      <c r="J7">
-        <f t="shared" ref="J7:J8" si="2">(G7-H7)/G7</f>
+      <c r="K7">
+        <f t="shared" ref="K7:K8" si="6">(H7-I7)/H7</f>
         <v>0.23457079717033544</v>
       </c>
-      <c r="K7">
-        <f>(G7-I7)/G7</f>
+      <c r="L7">
+        <f>(H7-J7)/H7</f>
         <v>0.37429680613340904</v>
       </c>
-      <c r="L7">
-        <f>K7-J7</f>
+      <c r="M7">
+        <f>L7-K7</f>
         <v>0.13972600896307361</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="P7">
+        <v>0.999</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>2960</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>2257</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S8" si="7">P7^Q7</f>
+        <v>5.1742230808722645E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>0.10454588083304855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
         <v>80</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>61</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>64.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>24.25</v>
       </c>
-      <c r="G8">
-        <f>B8*N8 + (N8-1)</f>
+      <c r="H8">
+        <f>C8*O8 + (O8-1)</f>
         <v>80999</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>61999</v>
       </c>
-      <c r="I8">
-        <f>E8*N8-F8*(N8-1)</f>
+      <c r="J8">
+        <f>F8*O8-G8*(O8-1)</f>
         <v>40574.25</v>
       </c>
-      <c r="J8">
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.23457079717033544</v>
+      </c>
+      <c r="L8">
+        <f>(H8-J8)/H8</f>
+        <v>0.49907714910060619</v>
+      </c>
+      <c r="M8">
+        <f>L8-K8</f>
+        <v>0.26450635193027072</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="P8">
+        <v>0.999</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="2"/>
-        <v>0.23457079717033544</v>
-      </c>
-      <c r="K8">
-        <f>(G8-I8)/G8</f>
-        <v>0.49907714910060619</v>
-      </c>
-      <c r="L8">
-        <f>K8-J8</f>
-        <v>0.26450635193027072</v>
-      </c>
-      <c r="N8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>3600</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>2745</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>2.7274551230723979E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>6.4160121887248137E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="P9">
+        <v>0.999</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>52</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>49</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>49.8</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>19</v>
       </c>
-      <c r="G10">
-        <f>B10*N10 + (N10-1)</f>
+      <c r="H10">
+        <f>C10*O10 + (O10-1)</f>
         <v>52999</v>
       </c>
-      <c r="H10">
-        <f>D10*N10+N10-1</f>
+      <c r="I10">
+        <f>E10*O10+O10-1</f>
         <v>49999</v>
       </c>
-      <c r="I10">
-        <f>E10*N10-F10*(N10-1)</f>
+      <c r="J10">
+        <f>F10*O10-G10*(O10-1)</f>
         <v>30819</v>
       </c>
-      <c r="J10">
-        <f>(G10-H10)/G10</f>
+      <c r="K10">
+        <f>(H10-I10)/H10</f>
         <v>5.6604841600784918E-2</v>
       </c>
-      <c r="K10">
-        <f>(G10-I10)/G10</f>
+      <c r="L10">
+        <f>(H10-J10)/H10</f>
         <v>0.41849846223513654</v>
       </c>
-      <c r="L10">
-        <f>K10-J10</f>
+      <c r="M10">
+        <f>L10-K10</f>
         <v>0.3618936206343516</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10">
+        <v>0.999</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>1508</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>1421</v>
+      </c>
+      <c r="S10">
+        <f>P10^Q10</f>
+        <v>0.22118529208034565</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>0.24130080409231811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="C11">
         <v>52</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>41</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>43.8</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>17.5</v>
       </c>
-      <c r="G11">
-        <f>B11*N11 + (N11-1)</f>
+      <c r="H11">
+        <f>C11*O11 + (O11-1)</f>
         <v>52999</v>
       </c>
-      <c r="H11">
-        <f>D11*N11+N11-1</f>
+      <c r="I11">
+        <f>E11*O11+O11-1</f>
         <v>41999</v>
       </c>
-      <c r="I11">
-        <f>E11*N11-F11*(N11-1)</f>
+      <c r="J11">
+        <f>F11*O11-G11*(O11-1)</f>
         <v>26317.5</v>
       </c>
-      <c r="J11">
-        <f t="shared" ref="J11:J12" si="3">(G11-H11)/G11</f>
+      <c r="K11">
+        <f t="shared" ref="K11:K12" si="8">(H11-I11)/H11</f>
         <v>0.20755108586954471</v>
       </c>
-      <c r="K11">
-        <f>(G11-I11)/G11</f>
+      <c r="L11">
+        <f>(H11-J11)/H11</f>
         <v>0.50343402705711426</v>
       </c>
-      <c r="L11">
-        <f>K11-J11</f>
+      <c r="M11">
+        <f>L11-K11</f>
         <v>0.29588294118756953</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11">
+        <v>0.999</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>1924</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>1517</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:S12" si="9">P11^Q11</f>
+        <v>0.14588120661157819</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>0.2192025685704144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
         <v>52</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>34</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>34.799999999999997</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>13.75</v>
       </c>
-      <c r="G12">
-        <f>B12*N12 + (N12-1)</f>
+      <c r="H12">
+        <f>C12*O12 + (O12-1)</f>
         <v>52999</v>
       </c>
-      <c r="H12">
-        <f>D12*N12+N12-1</f>
+      <c r="I12">
+        <f>E12*O12+O12-1</f>
         <v>34999</v>
       </c>
-      <c r="I12">
-        <f>E12*N12-F12*(N12-1)</f>
+      <c r="J12">
+        <f>F12*O12-G12*(O12-1)</f>
         <v>21063.75</v>
       </c>
-      <c r="J12">
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>0.33962904960470952</v>
+      </c>
+      <c r="L12">
+        <f>(H12-J12)/H12</f>
+        <v>0.60256325591048887</v>
+      </c>
+      <c r="M12">
+        <f>L12-K12</f>
+        <v>0.26293420630577935</v>
+      </c>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+      <c r="P12">
+        <v>0.999</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>2340</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="3"/>
-        <v>0.33962904960470952</v>
-      </c>
-      <c r="K12">
-        <f>(G12-I12)/G12</f>
-        <v>0.60256325591048887</v>
-      </c>
-      <c r="L12">
-        <f>K12-J12</f>
-        <v>0.26293420630577935</v>
-      </c>
-      <c r="N12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1530</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="9"/>
+        <v>9.6214925695509226E-2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>0.21636997044386105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="P13">
+        <v>0.999</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
         <v>60</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-1</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>58</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>58.4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>25.5</v>
       </c>
-      <c r="G14">
-        <f>B14*N14 + (N14-1)</f>
+      <c r="H14">
+        <f>C14*O14 + (O14-1)</f>
         <v>60999</v>
       </c>
-      <c r="H14">
-        <f>D14*N14+N14-1</f>
+      <c r="I14">
+        <f>E14*O14+O14-1</f>
         <v>58999</v>
       </c>
-      <c r="I14">
-        <f>E14*N14-F14*(N14-1)</f>
+      <c r="J14">
+        <f>F14*O14-G14*(O14-1)</f>
         <v>32925.5</v>
       </c>
-      <c r="J14">
-        <f>(G14-H14)/G14</f>
+      <c r="K14">
+        <f>(H14-I14)/H14</f>
         <v>3.2787422744635156E-2</v>
       </c>
-      <c r="K14">
-        <f>(G14-I14)/G14</f>
+      <c r="L14">
+        <f>(H14-J14)/H14</f>
         <v>0.46022885621075754</v>
       </c>
-      <c r="L14">
-        <f>K14-J14</f>
+      <c r="M14">
+        <f>L14-K14</f>
         <v>0.4274414334661224</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14">
+        <v>0.999</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>1740</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>1682</v>
+      </c>
+      <c r="S14">
+        <f>P14^Q14</f>
+        <v>0.17536766248527905</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>0.18584513472466904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15">
+        <v>37</v>
+      </c>
+      <c r="C15">
         <v>60</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>46</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>46.4</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>13.5</v>
       </c>
-      <c r="G15">
-        <f>B15*N15 + (N15-1)</f>
+      <c r="H15">
+        <f>C15*O15 + (O15-1)</f>
         <v>60999</v>
       </c>
-      <c r="H15">
-        <f>D15*N15+N15-1</f>
+      <c r="I15">
+        <f>E15*O15+O15-1</f>
         <v>46999</v>
       </c>
-      <c r="I15">
-        <f>E15*N15-F15*(N15-1)</f>
+      <c r="J15">
+        <f>F15*O15-G15*(O15-1)</f>
         <v>32913.5</v>
       </c>
-      <c r="J15">
-        <f t="shared" ref="J15:J16" si="4">(G15-H15)/G15</f>
+      <c r="K15">
+        <f t="shared" ref="K15:K16" si="10">(H15-I15)/H15</f>
         <v>0.2295119592124461</v>
       </c>
-      <c r="K15">
-        <f>(G15-I15)/G15</f>
+      <c r="L15">
+        <f>(H15-J15)/H15</f>
         <v>0.46042558074722534</v>
       </c>
-      <c r="L15">
-        <f>K15-J15</f>
+      <c r="M15">
+        <f>L15-K15</f>
         <v>0.23091362153477923</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15">
+        <v>0.999</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>2220</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>1702</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:S16" si="11">P15^Q15</f>
+        <v>0.10848853925624821</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>0.18216333163986531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
         <v>60</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-1</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>44</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>49.6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>24.75</v>
       </c>
-      <c r="G16">
-        <f>B16*N16 + (N16-1)</f>
+      <c r="H16">
+        <f>C16*O16 + (O16-1)</f>
         <v>60999</v>
       </c>
-      <c r="H16">
-        <f>D16*N16+N16-1</f>
+      <c r="I16">
+        <f>E16*O16+O16-1</f>
         <v>44999</v>
       </c>
-      <c r="I16">
-        <f>E16*N16-F16*(N16-1)</f>
+      <c r="J16">
+        <f>F16*O16-G16*(O16-1)</f>
         <v>24874.75</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
+      <c r="K16">
+        <f t="shared" si="10"/>
         <v>0.26229938195708125</v>
       </c>
-      <c r="K16">
-        <f>(G16-I16)/G16</f>
+      <c r="L16">
+        <f>(H16-J16)/H16</f>
         <v>0.59221052804144325</v>
       </c>
-      <c r="L16">
-        <f>K16-J16</f>
+      <c r="M16">
+        <f>L16-K16</f>
         <v>0.32991114608436201</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P16">
+        <v>0.999</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>1980</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="11"/>
+        <v>6.7114786062353451E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>0.13793252530063635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="P17">
+        <v>0.999</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>72</v>
       </c>
       <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18">
         <v>60</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>51</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>53.2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>15.75</v>
       </c>
-      <c r="G18">
-        <f>B18*N18 + (N18-1)</f>
+      <c r="H18">
+        <f>C18*O18 + (O18-1)</f>
         <v>60999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>51999</v>
       </c>
-      <c r="I18">
-        <f>E18*N18-F18*(N18-1)</f>
+      <c r="J18">
+        <f>F18*O18-G18*(O18-1)</f>
         <v>37465.75</v>
       </c>
-      <c r="J18">
-        <f>(G18-H18)/G18</f>
+      <c r="K18">
+        <f>(H18-I18)/H18</f>
         <v>0.14754340235085822</v>
       </c>
-      <c r="K18">
-        <f t="shared" ref="K18:K23" si="5">(G18-I18)/G18</f>
+      <c r="L18">
+        <f t="shared" ref="L18:L23" si="12">(H18-J18)/H18</f>
         <v>0.38579730815259267</v>
       </c>
-      <c r="L18">
-        <f t="shared" ref="L18:L23" si="6">K18-J18</f>
+      <c r="M18">
+        <f t="shared" ref="M18:M23" si="13">L18-K18</f>
         <v>0.23825390580173444</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18">
+        <v>0.999</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>1740</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>1479</v>
+      </c>
+      <c r="S18">
+        <f>P18^Q18</f>
+        <v>0.17536766248527905</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>0.22769688338723573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19">
+        <v>37</v>
+      </c>
+      <c r="C19">
         <v>60</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>43</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>45.6</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>11.25</v>
       </c>
-      <c r="G19">
-        <f>B19*N19 + (N19-1)</f>
+      <c r="H19">
+        <f>C19*O19 + (O19-1)</f>
         <v>60999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>43999</v>
       </c>
-      <c r="I19">
-        <f>E19*N19-F19*(N19-1)</f>
+      <c r="J19">
+        <f>F19*O19-G19*(O19-1)</f>
         <v>34361.25</v>
       </c>
-      <c r="J19">
-        <f t="shared" ref="J19:J22" si="7">(G19-H19)/G19</f>
+      <c r="K19">
+        <f t="shared" ref="K19:K22" si="14">(H19-I19)/H19</f>
         <v>0.27869309332939884</v>
       </c>
-      <c r="K19">
+      <c r="L19">
+        <f t="shared" si="12"/>
+        <v>0.43669158510795258</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="13"/>
+        <v>0.15799849177855374</v>
+      </c>
+      <c r="O19">
+        <v>1000</v>
+      </c>
+      <c r="P19">
+        <v>0.999</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>2220</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>1591</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S21" si="15">P19^Q19</f>
+        <v>0.10848853925624821</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="5"/>
-        <v>0.43669158510795258</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="6"/>
-        <v>0.15799849177855374</v>
-      </c>
-      <c r="N19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.20355968377591602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>74</v>
       </c>
       <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20">
         <v>60</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>41</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>50.5</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>26</v>
       </c>
-      <c r="G20">
-        <f>B20*N20 + (N20-1)</f>
+      <c r="H20">
+        <f>C20*O20 + (O20-1)</f>
         <v>60999</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="0"/>
         <v>41999</v>
       </c>
-      <c r="I20">
-        <f>E20*N20-F20*(N20-1)</f>
+      <c r="J20">
+        <f>F20*O20-G20*(O20-1)</f>
         <v>24526</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="7"/>
+      <c r="K20">
+        <f t="shared" si="14"/>
         <v>0.31148051607403399</v>
       </c>
-      <c r="K20">
+      <c r="L20">
+        <f t="shared" si="12"/>
+        <v>0.59792783488253909</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="13"/>
+        <v>0.2864473188085051</v>
+      </c>
+      <c r="O20">
+        <v>1000</v>
+      </c>
+      <c r="P20">
+        <v>0.999</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>1845</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="15"/>
+        <v>6.7114786062353451E-2</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="5"/>
-        <v>0.59792783488253909</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="6"/>
-        <v>0.2864473188085051</v>
-      </c>
-      <c r="N20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.15787951258191529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>131</v>
       </c>
       <c r="B21">
+        <v>37</v>
+      </c>
+      <c r="C21">
         <v>66</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>52</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>55.25</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>36</v>
       </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G22" si="8">B21*N21 + (N21-1)</f>
+      <c r="H21">
+        <f>C21*O21 + (O21-1)</f>
         <v>66999</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>52999</v>
       </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I22" si="9">E21*N21-F21*(N21-1)</f>
+      <c r="J21">
+        <f t="shared" ref="J21:J22" si="16">F21*O21-G21*(O21-1)</f>
         <v>19286</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="7"/>
+      <c r="K21">
+        <f t="shared" si="14"/>
         <v>0.20895834266183078</v>
       </c>
-      <c r="K21">
+      <c r="L21">
+        <f t="shared" si="12"/>
+        <v>0.71214495738742367</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="13"/>
+        <v>0.5031866147255929</v>
+      </c>
+      <c r="O21">
+        <v>1000</v>
+      </c>
+      <c r="P21">
+        <v>0.999</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>2442</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>1924</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="15"/>
+        <v>8.6880487240526189E-2</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="5"/>
-        <v>0.71214495738742367</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="6"/>
-        <v>0.5031866147255929</v>
-      </c>
-      <c r="N21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.14588120661157819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>133</v>
       </c>
       <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
         <v>66</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>44</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>55.25</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>38</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="8"/>
+      <c r="H22">
+        <f>C22*O22 + (O22-1)</f>
         <v>66999</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>44999</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="9"/>
+      <c r="J22">
+        <f t="shared" si="16"/>
         <v>17288</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="7"/>
+      <c r="K22">
+        <f t="shared" si="14"/>
         <v>0.32836310989716266</v>
       </c>
-      <c r="K22">
+      <c r="L22">
+        <f t="shared" si="12"/>
+        <v>0.7419662980044478</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="13"/>
+        <v>0.41360318810728514</v>
+      </c>
+      <c r="O22">
+        <v>1000</v>
+      </c>
+      <c r="P22">
+        <v>0.999</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>2640</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>1760</v>
+      </c>
+      <c r="S22">
+        <f>P22^Q22</f>
+        <v>7.1267072061040451E-2</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="5"/>
-        <v>0.7419662980044478</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="6"/>
-        <v>0.41360318810728514</v>
-      </c>
-      <c r="N22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.17189343001925469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>132</v>
       </c>
       <c r="B23">
+        <v>45</v>
+      </c>
+      <c r="C23">
         <v>66</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>44</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>52.5</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>40.332999999999998</v>
       </c>
-      <c r="G23">
-        <f t="shared" ref="G23" si="10">B23*N23 + (N23-1)</f>
+      <c r="H23">
+        <f>C23*O23 + (O23-1)</f>
         <v>66999</v>
       </c>
-      <c r="H23">
-        <f t="shared" ref="H23" si="11">D23*N23+N23-1</f>
+      <c r="I23">
+        <f t="shared" ref="I23" si="17">E23*O23+O23-1</f>
         <v>44999</v>
       </c>
-      <c r="I23">
-        <f t="shared" ref="I23" si="12">E23*N23-F23*(N23-1)</f>
+      <c r="J23">
+        <f t="shared" ref="J23" si="18">F23*O23-G23*(O23-1)</f>
         <v>12207.332999999999</v>
       </c>
-      <c r="J23">
-        <f t="shared" ref="J23" si="13">(G23-H23)/G23</f>
+      <c r="K23">
+        <f t="shared" ref="K23" si="19">(H23-I23)/H23</f>
         <v>0.32836310989716266</v>
       </c>
-      <c r="K23">
+      <c r="L23">
+        <f t="shared" si="12"/>
+        <v>0.81779828057135184</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="13"/>
+        <v>0.48943517067418918</v>
+      </c>
+      <c r="O23">
+        <v>1000</v>
+      </c>
+      <c r="P23">
+        <v>0.999</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>2970</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>1980</v>
+      </c>
+      <c r="S23">
+        <f>P23^Q23</f>
+        <v>5.1227130702806961E-2</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="5"/>
-        <v>0.81779828057135184</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="6"/>
-        <v>0.48943517067418918</v>
-      </c>
-      <c r="N23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.13793252530063635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="S24">
+        <f>AVERAGE(S23,S20,S16,S8,S4)</f>
+        <v>4.7481810765569496E-2</v>
+      </c>
+      <c r="T24">
+        <f>AVERAGE(T23,T20,T16,T8,T4)</f>
+        <v>0.12404650317209102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="J25">
-        <f t="shared" ref="J25:K27" si="14">(J2+J6+J10+J14+J18)/5</f>
+        <f>(K2+K6+K10+K14+K18)/5</f>
         <v>8.906668921893264E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="14"/>
+        <f>(L2+L6+L10+L14+L18)/5</f>
         <v>0.35613008983364619</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="T25">
+        <f>T24/S24</f>
+        <v>2.612505740030473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5079,15 +6042,15 @@
         <v>80</v>
       </c>
       <c r="J26">
-        <f t="shared" si="14"/>
+        <f>(K3+K7+K11+K15+K19)/5</f>
         <v>0.26206634712914517</v>
       </c>
       <c r="K26">
-        <f t="shared" si="14"/>
+        <f>(L3+L7+L11+L15+L19)/5</f>
         <v>0.44827484387906119</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -5095,15 +6058,15 @@
         <v>81</v>
       </c>
       <c r="J27">
-        <f t="shared" si="14"/>
+        <f>(K4+K8+K12+K16+K20)/5</f>
         <v>0.31493042008751371</v>
       </c>
       <c r="K27">
-        <f t="shared" si="14"/>
+        <f>(L4+L8+L12+L16+L20)/5</f>
         <v>0.56285848029003804</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5111,7 +6074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -5119,7 +6082,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -5127,12 +6090,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:20">
       <c r="C31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:20">
       <c r="C32" t="s">
         <v>85</v>
       </c>
@@ -5184,10 +6147,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9B5CCE-892A-4E23-8336-661A2F67BDDF}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5195,908 +6158,1387 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2">
+        <v>53</v>
+      </c>
+      <c r="C2">
         <v>134</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>29</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>123</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>126.33</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>24</v>
       </c>
-      <c r="G2">
-        <f>B2*N2 + (N2-1)</f>
+      <c r="H2">
+        <f>C2*O2 + (O2-1)</f>
         <v>134999</v>
       </c>
-      <c r="H2">
-        <f>D2*N2+N2-1</f>
+      <c r="I2">
+        <f>E2*O2+O2-1</f>
         <v>123999</v>
       </c>
-      <c r="I2">
-        <f>E2*N2-F2*(N2-1)</f>
+      <c r="J2">
+        <f>F2*O2-G2*(O2-1)</f>
         <v>102354</v>
       </c>
-      <c r="J2">
-        <f>(G2-H2)/G2</f>
+      <c r="K2">
+        <f>(H2-I2)/H2</f>
         <v>8.1482085052481876E-2</v>
       </c>
-      <c r="K2">
-        <f>(G2-I2)/G2</f>
+      <c r="L2">
+        <f>(H2-J2)/H2</f>
         <v>0.24181660604893371</v>
       </c>
-      <c r="L2">
-        <f>K2-J2</f>
+      <c r="M2">
+        <f>L2-K2</f>
         <v>0.16033452099645185</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2">
+        <v>0.999</v>
+      </c>
+      <c r="Q2">
+        <f>B2*C2</f>
+        <v>7102</v>
+      </c>
+      <c r="R2">
+        <f>B2*E2</f>
+        <v>6519</v>
+      </c>
+      <c r="S2">
+        <f>P2^Q2</f>
+        <v>8.2053551063319963E-4</v>
+      </c>
+      <c r="T2">
+        <f>0.999^R2</f>
+        <v>1.4703399085264359E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>50</v>
       </c>
       <c r="B3">
+        <v>67</v>
+      </c>
+      <c r="C3">
         <v>134</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>29</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>109</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>111.666</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="G3">
-        <f>B3*N3 + (N3-1)</f>
+      <c r="H3">
+        <f>C3*O3 + (O3-1)</f>
         <v>134999</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H4" si="0">D3*N3+N3-1</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I4" si="0">E3*O3+O3-1</f>
         <v>109999</v>
       </c>
-      <c r="I3">
-        <f>E3*N3-F3*(N3-1)</f>
+      <c r="J3">
+        <f>F3*O3-G3*(O3-1)</f>
         <v>91686</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J23" si="1">(G3-H3)/G3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K23" si="1">(H3-I3)/H3</f>
         <v>0.18518655693745881</v>
       </c>
-      <c r="K3">
-        <f>(G3-I3)/G3</f>
+      <c r="L3">
+        <f>(H3-J3)/H3</f>
         <v>0.32083941362528612</v>
       </c>
-      <c r="L3">
-        <f>K3-J3</f>
+      <c r="M3">
+        <f>L3-K3</f>
         <v>0.13565285668782731</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3">
+        <v>0.999</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q23" si="2">B3*C3</f>
+        <v>8978</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R23" si="3">B3*E3</f>
+        <v>7303</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S4" si="4">P3^Q3</f>
+        <v>1.2558948885242114E-4</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T23" si="5">0.999^R3</f>
+        <v>6.7105870489019915E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
         <v>134</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>84</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>87.332999999999998</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>16</v>
       </c>
-      <c r="G4">
-        <f>B4*N4 + (N4-1)</f>
+      <c r="H4">
+        <f>C4*O4 + (O4-1)</f>
         <v>134999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>84999</v>
       </c>
-      <c r="I4">
-        <f>E4*N4-F4*(N4-1)</f>
+      <c r="J4">
+        <f>F4*O4-G4*(O4-1)</f>
         <v>71349</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>0.37037311387491761</v>
       </c>
-      <c r="K4">
-        <f>(G4-I4)/G4</f>
+      <c r="L4">
+        <f>(H4-J4)/H4</f>
         <v>0.47148497396277012</v>
       </c>
-      <c r="L4">
-        <f>K4-J4</f>
+      <c r="M4">
+        <f>L4-K4</f>
         <v>0.1011118600878525</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P4">
+        <v>0.999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>10720</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>6720</v>
+      </c>
+      <c r="S4">
+        <f>P4^Q4</f>
+        <v>2.1980308446919664E-5</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="5"/>
+        <v>1.2024883530058425E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="P5">
+        <v>0.999</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6">
+        <v>53</v>
+      </c>
+      <c r="C6">
         <v>178</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>174</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>174.333</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>43.5</v>
       </c>
-      <c r="G6">
-        <f>B6*N6 + (N6-1)</f>
+      <c r="H6">
+        <f>C6*O6 + (O6-1)</f>
         <v>178999</v>
       </c>
-      <c r="H6">
-        <f>D6*N6+N6-1</f>
+      <c r="I6">
+        <f>E6*O6+O6-1</f>
         <v>174999</v>
       </c>
-      <c r="I6">
-        <f>E6*N6-F6*(N6-1)</f>
+      <c r="J6">
+        <f>F6*O6-G6*(O6-1)</f>
         <v>130876.5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>2.2346493555829922E-2</v>
       </c>
-      <c r="K6">
-        <f>(G6-I6)/G6</f>
+      <c r="L6">
+        <f>(H6-J6)/H6</f>
         <v>0.26884228403510635</v>
       </c>
-      <c r="L6">
-        <f>K6-J6</f>
+      <c r="M6">
+        <f>L6-K6</f>
         <v>0.24649579047927642</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="P6">
+        <v>0.999</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>9434</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>9222</v>
+      </c>
+      <c r="S6">
+        <f>P6^Q6</f>
+        <v>7.9582196910910549E-5</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>9.8385799700456681E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7">
+        <v>67</v>
+      </c>
+      <c r="C7">
         <v>178</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>163</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>166.3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>42</v>
       </c>
-      <c r="G7">
-        <f>B7*N7 + (N7-1)</f>
+      <c r="H7">
+        <f>C7*O7 + (O7-1)</f>
         <v>178999</v>
       </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H8" si="2">D7*N7+N7-1</f>
+      <c r="I7">
+        <f t="shared" ref="I7:I8" si="6">E7*O7+O7-1</f>
         <v>163999</v>
       </c>
-      <c r="I7">
-        <f>E7*N7-F7*(N7-1)</f>
+      <c r="J7">
+        <f>F7*O7-G7*(O7-1)</f>
         <v>124342</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>8.3799350834362199E-2</v>
       </c>
-      <c r="K7">
-        <f>(G7-I7)/G7</f>
+      <c r="L7">
+        <f>(H7-J7)/H7</f>
         <v>0.30534807457024898</v>
       </c>
-      <c r="L7">
-        <f>K7-J7</f>
+      <c r="M7">
+        <f>L7-K7</f>
         <v>0.2215487237358868</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="P7">
+        <v>0.999</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>11926</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>10921</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S8" si="7">P7^Q7</f>
+        <v>6.576768923321257E-6</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>1.7976159627868532E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
         <v>178</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>148</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>173.25</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>70</v>
       </c>
-      <c r="G8">
-        <f>B8*N8 + (N8-1)</f>
+      <c r="H8">
+        <f>C8*O8 + (O8-1)</f>
         <v>178999</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
+      <c r="I8">
+        <f t="shared" si="6"/>
         <v>148999</v>
       </c>
-      <c r="I8">
-        <f>E8*N8-F8*(N8-1)</f>
+      <c r="J8">
+        <f>F8*O8-G8*(O8-1)</f>
         <v>103320</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>0.1675987016687244</v>
       </c>
-      <c r="K8">
-        <f>(G8-I8)/G8</f>
+      <c r="L8">
+        <f>(H8-J8)/H8</f>
         <v>0.42279007145291314</v>
       </c>
-      <c r="L8">
-        <f>K8-J8</f>
+      <c r="M8">
+        <f>L8-K8</f>
         <v>0.25519136978418877</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="P8">
+        <v>0.999</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>14240</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>11840</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>6.4945989500706921E-7</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>7.1677128030799023E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="P9">
+        <v>0.999</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
         <v>126</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>120</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>122</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9.75</v>
       </c>
-      <c r="G10">
-        <f>B10*N10 + (N10-1)</f>
+      <c r="H10">
+        <f>C10*O10 + (O10-1)</f>
         <v>126999</v>
       </c>
-      <c r="H10">
-        <f>D10*N10+N10-1</f>
+      <c r="I10">
+        <f>E10*O10+O10-1</f>
         <v>120999</v>
       </c>
-      <c r="I10">
-        <f>E10*N10-F10*(N10-1)</f>
+      <c r="J10">
+        <f>F10*O10-G10*(O10-1)</f>
         <v>112259.75</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>4.724446649186214E-2</v>
       </c>
-      <c r="K10">
-        <f>(G10-I10)/G10</f>
+      <c r="L10">
+        <f>(H10-J10)/H10</f>
         <v>0.11605800045669651</v>
       </c>
-      <c r="L10">
-        <f>K10-J10</f>
+      <c r="M10">
+        <f>L10-K10</f>
         <v>6.8813533964834361E-2</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="P10">
+        <v>0.999</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>5670</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+      <c r="S10">
+        <f>P10^Q10</f>
+        <v>3.4380979177071071E-3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>4.5043945081954728E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>76</v>
       </c>
       <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11">
         <v>126</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>91</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>92.25</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>17.332999999999998</v>
       </c>
-      <c r="G11">
-        <f>B11*N11 + (N11-1)</f>
+      <c r="H11">
+        <f>C11*O11 + (O11-1)</f>
         <v>126999</v>
       </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H12" si="3">D11*N11+N11-1</f>
+      <c r="I11">
+        <f t="shared" ref="I11:I12" si="8">E11*O11+O11-1</f>
         <v>91999</v>
       </c>
-      <c r="I11">
-        <f>E11*N11-F11*(N11-1)</f>
+      <c r="J11">
+        <f>F11*O11-G11*(O11-1)</f>
         <v>74934.332999999999</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>0.27559272120252915</v>
       </c>
-      <c r="K11">
-        <f>(G11-I11)/G11</f>
+      <c r="L11">
+        <f>(H11-J11)/H11</f>
         <v>0.40996123591524342</v>
       </c>
-      <c r="L11">
-        <f>K11-J11</f>
+      <c r="M11">
+        <f>L11-K11</f>
         <v>0.13436851471271427</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="P11">
+        <v>0.999</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>7308</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>5278</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:S12" si="9">P11^Q11</f>
+        <v>6.6771011524556468E-4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>5.0891688086019274E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>75</v>
       </c>
       <c r="B12">
+        <v>72</v>
+      </c>
+      <c r="C12">
         <v>126</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-1</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>88</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>90.75</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>20.3333333333333</v>
       </c>
-      <c r="G12">
-        <f>B12*N12 + (N12-1)</f>
+      <c r="H12">
+        <f>C12*O12 + (O12-1)</f>
         <v>126999</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
+      <c r="I12">
+        <f t="shared" si="8"/>
         <v>88999</v>
       </c>
-      <c r="I12">
-        <f>E12*N12-F12*(N12-1)</f>
+      <c r="J12">
+        <f>F12*O12-G12*(O12-1)</f>
         <v>70437.000000000029</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>0.29921495444846025</v>
       </c>
-      <c r="K12">
-        <f>(G12-I12)/G12</f>
+      <c r="L12">
+        <f>(H12-J12)/H12</f>
         <v>0.44537358561878415</v>
       </c>
-      <c r="L12">
-        <f>K12-J12</f>
+      <c r="M12">
+        <f>L12-K12</f>
         <v>0.1461586311703239</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="P12">
+        <v>0.999</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>9072</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>6336</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="9"/>
+        <v>1.1431657023114619E-4</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>1.7657670150079408E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="P13">
+        <v>0.999</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>108</v>
-      </c>
-      <c r="D14">
-        <v>106</v>
       </c>
       <c r="E14">
         <v>106</v>
       </c>
       <c r="F14">
+        <v>106</v>
+      </c>
+      <c r="G14">
         <v>49</v>
       </c>
-      <c r="G14">
-        <f>B14*N14 + (N14-1)</f>
+      <c r="H14">
+        <f>C14*O14 + (O14-1)</f>
         <v>108999</v>
       </c>
-      <c r="H14">
-        <f>D14*N14+N14-1</f>
+      <c r="I14">
+        <f>E14*O14+O14-1</f>
         <v>106999</v>
       </c>
-      <c r="I14">
-        <f>E14*N14-F14*(N14-1)</f>
+      <c r="J14">
+        <f>F14*O14-G14*(O14-1)</f>
         <v>57049</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>1.8348792190754044E-2</v>
       </c>
-      <c r="K14">
-        <f>(G14-I14)/G14</f>
+      <c r="L14">
+        <f>(H14-J14)/H14</f>
         <v>0.47660987715483627</v>
       </c>
-      <c r="L14">
-        <f>K14-J14</f>
+      <c r="M14">
+        <f>L14-K14</f>
         <v>0.45826108496408224</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1000</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="P14">
+        <v>0.999</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>5724</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>5618</v>
+      </c>
+      <c r="S14">
+        <f>P14^Q14</f>
+        <v>3.2572763462074892E-3</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>3.6217031727784166E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="B15">
+        <v>67</v>
+      </c>
+      <c r="C15">
         <v>108</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-1</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>82</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>84</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>27</v>
       </c>
-      <c r="G15">
-        <f>B15*N15 + (N15-1)</f>
+      <c r="H15">
+        <f>C15*O15 + (O15-1)</f>
         <v>108999</v>
       </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H16" si="4">D15*N15+N15-1</f>
+      <c r="I15">
+        <f t="shared" ref="I15:I16" si="10">E15*O15+O15-1</f>
         <v>82999</v>
       </c>
-      <c r="I15">
-        <f>E15*N15-F15*(N15-1)</f>
+      <c r="J15">
+        <f>F15*O15-G15*(O15-1)</f>
         <v>57027</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>0.23853429847980256</v>
       </c>
-      <c r="K15">
-        <f>(G15-I15)/G15</f>
+      <c r="L15">
+        <f>(H15-J15)/H15</f>
         <v>0.47681171386893456</v>
       </c>
-      <c r="L15">
-        <f>K15-J15</f>
+      <c r="M15">
+        <f>L15-K15</f>
         <v>0.238277415389132</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="P15">
+        <v>0.999</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>7236</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>5494</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:S16" si="11">P15^Q15</f>
+        <v>7.1758409343080959E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>4.1000798382896672E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
         <v>108</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-1</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>80</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>95.4</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>51.25</v>
       </c>
-      <c r="G16">
-        <f>B16*N16 + (N16-1)</f>
+      <c r="H16">
+        <f>C16*O16 + (O16-1)</f>
         <v>108999</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
+      <c r="I16">
+        <f t="shared" si="10"/>
         <v>80999</v>
       </c>
-      <c r="I16">
-        <f>E16*N16-F16*(N16-1)</f>
+      <c r="J16">
+        <f>F16*O16-G16*(O16-1)</f>
         <v>44201.25</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>0.25688309067055659</v>
       </c>
-      <c r="K16">
-        <f>(G16-I16)/G16</f>
+      <c r="L16">
+        <f>(H16-J16)/H16</f>
         <v>0.59448022458921645</v>
       </c>
-      <c r="L16">
-        <f>K16-J16</f>
+      <c r="M16">
+        <f>L16-K16</f>
         <v>0.33759713391865986</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="P16">
+        <v>0.999</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>8640</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>6400</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="11"/>
+        <v>1.7612389139943043E-4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>1.6562452520269453E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="P17">
+        <v>0.999</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>69</v>
       </c>
       <c r="B18">
+        <v>53</v>
+      </c>
+      <c r="C18">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-1</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>99</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>100.5</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>40</v>
       </c>
-      <c r="G18">
-        <f>B18*N18 + (N18-1)</f>
+      <c r="H18">
+        <f>C18*O18 + (O18-1)</f>
         <v>108999</v>
       </c>
-      <c r="H18">
-        <f>D18*N18+N18-1</f>
+      <c r="I18">
+        <f>E18*O18+O18-1</f>
         <v>99999</v>
       </c>
-      <c r="I18">
-        <f>E18*N18-F18*(N18-1)</f>
+      <c r="J18">
+        <f>F18*O18-G18*(O18-1)</f>
         <v>60540</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>8.2569564858393202E-2</v>
       </c>
-      <c r="K18">
-        <f>(G18-I18)/G18</f>
+      <c r="L18">
+        <f>(H18-J18)/H18</f>
         <v>0.44458206038587511</v>
       </c>
-      <c r="L18">
-        <f>K18-J18</f>
+      <c r="M18">
+        <f>L18-K18</f>
         <v>0.36201249552748194</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="P18">
+        <v>0.999</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>5724</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>5247</v>
+      </c>
+      <c r="S18">
+        <f>P18^Q18</f>
+        <v>3.2572763462074892E-3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>5.249485273580037E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>70</v>
       </c>
       <c r="B19">
+        <v>67</v>
+      </c>
+      <c r="C19">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>79</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>80.5</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>20.832999999999998</v>
       </c>
-      <c r="G19">
-        <f>B19*N19 + (N19-1)</f>
+      <c r="H19">
+        <f>C19*O19 + (O19-1)</f>
         <v>108999</v>
       </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H23" si="5">D19*N19+N19-1</f>
+      <c r="I19">
+        <f t="shared" ref="I19:I23" si="12">E19*O19+O19-1</f>
         <v>79999</v>
       </c>
-      <c r="I19">
-        <f>E19*N19-F19*(N19-1)</f>
+      <c r="J19">
+        <f>F19*O19-G19*(O19-1)</f>
         <v>59687.832999999999</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>0.26605748676593366</v>
       </c>
-      <c r="K19">
-        <f>(G19-I19)/G19</f>
+      <c r="L19">
+        <f>(H19-J19)/H19</f>
         <v>0.45240017798328425</v>
       </c>
-      <c r="L19">
-        <f>K19-J19</f>
+      <c r="M19">
+        <f>L19-K19</f>
         <v>0.18634269121735059</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="P19">
+        <v>0.999</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>7236</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>5293</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S21" si="13">P19^Q19</f>
+        <v>7.1758409343080959E-4</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>5.0133633305574519E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>71</v>
       </c>
       <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20">
         <v>108</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-1</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>77</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>93</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>50.67</v>
       </c>
-      <c r="G20">
-        <f>B20*N20 + (N20-1)</f>
+      <c r="H20">
+        <f>C20*O20 + (O20-1)</f>
         <v>108999</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
+      <c r="I20">
+        <f t="shared" si="12"/>
         <v>77999</v>
       </c>
-      <c r="I20">
-        <f>E20*N20-F20*(N20-1)</f>
+      <c r="J20">
+        <f>F20*O20-G20*(O20-1)</f>
         <v>42380.67</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>0.28440627895668769</v>
       </c>
-      <c r="K20">
-        <f>(G20-I20)/G20</f>
+      <c r="L20">
+        <f>(H20-J20)/H20</f>
         <v>0.61118294663253792</v>
       </c>
-      <c r="L20">
-        <f>K20-J20</f>
+      <c r="M20">
+        <f>L20-K20</f>
         <v>0.32677666767585023</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="P20">
+        <v>0.999</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>8640</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>6160</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="13"/>
+        <v>1.7612389139943043E-4</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>2.1057532131543402E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>134</v>
       </c>
       <c r="B21">
+        <v>63</v>
+      </c>
+      <c r="C21">
         <v>114</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>94</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>103.25</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>82.3333333333333</v>
       </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G23" si="6">B21*N21 + (N21-1)</f>
+      <c r="H21">
+        <f t="shared" ref="H21:H23" si="14">C21*O21 + (O21-1)</f>
         <v>114999</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="5"/>
+      <c r="I21">
+        <f t="shared" si="12"/>
         <v>94999</v>
       </c>
-      <c r="I21">
-        <f t="shared" ref="I21:I23" si="7">E21*N21-F21*(N21-1)</f>
+      <c r="J21">
+        <f t="shared" ref="J21:J23" si="15">F21*O21-G21*(O21-1)</f>
         <v>20999.000000000029</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>0.1739145557787459</v>
       </c>
-      <c r="K21">
-        <f t="shared" ref="K21:K23" si="8">(G21-I21)/G21</f>
+      <c r="L21">
+        <f t="shared" ref="L21:L23" si="16">(H21-J21)/H21</f>
         <v>0.81739841216010545</v>
       </c>
-      <c r="L21">
-        <f t="shared" ref="L21:L23" si="9">K21-J21</f>
+      <c r="M21">
+        <f t="shared" ref="M21:M23" si="17">L21-K21</f>
         <v>0.64348385638135952</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="P21">
+        <v>0.999</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>7182</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>5922</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="13"/>
+        <v>7.5741942505944582E-4</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>2.67190660942345E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>135</v>
       </c>
       <c r="B22">
+        <v>67</v>
+      </c>
+      <c r="C22">
         <v>114</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>94</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>100</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>80</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
+      <c r="H22">
+        <f t="shared" si="14"/>
         <v>114999</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="5"/>
+      <c r="I22">
+        <f t="shared" si="12"/>
         <v>94999</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="7"/>
+      <c r="J22">
+        <f t="shared" si="15"/>
         <v>20080</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>0.1739145557787459</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="8"/>
+      <c r="L22">
+        <f t="shared" si="16"/>
         <v>0.82538978599813917</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="9"/>
+      <c r="M22">
+        <f t="shared" si="17"/>
         <v>0.65147523021939324</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="P22">
+        <v>0.999</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>7638</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>6298</v>
+      </c>
+      <c r="S22">
+        <f>P22^Q22</f>
+        <v>4.7995339721511597E-4</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>1.8341922210466113E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>136</v>
       </c>
       <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
         <v>114</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>81</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>93.75</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>82.3333333333333</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
+      <c r="H23">
+        <f t="shared" si="14"/>
         <v>114999</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
+      <c r="I23">
+        <f t="shared" si="12"/>
         <v>81999</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="7"/>
+      <c r="J23">
+        <f t="shared" si="15"/>
         <v>11499.000000000029</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>0.28695901703493076</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="8"/>
+      <c r="L23">
+        <f t="shared" si="16"/>
         <v>0.90000782615500974</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="9"/>
+      <c r="M23">
+        <f t="shared" si="17"/>
         <v>0.61304880912007897</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="P23">
+        <v>0.999</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>9120</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>6480</v>
+      </c>
+      <c r="S23">
+        <f>P23^Q23</f>
+        <v>1.0895636878124121E-4</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>1.5288458699119808E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="S24">
+        <f>AVERAGE(S23,S20,S16,S8,S4)</f>
+        <v>9.6766783984405771E-5</v>
+      </c>
+      <c r="T24">
+        <f>AVERAGE(T23,T20,T16,T8,T4)</f>
+        <v>1.3001000801804376E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="T25">
+        <f>T24/S24</f>
+        <v>13.435396182950052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="J26">
-        <f t="shared" ref="J26:K28" si="10">(J2+J6+J10+J14+J18)/5</f>
+        <f>(K2+K6+K10+K14+K18)/5</f>
         <v>5.0398280429864238E-2</v>
       </c>
       <c r="K26">
-        <f t="shared" si="10"/>
+        <f>(L2+L6+L10+L14+L18)/5</f>
         <v>0.30958176561628958</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:20">
       <c r="J27">
-        <f t="shared" si="10"/>
+        <f>(K3+K7+K11+K15+K19)/5</f>
         <v>0.20983408284401728</v>
       </c>
       <c r="K27">
-        <f t="shared" si="10"/>
+        <f>(L3+L7+L11+L15+L19)/5</f>
         <v>0.39307212319259943</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>61</v>
       </c>
       <c r="J28">
-        <f t="shared" si="10"/>
+        <f>(K4+K8+K12+K16+K20)/5</f>
         <v>0.2756952279238693</v>
       </c>
       <c r="K28">
-        <f>(K4+K8+K12+K16+K20)/5</f>
+        <f>(L4+L8+L12+L16+L20)/5</f>
         <v>0.50906236045124431</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -6645,8 +8087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A67E9-302D-4499-979D-4DB1E23B1E16}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6846,7 +8288,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7193,7 +8635,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P10"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7266,18 +8708,18 @@
         <v>28999</v>
       </c>
       <c r="D2">
-        <f>(C2+1)/R2</f>
+        <f t="shared" ref="D2:D16" si="0">(C2+1)/R2</f>
         <v>29</v>
       </c>
       <c r="E2">
-        <f>B2*C2</f>
+        <f t="shared" ref="E2:E16" si="1">B2*C2</f>
         <v>434985</v>
       </c>
       <c r="F2">
         <v>88</v>
       </c>
       <c r="G2">
-        <f>R2*F2</f>
+        <f t="shared" ref="G2:G16" si="2">R2*F2</f>
         <v>88000</v>
       </c>
       <c r="H2">
@@ -7285,7 +8727,7 @@
         <v>0.20229885057471264</v>
       </c>
       <c r="I2">
-        <f>G2/E2</f>
+        <f t="shared" ref="I2:I16" si="3">G2/E2</f>
         <v>0.20230582663770014</v>
       </c>
       <c r="J2">
@@ -7295,7 +8737,7 @@
         <v>10501</v>
       </c>
       <c r="L2">
-        <f>B2*K2</f>
+        <f t="shared" ref="L2:L7" si="4">B2*K2</f>
         <v>157515</v>
       </c>
       <c r="M2">
@@ -7328,26 +8770,26 @@
         <v>74999</v>
       </c>
       <c r="D3">
-        <f>(C3+1)/R3</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E3">
-        <f>B3*C3</f>
+        <f t="shared" si="1"/>
         <v>3749950</v>
       </c>
       <c r="F3">
         <v>650</v>
       </c>
       <c r="G3">
-        <f>R3*F3</f>
+        <f t="shared" si="2"/>
         <v>650000</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="0">F3/(B3*D3)</f>
+        <f t="shared" ref="H3:H16" si="5">F3/(B3*D3)</f>
         <v>0.17333333333333334</v>
       </c>
       <c r="I3">
-        <f>G3/E3</f>
+        <f t="shared" si="3"/>
         <v>0.17333564447525968</v>
       </c>
       <c r="J3">
@@ -7357,7 +8799,7 @@
         <v>35811</v>
       </c>
       <c r="L3">
-        <f>B3*K3</f>
+        <f t="shared" si="4"/>
         <v>1790550</v>
       </c>
       <c r="M3">
@@ -7368,11 +8810,11 @@
         <v>650000</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O16" si="1">M3/(J3*B3)</f>
+        <f t="shared" ref="O3:O16" si="6">M3/(J3*B3)</f>
         <v>0.30952380952380953</v>
       </c>
       <c r="P3">
-        <f>N3/L3</f>
+        <f t="shared" ref="P2:P7" si="7">N3/L3</f>
         <v>0.36301695009913154</v>
       </c>
       <c r="R3">
@@ -7390,26 +8832,26 @@
         <v>134999</v>
       </c>
       <c r="D4">
-        <f>(C4+1)/R4</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="E4">
-        <f>B4*C4</f>
+        <f t="shared" si="1"/>
         <v>12149910</v>
       </c>
       <c r="F4">
         <v>1994</v>
       </c>
       <c r="G4">
-        <f>R4*F4</f>
+        <f t="shared" si="2"/>
         <v>1994000</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.16411522633744857</v>
       </c>
       <c r="I4">
-        <f>G4/E4</f>
+        <f t="shared" si="3"/>
         <v>0.1641164420147968</v>
       </c>
       <c r="J4">
@@ -7419,22 +8861,22 @@
         <v>71349</v>
       </c>
       <c r="L4">
-        <f>B4*K4</f>
+        <f t="shared" si="4"/>
         <v>6421410</v>
       </c>
       <c r="M4">
         <v>1994</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N16" si="2">M4*R4</f>
+        <f t="shared" ref="N4:N16" si="8">M4*R4</f>
         <v>1994000</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.26375661375661374</v>
       </c>
       <c r="P4">
-        <f>N4/L4</f>
+        <f t="shared" si="7"/>
         <v>0.31052370118089329</v>
       </c>
       <c r="R4">
@@ -7452,26 +8894,26 @@
         <v>22999</v>
       </c>
       <c r="D5">
-        <f>(C5+1)/R5</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E5">
-        <f>B5*C5</f>
+        <f t="shared" si="1"/>
         <v>321986</v>
       </c>
       <c r="F5">
         <v>108</v>
       </c>
       <c r="G5">
-        <f>R5*F5</f>
+        <f t="shared" si="2"/>
         <v>108000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.33540372670807456</v>
       </c>
       <c r="I5">
-        <f>G5/E5</f>
+        <f t="shared" si="3"/>
         <v>0.33541831011286205</v>
       </c>
       <c r="J5">
@@ -7481,14 +8923,14 @@
         <v>13653.75</v>
       </c>
       <c r="L5">
-        <f>B5*K5</f>
+        <f t="shared" si="4"/>
         <v>191152.5</v>
       </c>
       <c r="M5">
         <v>108</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>108000</v>
       </c>
       <c r="O5">
@@ -7496,7 +8938,7 @@
         <v>0.51428571428571423</v>
       </c>
       <c r="P5">
-        <f>N5/L5</f>
+        <f t="shared" si="7"/>
         <v>0.56499391846823876</v>
       </c>
       <c r="R5">
@@ -7514,26 +8956,26 @@
         <v>80999</v>
       </c>
       <c r="D6">
-        <f>(C6+1)/R6</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="E6">
-        <f>B6*C6</f>
+        <f t="shared" si="1"/>
         <v>3644955</v>
       </c>
       <c r="F6">
         <v>986</v>
       </c>
       <c r="G6">
-        <f>R6*F6</f>
+        <f t="shared" si="2"/>
         <v>986000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.27050754458161863</v>
       </c>
       <c r="I6">
-        <f>G6/E6</f>
+        <f t="shared" si="3"/>
         <v>0.27051088422216463</v>
       </c>
       <c r="J6">
@@ -7543,14 +8985,14 @@
         <v>40574.25</v>
       </c>
       <c r="L6">
-        <f>B6*K6</f>
+        <f t="shared" si="4"/>
         <v>1825841.25</v>
       </c>
       <c r="M6">
         <v>944</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>944000</v>
       </c>
       <c r="O6">
@@ -7558,7 +9000,7 @@
         <v>0.34389799635701274</v>
       </c>
       <c r="P6">
-        <f>N6/L6</f>
+        <f t="shared" si="7"/>
         <v>0.51702194810200508</v>
       </c>
       <c r="R6">
@@ -7576,26 +9018,26 @@
         <v>178999</v>
       </c>
       <c r="D7">
-        <f>(C7+1)/R7</f>
+        <f t="shared" si="0"/>
         <v>179</v>
       </c>
       <c r="E7">
-        <f>B7*C7</f>
+        <f t="shared" si="1"/>
         <v>14319920</v>
       </c>
       <c r="F7">
         <v>4039</v>
       </c>
       <c r="G7">
-        <f>R7*F7</f>
+        <f t="shared" si="2"/>
         <v>4039000</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.28205307262569834</v>
       </c>
       <c r="I7">
-        <f>G7/E7</f>
+        <f t="shared" si="3"/>
         <v>0.28205464834999078</v>
       </c>
       <c r="J7">
@@ -7605,22 +9047,22 @@
         <v>103320</v>
       </c>
       <c r="L7">
-        <f>B7*K7</f>
+        <f t="shared" si="4"/>
         <v>8265600</v>
       </c>
       <c r="M7">
         <v>4039</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4039000</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.34113175675675678</v>
       </c>
       <c r="P7">
-        <f>N7/L7</f>
+        <f t="shared" si="7"/>
         <v>0.48865176151761519</v>
       </c>
       <c r="R7">
@@ -7638,26 +9080,26 @@
         <v>26999</v>
       </c>
       <c r="D8">
-        <f>(C8+1)/R8</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E8">
-        <f>B8*C8</f>
+        <f t="shared" si="1"/>
         <v>404985</v>
       </c>
       <c r="F8">
         <v>76</v>
       </c>
       <c r="G8">
-        <f>R8*F8</f>
+        <f t="shared" si="2"/>
         <v>76000</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.18765432098765433</v>
       </c>
       <c r="I8">
-        <f>G8/E8</f>
+        <f t="shared" si="3"/>
         <v>0.18766127140511377</v>
       </c>
       <c r="J8">
@@ -7667,22 +9109,22 @@
         <v>11004</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L10" si="3">B8*K8</f>
+        <f t="shared" ref="L8:L10" si="9">B8*K8</f>
         <v>165060</v>
       </c>
       <c r="M8">
         <v>76</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>76000</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.3619047619047619</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P10" si="4">N8/L8</f>
+        <f t="shared" ref="P8:P10" si="10">N8/L8</f>
         <v>0.46043862837755967</v>
       </c>
       <c r="R8">
@@ -7700,26 +9142,26 @@
         <v>66999</v>
       </c>
       <c r="D9">
-        <f>(C9+1)/R9</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="E9">
-        <f>B9*C9</f>
+        <f t="shared" si="1"/>
         <v>3014955</v>
       </c>
       <c r="F9">
         <v>246</v>
       </c>
       <c r="G9">
-        <f>R9*F9</f>
+        <f t="shared" si="2"/>
         <v>246000</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.1592039800995025E-2</v>
       </c>
       <c r="I9">
-        <f>G9/E9</f>
+        <f t="shared" si="3"/>
         <v>8.1593257610810113E-2</v>
       </c>
       <c r="J9">
@@ -7729,22 +9171,22 @@
         <v>12207.332999999999</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>549329.98499999999</v>
       </c>
       <c r="M9">
         <v>246</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>246000</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.12424242424242424</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.44781826355246201</v>
       </c>
       <c r="R9">
@@ -7762,26 +9204,26 @@
         <v>114999</v>
       </c>
       <c r="D10">
-        <f>(C10+1)/R10</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="E10">
-        <f>B10*C10</f>
+        <f t="shared" si="1"/>
         <v>9199920</v>
       </c>
       <c r="F10">
         <v>450</v>
       </c>
       <c r="G10">
-        <f>R10*F10</f>
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.8913043478260872E-2</v>
       </c>
       <c r="I10">
-        <f>G10/E10</f>
+        <f t="shared" si="3"/>
         <v>4.8913468812772282E-2</v>
       </c>
       <c r="J10">
@@ -7791,22 +9233,22 @@
         <v>11499.000000000029</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>919920.00000000233</v>
       </c>
       <c r="M10">
         <v>450</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>450000</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.48917297156274336</v>
       </c>
       <c r="R10">
@@ -7824,26 +9266,26 @@
         <v>20999</v>
       </c>
       <c r="D11">
-        <f>(C11+1)/R11</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E11">
-        <f>B11*C11</f>
+        <f t="shared" si="1"/>
         <v>314985</v>
       </c>
       <c r="F11">
         <v>72</v>
       </c>
       <c r="G11">
-        <f>R11*F11</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.22857142857142856</v>
       </c>
       <c r="I11">
-        <f>G11/E11</f>
+        <f t="shared" si="3"/>
         <v>0.2285823134434973</v>
       </c>
       <c r="J11">
@@ -7853,22 +9295,22 @@
         <v>8872.7999999999993</v>
       </c>
       <c r="L11">
-        <f>B11*K11</f>
+        <f t="shared" ref="L11:L16" si="11">B11*K11</f>
         <v>133092</v>
       </c>
       <c r="M11">
         <v>72</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>72000</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="P11">
-        <f>N11/L11</f>
+        <f t="shared" ref="P11:P16" si="12">N11/L11</f>
         <v>0.54097917230186643</v>
       </c>
       <c r="R11">
@@ -7886,26 +9328,26 @@
         <v>60999</v>
       </c>
       <c r="D12">
-        <f>(C12+1)/R12</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="E12">
-        <f>B12*C12</f>
+        <f t="shared" si="1"/>
         <v>2744955</v>
       </c>
       <c r="F12">
         <v>662</v>
       </c>
       <c r="G12">
-        <f>R12*F12</f>
+        <f t="shared" si="2"/>
         <v>662000</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.24116575591985429</v>
       </c>
       <c r="I12">
-        <f>G12/E12</f>
+        <f t="shared" si="3"/>
         <v>0.24116970952164971</v>
       </c>
       <c r="J12">
@@ -7915,22 +9357,22 @@
         <v>24874.75</v>
       </c>
       <c r="L12">
-        <f>B12*K12</f>
+        <f t="shared" si="11"/>
         <v>1119363.75</v>
       </c>
       <c r="M12">
         <v>662</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>662000</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.33434343434343433</v>
       </c>
       <c r="P12">
-        <f>N12/L12</f>
+        <f t="shared" si="12"/>
         <v>0.59140739549587884</v>
       </c>
       <c r="R12">
@@ -7948,26 +9390,26 @@
         <v>108999</v>
       </c>
       <c r="D13">
-        <f>(C13+1)/R13</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="E13">
-        <f>B13*C13</f>
+        <f t="shared" si="1"/>
         <v>8719920</v>
       </c>
       <c r="F13">
         <v>2162</v>
       </c>
       <c r="G13">
-        <f>R13*F13</f>
+        <f t="shared" si="2"/>
         <v>2162000</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.24793577981651377</v>
       </c>
       <c r="I13">
-        <f>G13/E13</f>
+        <f t="shared" si="3"/>
         <v>0.24793805447756401</v>
       </c>
       <c r="J13">
@@ -7977,22 +9419,22 @@
         <v>44201.25</v>
       </c>
       <c r="L13">
-        <f>B13*K13</f>
+        <f t="shared" si="11"/>
         <v>3536100</v>
       </c>
       <c r="M13">
         <v>2162</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2162000</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.33781250000000002</v>
       </c>
       <c r="P13">
-        <f>N13/L13</f>
+        <f t="shared" si="12"/>
         <v>0.61140804841492036</v>
       </c>
       <c r="R13">
@@ -8010,26 +9452,26 @@
         <v>24999</v>
       </c>
       <c r="D14">
-        <f>(C14+1)/R14</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E14">
-        <f>B14*C14</f>
+        <f t="shared" si="1"/>
         <v>424983</v>
       </c>
       <c r="F14">
         <v>134</v>
       </c>
       <c r="G14">
-        <f>R14*F14</f>
+        <f t="shared" si="2"/>
         <v>134000</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.31529411764705884</v>
       </c>
       <c r="I14">
-        <f>G14/E14</f>
+        <f t="shared" si="3"/>
         <v>0.31530672991625547</v>
       </c>
       <c r="J14">
@@ -8039,22 +9481,22 @@
         <v>13422.25</v>
       </c>
       <c r="L14">
-        <f>B14*K14</f>
+        <f t="shared" si="11"/>
         <v>228178.25</v>
       </c>
       <c r="M14">
         <v>134</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>134000</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.46366782006920415</v>
       </c>
       <c r="P14">
-        <f>N14/L14</f>
+        <f t="shared" si="12"/>
         <v>0.58726017926774354</v>
       </c>
       <c r="R14">
@@ -8072,26 +9514,26 @@
         <v>60999</v>
       </c>
       <c r="D15">
-        <f>(C15+1)/R15</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="E15">
-        <f>B15*C15</f>
+        <f t="shared" si="1"/>
         <v>2744955</v>
       </c>
       <c r="F15">
         <v>710</v>
       </c>
       <c r="G15">
-        <f>R15*F15</f>
+        <f t="shared" si="2"/>
         <v>710000</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.25865209471766848</v>
       </c>
       <c r="I15">
-        <f>G15/E15</f>
+        <f t="shared" si="3"/>
         <v>0.25865633498545515</v>
       </c>
       <c r="J15">
@@ -8101,22 +9543,22 @@
         <v>24526</v>
       </c>
       <c r="L15">
-        <f>B15*K15</f>
+        <f t="shared" si="11"/>
         <v>1103670</v>
       </c>
       <c r="M15">
         <v>710</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>710000</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.38482384823848237</v>
       </c>
       <c r="P15">
-        <f>N15/L15</f>
+        <f t="shared" si="12"/>
         <v>0.64330823525147918</v>
       </c>
       <c r="R15">
@@ -8134,26 +9576,26 @@
         <v>108999</v>
       </c>
       <c r="D16">
-        <f>(C16+1)/R16</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="E16">
-        <f>B16*C16</f>
+        <f t="shared" si="1"/>
         <v>8719920</v>
       </c>
       <c r="F16">
         <v>2258</v>
       </c>
       <c r="G16">
-        <f>R16*F16</f>
+        <f t="shared" si="2"/>
         <v>2258000</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.25894495412844037</v>
       </c>
       <c r="I16">
-        <f>G16/E16</f>
+        <f t="shared" si="3"/>
         <v>0.25894732979201646</v>
       </c>
       <c r="J16">
@@ -8163,22 +9605,22 @@
         <v>42380.67</v>
       </c>
       <c r="L16">
-        <f>B16*K16</f>
+        <f t="shared" si="11"/>
         <v>3390453.5999999996</v>
       </c>
       <c r="M16">
         <v>2258</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2258000</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.36655844155844158</v>
       </c>
       <c r="P16">
-        <f>N16/L16</f>
+        <f t="shared" si="12"/>
         <v>0.66598758349030351</v>
       </c>
       <c r="R16">
@@ -8291,8 +9733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7072F83-0D75-41E4-8633-778065D5C958}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8365,18 +9807,18 @@
         <v>28999</v>
       </c>
       <c r="D2">
-        <f>(C2+1)/R2</f>
+        <f t="shared" ref="D2:D16" si="0">(C2+1)/R2</f>
         <v>29</v>
       </c>
       <c r="E2">
-        <f>B2*C2</f>
+        <f t="shared" ref="E2:E16" si="1">B2*C2</f>
         <v>347988</v>
       </c>
       <c r="F2">
         <v>88</v>
       </c>
       <c r="G2">
-        <f>R2*F2</f>
+        <f t="shared" ref="G2:G16" si="2">R2*F2</f>
         <v>88000</v>
       </c>
       <c r="H2">
@@ -8384,7 +9826,7 @@
         <v>0.25287356321839083</v>
       </c>
       <c r="I2">
-        <f>G2/E2</f>
+        <f t="shared" ref="I2:I16" si="3">G2/E2</f>
         <v>0.2528822832971252</v>
       </c>
       <c r="J2">
@@ -8394,7 +9836,7 @@
         <v>14400</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L10" si="0">B2*K2</f>
+        <f t="shared" ref="L2:L10" si="4">B2*K2</f>
         <v>172800</v>
       </c>
       <c r="M2">
@@ -8409,7 +9851,7 @@
         <v>0.47619047619047616</v>
       </c>
       <c r="P2">
-        <f>N2/L2</f>
+        <f t="shared" ref="P2:P16" si="5">N2/L2</f>
         <v>0.46296296296296297</v>
       </c>
       <c r="R2">
@@ -8427,26 +9869,26 @@
         <v>74999</v>
       </c>
       <c r="D3">
-        <f>(C3+1)/R3</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="E3">
-        <f>B3*C3</f>
+        <f t="shared" si="1"/>
         <v>2774963</v>
       </c>
       <c r="F3">
         <v>650</v>
       </c>
       <c r="G3">
-        <f>R3*F3</f>
+        <f t="shared" si="2"/>
         <v>650000</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="1">F3/(B3*D3)</f>
+        <f t="shared" ref="H3:H16" si="6">F3/(B3*D3)</f>
         <v>0.23423423423423423</v>
       </c>
       <c r="I3">
-        <f>G3/E3</f>
+        <f t="shared" si="3"/>
         <v>0.23423735739899956</v>
       </c>
       <c r="J3">
@@ -8456,7 +9898,7 @@
         <v>40010</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1480370</v>
       </c>
       <c r="M3">
@@ -8467,11 +9909,11 @@
         <v>650000</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O16" si="2">M3/(J3*B3)</f>
+        <f t="shared" ref="O3:O16" si="7">M3/(J3*B3)</f>
         <v>0.37377803335250143</v>
       </c>
       <c r="P3">
-        <f>N3/L3</f>
+        <f t="shared" si="5"/>
         <v>0.43907941933435563</v>
       </c>
       <c r="R3">
@@ -8489,26 +9931,26 @@
         <v>134999</v>
       </c>
       <c r="D4">
-        <f>(C4+1)/R4</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="E4">
-        <f>B4*C4</f>
+        <f t="shared" si="1"/>
         <v>9044933</v>
       </c>
       <c r="F4">
         <v>1994</v>
       </c>
       <c r="G4">
-        <f>R4*F4</f>
+        <f t="shared" si="2"/>
         <v>1994000</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.22045328911000553</v>
       </c>
       <c r="I4">
-        <f>G4/E4</f>
+        <f t="shared" si="3"/>
         <v>0.22045492210942855</v>
       </c>
       <c r="J4">
@@ -8518,22 +9960,22 @@
         <v>91686</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6142962</v>
       </c>
       <c r="M4">
         <v>1994</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N16" si="3">M4*R4</f>
+        <f t="shared" ref="N4:N16" si="8">M4*R4</f>
         <v>1994000</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.27303847733808023</v>
       </c>
       <c r="P4">
-        <f>N4/L4</f>
+        <f t="shared" si="5"/>
         <v>0.32459911033146549</v>
       </c>
       <c r="R4">
@@ -8551,26 +9993,26 @@
         <v>22999</v>
       </c>
       <c r="D5">
-        <f>(C5+1)/R5</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E5">
-        <f>B5*C5</f>
+        <f t="shared" si="1"/>
         <v>275988</v>
       </c>
       <c r="F5">
         <v>108</v>
       </c>
       <c r="G5">
-        <f>R5*F5</f>
+        <f t="shared" si="2"/>
         <v>108000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="I5">
-        <f>G5/E5</f>
+        <f t="shared" si="3"/>
         <v>0.39132136179833904</v>
       </c>
       <c r="J5">
@@ -8580,22 +10022,22 @@
         <v>15307.25</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>183687</v>
       </c>
       <c r="M5">
         <v>108</v>
       </c>
       <c r="N5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>108000</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="P5">
-        <f>N5/L5</f>
+        <f t="shared" si="5"/>
         <v>0.58795668719071026</v>
       </c>
       <c r="R5">
@@ -8613,26 +10055,26 @@
         <v>80999</v>
       </c>
       <c r="D6">
-        <f>(C6+1)/R6</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="E6">
-        <f>B6*C6</f>
+        <f t="shared" si="1"/>
         <v>2996963</v>
       </c>
       <c r="F6">
         <v>986</v>
       </c>
       <c r="G6">
-        <f>R6*F6</f>
+        <f t="shared" si="2"/>
         <v>986000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.32899566232899569</v>
       </c>
       <c r="I6">
-        <f>G6/E6</f>
+        <f t="shared" si="3"/>
         <v>0.32899972405398398</v>
       </c>
       <c r="J6">
@@ -8642,22 +10084,22 @@
         <v>50681.332999999999</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1875209.321</v>
       </c>
       <c r="M6">
         <v>942</v>
       </c>
       <c r="N6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>942000</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.41736818785999114</v>
       </c>
       <c r="P6">
-        <f>N6/L6</f>
+        <f t="shared" si="5"/>
         <v>0.50234391939650558</v>
       </c>
       <c r="R6">
@@ -8675,26 +10117,26 @@
         <v>178999</v>
       </c>
       <c r="D7">
-        <f>(C7+1)/R7</f>
+        <f t="shared" si="0"/>
         <v>179</v>
       </c>
       <c r="E7">
-        <f>B7*C7</f>
+        <f t="shared" si="1"/>
         <v>11992933</v>
       </c>
       <c r="F7">
         <v>4039</v>
       </c>
       <c r="G7">
-        <f>R7*F7</f>
+        <f t="shared" si="2"/>
         <v>4039000</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.33677978820978904</v>
       </c>
       <c r="I7">
-        <f>G7/E7</f>
+        <f t="shared" si="3"/>
         <v>0.33678166967163081</v>
       </c>
       <c r="J7">
@@ -8704,22 +10146,22 @@
         <v>124342</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8330914</v>
       </c>
       <c r="M7">
         <v>4069</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4069000</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.37258492812013549</v>
       </c>
       <c r="P7">
-        <f>N7/L7</f>
+        <f t="shared" si="5"/>
         <v>0.48842179861657437</v>
       </c>
       <c r="R7">
@@ -8737,26 +10179,26 @@
         <v>26999</v>
       </c>
       <c r="D8">
-        <f>(C8+1)/R8</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E8">
-        <f>B8*C8</f>
+        <f t="shared" si="1"/>
         <v>323988</v>
       </c>
       <c r="F8">
         <v>76</v>
       </c>
       <c r="G8">
-        <f>R8*F8</f>
+        <f t="shared" si="2"/>
         <v>76000</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.23456790123456789</v>
       </c>
       <c r="I8">
-        <f>G8/E8</f>
+        <f t="shared" si="3"/>
         <v>0.23457658925639222</v>
       </c>
       <c r="J8">
@@ -8773,15 +10215,15 @@
         <v>76</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>76000</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.39583333333333331</v>
       </c>
       <c r="P8">
-        <f>N8/L8</f>
+        <f t="shared" si="5"/>
         <v>0.48886230164090488</v>
       </c>
       <c r="R8">
@@ -8799,26 +10241,26 @@
         <v>66999</v>
       </c>
       <c r="D9">
-        <f>(C9+1)/R9</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="E9">
-        <f>B9*C9</f>
+        <f t="shared" si="1"/>
         <v>2478963</v>
       </c>
       <c r="F9">
         <v>246</v>
       </c>
       <c r="G9">
-        <f>R9*F9</f>
+        <f t="shared" si="2"/>
         <v>246000</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.9233561920129082E-2</v>
       </c>
       <c r="I9">
-        <f>G9/E9</f>
+        <f t="shared" si="3"/>
         <v>9.9235043040174456E-2</v>
       </c>
       <c r="J9">
@@ -8835,15 +10277,15 @@
         <v>246</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>246000</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.12544620091789904</v>
       </c>
       <c r="P9">
-        <f>N9/L9</f>
+        <f t="shared" si="5"/>
         <v>0.36059489362450636</v>
       </c>
       <c r="R9">
@@ -8861,26 +10303,26 @@
         <v>114999</v>
       </c>
       <c r="D10">
-        <f>(C10+1)/R10</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="E10">
-        <f>B10*C10</f>
+        <f t="shared" si="1"/>
         <v>7704933</v>
       </c>
       <c r="F10">
         <v>450</v>
       </c>
       <c r="G10">
-        <f>R10*F10</f>
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5.8403634003893576E-2</v>
       </c>
       <c r="I10">
-        <f>G10/E10</f>
+        <f t="shared" si="3"/>
         <v>5.840414186599676E-2</v>
       </c>
       <c r="J10">
@@ -8890,22 +10332,22 @@
         <v>13753</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>921451</v>
       </c>
       <c r="M10">
         <v>450</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>450000</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.1451254366465544E-2</v>
       </c>
       <c r="P10">
-        <f>N10/L10</f>
+        <f t="shared" si="5"/>
         <v>0.48836020580584316</v>
       </c>
       <c r="R10">
@@ -8923,26 +10365,26 @@
         <v>20999</v>
       </c>
       <c r="D11">
-        <f>(C11+1)/R11</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E11">
-        <f>B11*C11</f>
+        <f t="shared" si="1"/>
         <v>251988</v>
       </c>
       <c r="F11">
         <v>72</v>
       </c>
       <c r="G11">
-        <f>R11*F11</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="I11">
-        <f>G11/E11</f>
+        <f t="shared" si="3"/>
         <v>0.28572789180437164</v>
       </c>
       <c r="J11">
@@ -8952,22 +10394,22 @@
         <v>11808.75</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L16" si="4">B11*K11</f>
+        <f t="shared" ref="L11:L16" si="9">B11*K11</f>
         <v>141705</v>
       </c>
       <c r="M11">
         <v>72</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>72000</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="P11">
-        <f>N11/L11</f>
+        <f t="shared" si="5"/>
         <v>0.50809780882819944</v>
       </c>
       <c r="R11">
@@ -8985,26 +10427,26 @@
         <v>60999</v>
       </c>
       <c r="D12">
-        <f>(C12+1)/R12</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="E12">
-        <f>B12*C12</f>
+        <f t="shared" si="1"/>
         <v>2256963</v>
       </c>
       <c r="F12">
         <v>662</v>
       </c>
       <c r="G12">
-        <f>R12*F12</f>
+        <f t="shared" si="2"/>
         <v>662000</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.29330970314576871</v>
       </c>
       <c r="I12">
-        <f>G12/E12</f>
+        <f t="shared" si="3"/>
         <v>0.2933145115803848</v>
       </c>
       <c r="J12">
@@ -9014,22 +10456,22 @@
         <v>32913.5</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1217799.5</v>
       </c>
       <c r="M12">
         <v>662</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>662000</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.38895417156286721</v>
       </c>
       <c r="P12">
-        <f>N12/L12</f>
+        <f t="shared" si="5"/>
         <v>0.54360344211013389</v>
       </c>
       <c r="R12">
@@ -9047,26 +10489,26 @@
         <v>108999</v>
       </c>
       <c r="D13">
-        <f>(C13+1)/R13</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="E13">
-        <f>B13*C13</f>
+        <f t="shared" si="1"/>
         <v>7302933</v>
       </c>
       <c r="F13">
         <v>2162</v>
       </c>
       <c r="G13">
-        <f>R13*F13</f>
+        <f t="shared" si="2"/>
         <v>2162000</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.29604272216897165</v>
       </c>
       <c r="I13">
-        <f>G13/E13</f>
+        <f t="shared" si="3"/>
         <v>0.296045438182166</v>
       </c>
       <c r="J13">
@@ -9076,22 +10518,22 @@
         <v>57027</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3820809</v>
       </c>
       <c r="M13">
         <v>2162</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2162000</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.39352020385875502</v>
       </c>
       <c r="P13">
-        <f>N13/L13</f>
+        <f t="shared" si="5"/>
         <v>0.56584875087972208</v>
       </c>
       <c r="R13">
@@ -9109,26 +10551,26 @@
         <v>24999</v>
       </c>
       <c r="D14">
-        <f>(C14+1)/R14</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E14">
-        <f>B14*C14</f>
+        <f t="shared" si="1"/>
         <v>349986</v>
       </c>
       <c r="F14">
         <v>134</v>
       </c>
       <c r="G14">
-        <f>R14*F14</f>
+        <f t="shared" si="2"/>
         <v>134000</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.38285714285714284</v>
       </c>
       <c r="I14">
-        <f>G14/E14</f>
+        <f t="shared" si="3"/>
         <v>0.38287245775545309</v>
       </c>
       <c r="J14">
@@ -9138,14 +10580,14 @@
         <v>16488.625</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>230840.75</v>
       </c>
       <c r="M14">
         <v>134</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>134000</v>
       </c>
       <c r="O14">
@@ -9153,7 +10595,7 @@
         <v>0.50375939849624063</v>
       </c>
       <c r="P14">
-        <f>N14/L14</f>
+        <f t="shared" si="5"/>
         <v>0.58048676414367917</v>
       </c>
       <c r="R14">
@@ -9171,26 +10613,26 @@
         <v>60999</v>
       </c>
       <c r="D15">
-        <f>(C15+1)/R15</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="E15">
-        <f>B15*C15</f>
+        <f t="shared" si="1"/>
         <v>2256963</v>
       </c>
       <c r="F15">
         <v>710</v>
       </c>
       <c r="G15">
-        <f>R15*F15</f>
+        <f t="shared" si="2"/>
         <v>710000</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.31457687195392114</v>
       </c>
       <c r="I15">
-        <f>G15/E15</f>
+        <f t="shared" si="3"/>
         <v>0.31458202903636434</v>
       </c>
       <c r="J15">
@@ -9200,22 +10642,22 @@
         <v>34361.25</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1271366.25</v>
       </c>
       <c r="M15">
         <v>710</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>710000</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.44626021370207419</v>
       </c>
       <c r="P15">
-        <f>N15/L15</f>
+        <f t="shared" si="5"/>
         <v>0.55845433996694505</v>
       </c>
       <c r="R15">
@@ -9233,26 +10675,26 @@
         <v>108999</v>
       </c>
       <c r="D16">
-        <f>(C16+1)/R16</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="E16">
-        <f>B16*C16</f>
+        <f t="shared" si="1"/>
         <v>7302933</v>
       </c>
       <c r="F16">
         <v>2258</v>
       </c>
       <c r="G16">
-        <f>R16*F16</f>
+        <f t="shared" si="2"/>
         <v>2258000</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0.30918800492948101</v>
       </c>
       <c r="I16">
-        <f>G16/E16</f>
+        <f t="shared" si="3"/>
         <v>0.30919084154270621</v>
       </c>
       <c r="J16">
@@ -9262,22 +10704,22 @@
         <v>59687.832999999999</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3999084.8109999998</v>
       </c>
       <c r="M16">
         <v>2258</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2258000</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.42660117135839787</v>
       </c>
       <c r="P16">
-        <f>N16/L16</f>
+        <f t="shared" si="5"/>
         <v>0.56462918560493613</v>
       </c>
       <c r="R16">
